--- a/NVDA/NVDA.xlsx
+++ b/NVDA/NVDA.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/NVDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1437" documentId="11_60E75B87F94EC339A3CE5EC2F11D231891AC5B93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54080273-4598-498B-BCC5-AB7F23912989}"/>
+  <xr:revisionPtr revIDLastSave="1921" documentId="11_60E75B87F94EC339A3CE5EC2F11D231891AC5B93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16EB4DB3-63F6-4892-ABDE-46686DA8C6E6}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="24860" yWindow="2710" windowWidth="7500" windowHeight="6000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary" sheetId="4" r:id="rId4"/>
-    <sheet name="Income Statement" sheetId="5" r:id="rId5"/>
-    <sheet name="Balance Sheet" sheetId="6" r:id="rId6"/>
-    <sheet name="Cash Flow" sheetId="7" r:id="rId7"/>
+    <sheet name="New Model" sheetId="8" r:id="rId4"/>
+    <sheet name="Summary" sheetId="4" r:id="rId5"/>
+    <sheet name="Income Statement" sheetId="5" r:id="rId6"/>
+    <sheet name="Balance Sheet" sheetId="6" r:id="rId7"/>
+    <sheet name="Cash Flow" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,11 +65,12 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="4">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -90,8 +92,29 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="3">
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="4">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -101,12 +124,15 @@
     <bk>
       <rc t="1" v="2"/>
     </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="1706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="1724">
   <si>
     <t>Price</t>
   </si>
@@ -5224,13 +5250,69 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Fiscal Period</t>
+  </si>
+  <si>
+    <t>Period Of Report</t>
+  </si>
+  <si>
+    <t>Total OperatingExpenses</t>
+  </si>
+  <si>
+    <t>Other, net</t>
+  </si>
+  <si>
+    <t>Income before taxes</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Income Statement *in millions, USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaming </t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>FORECAST</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Price/Share</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
@@ -5376,7 +5458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5431,7 +5513,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5447,6 +5532,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4885</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892229B4-0BBB-89EB-2848-8A6E387EFD67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20310231" y="0"/>
+          <a:ext cx="10990" cy="19091519"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5486,11 +5626,73 @@
       </key>
     </keyFlags>
   </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
 </rvTypesInfo>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <rv s="0">
     <v>12</v>
     <v>Price</v>
@@ -5505,11 +5707,65 @@
     <v>12</v>
     <v>1</v>
   </rv>
+  <rv s="2">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yv52&amp;q=XNAS%3aNVDA&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1yv52</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>140.76</v>
+    <v>39.229999999999997</v>
+    <v>1.6897</v>
+    <v>0.78</v>
+    <v>-5.3069999999999994E-4</v>
+    <v>6.9470000000000001E-3</v>
+    <v>-0.06</v>
+    <v>USD</v>
+    <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company accelerates computing to help solve the computational problems. The Company’s segments include Compute &amp; Networking and Graphics. Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI), cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; NVIDIA AI Enterprise and other software. The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
+    <v>29600</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
+    <v>116.2</v>
+    <v>Semiconductors &amp; Semiconductor Equipment</v>
+    <v>Stock</v>
+    <v>45499.999996631253</v>
+    <v>3</v>
+    <v>111.58</v>
+    <v>2781276000000</v>
+    <v>NVIDIA CORPORATION</v>
+    <v>NVIDIA CORPORATION</v>
+    <v>116.19</v>
+    <v>66.167299999999997</v>
+    <v>112.28</v>
+    <v>113.06</v>
+    <v>113</v>
+    <v>24600000000</v>
+    <v>NVDA</v>
+    <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
+    <v>293399073</v>
+    <v>316467997</v>
+    <v>1998</v>
+  </rv>
+  <rv s="4">
+    <v>4</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_error">
     <k n="errorType" t="i"/>
     <k n="field" t="s"/>
@@ -5519,7 +5775,281 @@
     <k n="errorType" t="i"/>
     <k n="propagated" t="b"/>
   </s>
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
 </rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5965,7 +6495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BT165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -6047,13 +6577,13 @@
       <c r="X1" s="31" t="s">
         <v>1702</v>
       </c>
-      <c r="Y1" s="52" t="s">
+      <c r="Y1" t="s">
         <v>1703</v>
       </c>
-      <c r="Z1" s="52" t="s">
+      <c r="Z1" t="s">
         <v>1704</v>
       </c>
-      <c r="AA1" s="52" t="s">
+      <c r="AA1" t="s">
         <v>1705</v>
       </c>
     </row>
@@ -6484,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="20">
-        <f t="shared" ref="E12:AE12" si="2">E11-E13</f>
+        <f t="shared" ref="E12:AB12" si="2">E11-E13</f>
         <v>0</v>
       </c>
       <c r="F12" s="20">
@@ -7910,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="20">
-        <f t="shared" ref="E22:AE22" si="141">E21-E23</f>
+        <f t="shared" ref="E22:AB22" si="141">E21-E23</f>
         <v>0</v>
       </c>
       <c r="F22" s="20">
@@ -8512,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="20">
-        <f t="shared" ref="E27:AE27" si="184">E26-E28</f>
+        <f t="shared" ref="E27:AB27" si="184">E26-E28</f>
         <v>0</v>
       </c>
       <c r="F27" s="20">
@@ -9473,7 +10003,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="15" t="e">
-        <f t="shared" ref="D36:AE36" si="228">D30/C30-1</f>
+        <f t="shared" ref="D36:AB36" si="228">D30/C30-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="15" t="e">
@@ -9702,7 +10232,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="15" t="e">
-        <f t="shared" ref="D37:AE37" si="242">D31/C31-1</f>
+        <f t="shared" ref="D37:AB37" si="242">D31/C31-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="15" t="e">
@@ -9931,7 +10461,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="15" t="e">
-        <f t="shared" ref="D38:AE38" si="246">D32/C32-1</f>
+        <f t="shared" ref="D38:AB38" si="246">D32/C32-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="15" t="e">
@@ -10160,7 +10690,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="15" t="e">
-        <f t="shared" ref="D39:AE39" si="250">D33/C33-1</f>
+        <f t="shared" ref="D39:AB39" si="250">D33/C33-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="15" t="e">
@@ -10587,7 +11117,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="15" t="e">
-        <f t="shared" ref="E41:AE41" si="257">E35/D35-1</f>
+        <f t="shared" ref="E41:AB41" si="257">E35/D35-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="15" t="e">
@@ -12030,7 +12560,7 @@
         <v>0.6506493506493507</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" ref="I54:AE54" si="347">I53/I51</f>
+        <f t="shared" ref="I54:AB54" si="347">I53/I51</f>
         <v>0.58846352819451631</v>
       </c>
       <c r="J54" s="15">
@@ -13112,7 +13642,7 @@
         <v>0.31688311688311688</v>
       </c>
       <c r="I61" s="17">
-        <f t="shared" ref="I61:AE61" si="442">I60/I51</f>
+        <f t="shared" ref="I61:AB61" si="442">I60/I51</f>
         <v>0.16839110191412313</v>
       </c>
       <c r="J61" s="17">
@@ -14540,7 +15070,7 @@
         <v>0.29772727272727273</v>
       </c>
       <c r="I70" s="15">
-        <f t="shared" ref="I70:AE70" si="548">I69/I51</f>
+        <f t="shared" ref="I70:AB70" si="548">I69/I51</f>
         <v>0.16088980858768753</v>
       </c>
       <c r="J70" s="15">
@@ -14749,7 +15279,7 @@
         <v>63</v>
       </c>
       <c r="D72" s="25" t="e">
-        <f t="shared" ref="D72:AE72" si="571">D69/D74</f>
+        <f t="shared" ref="D72:AB72" si="571">D69/D74</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E72" s="25" t="e">
@@ -14978,7 +15508,7 @@
         <v>64</v>
       </c>
       <c r="D73" s="14" t="e">
-        <f t="shared" ref="D73:AE73" si="577">D69/D75</f>
+        <f t="shared" ref="D73:AB73" si="577">D69/D75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E73" s="14" t="e">
@@ -15426,7 +15956,7 @@
         <v>68</v>
       </c>
       <c r="D80" s="19" t="e">
-        <f t="shared" ref="D80:AE80" si="583">D72/4</f>
+        <f t="shared" ref="D80:AB80" si="583">D72/4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E80" s="19" t="e">
@@ -15599,7 +16129,7 @@
         <v>69</v>
       </c>
       <c r="D81">
-        <f t="shared" ref="D81:AE81" si="587">D74*4</f>
+        <f t="shared" ref="D81:AB81" si="587">D74*4</f>
         <v>0</v>
       </c>
       <c r="E81">
@@ -15768,7 +16298,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82:AE82" si="590">E78*4</f>
+        <f t="shared" ref="E82:AB82" si="590">E78*4</f>
         <v>0</v>
       </c>
       <c r="F82">
@@ -15945,7 +16475,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E85" s="15" t="e">
-        <f t="shared" ref="E85:AE85" si="593">E56/E53</f>
+        <f t="shared" ref="E85:AB85" si="593">E56/E53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F85" s="15" t="e">
@@ -16174,7 +16704,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E86" s="15" t="e">
-        <f t="shared" ref="E86:AE86" si="597">E57/E53</f>
+        <f t="shared" ref="E86:AB86" si="597">E57/E53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F86" s="15" t="e">
@@ -16403,7 +16933,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E87" s="16" t="e">
-        <f t="shared" ref="E87:AE87" si="601">E58/E53</f>
+        <f t="shared" ref="E87:AB87" si="601">E58/E53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F87" s="16" t="e">
@@ -16632,7 +17162,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E88" s="15" t="e">
-        <f t="shared" ref="E88:AE88" si="605">E59/E53</f>
+        <f t="shared" ref="E88:AB88" si="605">E59/E53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F88" s="15" t="e">
@@ -16876,7 +17406,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E91" s="15" t="e">
-        <f t="shared" ref="E91:AE91" si="609">E53/E51</f>
+        <f t="shared" ref="E91:AB91" si="609">E53/E51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F91" s="15" t="e">
@@ -17105,7 +17635,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E92" s="15" t="e">
-        <f t="shared" ref="E92:AE92" si="613">E60/E51</f>
+        <f t="shared" ref="E92:AB92" si="613">E60/E51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F92" s="15" t="e">
@@ -17334,7 +17864,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E93" s="15" t="e">
-        <f t="shared" ref="E93:AE93" si="617">E67/E51</f>
+        <f t="shared" ref="E93:AB93" si="617">E67/E51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F93" s="15" t="e">
@@ -18952,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="20">
-        <f t="shared" ref="E110:AE110" si="651">SUM(E104:E109)</f>
+        <f t="shared" ref="E110:AB110" si="651">SUM(E104:E109)</f>
         <v>0</v>
       </c>
       <c r="F110" s="20">
@@ -19193,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="21">
-        <f t="shared" ref="E111:AE111" si="677">E110+E102</f>
+        <f t="shared" ref="E111:AB111" si="677">E110+E102</f>
         <v>0</v>
       </c>
       <c r="F111" s="21">
@@ -20359,7 +20889,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="30">
-        <f t="shared" ref="E121:AE121" si="740">SUM(E118:E120)</f>
+        <f t="shared" ref="E121:AB121" si="740">SUM(E118:E120)</f>
         <v>0</v>
       </c>
       <c r="F121" s="30">
@@ -20600,7 +21130,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="21">
-        <f t="shared" ref="E122:AE122" si="766">E121+E116</f>
+        <f t="shared" ref="E122:AB122" si="766">E121+E116</f>
         <v>0</v>
       </c>
       <c r="F122" s="21">
@@ -24197,6 +24727,5430 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FB248-A3C3-4C3B-9EF4-109AC0AB356C}">
+  <dimension ref="B1:CP78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="U76" sqref="U76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="22" max="30" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.81640625" customWidth="1"/>
+    <col min="46" max="46" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:94" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="12" t="s">
+        <v>1706</v>
+      </c>
+      <c r="V1" s="12">
+        <f>W1-1</f>
+        <v>2015</v>
+      </c>
+      <c r="W1" s="12">
+        <f>X1-1</f>
+        <v>2016</v>
+      </c>
+      <c r="X1" s="12">
+        <f>Y1-1</f>
+        <v>2017</v>
+      </c>
+      <c r="Y1" s="12">
+        <f>Z1-1</f>
+        <v>2018</v>
+      </c>
+      <c r="Z1" s="12">
+        <f>AA1-1</f>
+        <v>2019</v>
+      </c>
+      <c r="AA1" s="12">
+        <f>AB1-1</f>
+        <v>2020</v>
+      </c>
+      <c r="AB1" s="12">
+        <f>AC1-1</f>
+        <v>2021</v>
+      </c>
+      <c r="AC1" s="12">
+        <f>AD1-1</f>
+        <v>2022</v>
+      </c>
+      <c r="AD1" s="12">
+        <v>2023</v>
+      </c>
+      <c r="AE1" s="12">
+        <f>AD1+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AF1" s="12">
+        <f t="shared" ref="AF1:AP1" si="0">AE1+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AG1" s="12">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AH1" s="12">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AI1" s="12">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AJ1" s="12">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AK1" s="12">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AL1" s="12">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AM1" s="12">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AN1" s="12">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AO1" s="12">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AP1" s="12">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AQ1" s="12">
+        <f>AP1+1</f>
+        <v>2036</v>
+      </c>
+      <c r="AR1" s="12">
+        <f t="shared" ref="AR1:CP1" si="1">AQ1+1</f>
+        <v>2037</v>
+      </c>
+      <c r="AS1" s="12">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="AT1" s="12">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="AU1" s="12">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="AV1" s="12">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="AW1" s="12">
+        <f t="shared" si="1"/>
+        <v>2042</v>
+      </c>
+      <c r="AX1" s="12">
+        <f t="shared" si="1"/>
+        <v>2043</v>
+      </c>
+      <c r="AY1" s="12">
+        <f t="shared" si="1"/>
+        <v>2044</v>
+      </c>
+      <c r="AZ1" s="12">
+        <f t="shared" si="1"/>
+        <v>2045</v>
+      </c>
+      <c r="BA1" s="12">
+        <f t="shared" si="1"/>
+        <v>2046</v>
+      </c>
+      <c r="BB1" s="12">
+        <f t="shared" si="1"/>
+        <v>2047</v>
+      </c>
+      <c r="BC1" s="12">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="BD1" s="12">
+        <f t="shared" si="1"/>
+        <v>2049</v>
+      </c>
+      <c r="BE1" s="12">
+        <f t="shared" si="1"/>
+        <v>2050</v>
+      </c>
+      <c r="BF1" s="12">
+        <f t="shared" si="1"/>
+        <v>2051</v>
+      </c>
+      <c r="BG1" s="12">
+        <f t="shared" si="1"/>
+        <v>2052</v>
+      </c>
+      <c r="BH1" s="12">
+        <f t="shared" si="1"/>
+        <v>2053</v>
+      </c>
+      <c r="BI1" s="12">
+        <f t="shared" si="1"/>
+        <v>2054</v>
+      </c>
+      <c r="BJ1" s="12">
+        <f t="shared" si="1"/>
+        <v>2055</v>
+      </c>
+      <c r="BK1" s="12">
+        <f t="shared" si="1"/>
+        <v>2056</v>
+      </c>
+      <c r="BL1" s="12">
+        <f t="shared" si="1"/>
+        <v>2057</v>
+      </c>
+      <c r="BM1" s="12">
+        <f t="shared" si="1"/>
+        <v>2058</v>
+      </c>
+      <c r="BN1" s="12">
+        <f t="shared" si="1"/>
+        <v>2059</v>
+      </c>
+      <c r="BO1" s="12">
+        <f t="shared" si="1"/>
+        <v>2060</v>
+      </c>
+      <c r="BP1" s="12">
+        <f t="shared" si="1"/>
+        <v>2061</v>
+      </c>
+      <c r="BQ1" s="12">
+        <f t="shared" si="1"/>
+        <v>2062</v>
+      </c>
+      <c r="BR1" s="12">
+        <f t="shared" si="1"/>
+        <v>2063</v>
+      </c>
+      <c r="BS1" s="12">
+        <f t="shared" si="1"/>
+        <v>2064</v>
+      </c>
+      <c r="BT1" s="12">
+        <f t="shared" si="1"/>
+        <v>2065</v>
+      </c>
+      <c r="BU1" s="12">
+        <f t="shared" si="1"/>
+        <v>2066</v>
+      </c>
+      <c r="BV1" s="12">
+        <f t="shared" si="1"/>
+        <v>2067</v>
+      </c>
+      <c r="BW1" s="12">
+        <f t="shared" si="1"/>
+        <v>2068</v>
+      </c>
+      <c r="BX1" s="12">
+        <f t="shared" si="1"/>
+        <v>2069</v>
+      </c>
+      <c r="BY1" s="12">
+        <f t="shared" si="1"/>
+        <v>2070</v>
+      </c>
+      <c r="BZ1" s="12">
+        <f t="shared" si="1"/>
+        <v>2071</v>
+      </c>
+      <c r="CA1" s="12">
+        <f t="shared" si="1"/>
+        <v>2072</v>
+      </c>
+      <c r="CB1" s="12">
+        <f t="shared" si="1"/>
+        <v>2073</v>
+      </c>
+      <c r="CC1" s="12">
+        <f t="shared" si="1"/>
+        <v>2074</v>
+      </c>
+      <c r="CD1" s="12">
+        <f t="shared" si="1"/>
+        <v>2075</v>
+      </c>
+      <c r="CE1" s="12">
+        <f t="shared" si="1"/>
+        <v>2076</v>
+      </c>
+      <c r="CF1" s="12">
+        <f t="shared" si="1"/>
+        <v>2077</v>
+      </c>
+      <c r="CG1" s="12">
+        <f t="shared" si="1"/>
+        <v>2078</v>
+      </c>
+      <c r="CH1" s="12">
+        <f t="shared" si="1"/>
+        <v>2079</v>
+      </c>
+      <c r="CI1" s="12">
+        <f t="shared" si="1"/>
+        <v>2080</v>
+      </c>
+      <c r="CJ1" s="12">
+        <f t="shared" si="1"/>
+        <v>2081</v>
+      </c>
+      <c r="CK1" s="12">
+        <f t="shared" si="1"/>
+        <v>2082</v>
+      </c>
+      <c r="CL1" s="12">
+        <f t="shared" si="1"/>
+        <v>2083</v>
+      </c>
+      <c r="CM1" s="12">
+        <f t="shared" si="1"/>
+        <v>2084</v>
+      </c>
+      <c r="CN1" s="12">
+        <f t="shared" si="1"/>
+        <v>2085</v>
+      </c>
+      <c r="CO1" s="12">
+        <f t="shared" si="1"/>
+        <v>2086</v>
+      </c>
+      <c r="CP1" s="12">
+        <f t="shared" si="1"/>
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="2" spans="2:94" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="5">
+        <v>42446</v>
+      </c>
+      <c r="W2" s="5">
+        <v>42795</v>
+      </c>
+      <c r="X2" s="5">
+        <v>43159</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>43517</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>43881</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>44253</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>44638</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>44981</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>45343</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="3" spans="2:94" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="V3" s="5">
+        <f>DATE(YEAR(W3)-1, MONTH(W3), DAY(W3))</f>
+        <v>42400</v>
+      </c>
+      <c r="W3" s="5">
+        <f>DATE(YEAR(X3)-1, MONTH(X3), DAY(X3))</f>
+        <v>42766</v>
+      </c>
+      <c r="X3" s="5">
+        <f>DATE(YEAR(Y3)-1, MONTH(Y3), DAY(Y3))</f>
+        <v>43131</v>
+      </c>
+      <c r="Y3" s="5">
+        <f>DATE(YEAR(Z3)-1, MONTH(Z3), DAY(Z3))</f>
+        <v>43496</v>
+      </c>
+      <c r="Z3" s="5">
+        <f>DATE(YEAR(AA3)-1, MONTH(AA3), DAY(AA3))</f>
+        <v>43861</v>
+      </c>
+      <c r="AA3" s="5">
+        <f>DATE(YEAR(AB3)-1, MONTH(AB3), DAY(AB3))</f>
+        <v>44227</v>
+      </c>
+      <c r="AB3" s="5">
+        <f>DATE(YEAR(AC3)-1, MONTH(AC3), DAY(AC3))</f>
+        <v>44592</v>
+      </c>
+      <c r="AC3" s="5">
+        <f>DATE(YEAR(AD3)-1, MONTH(AD3), DAY(AD3))</f>
+        <v>44957</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="7" spans="2:94" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>8159</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>7639</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>9834</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>15868</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>11906</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>13517</v>
+      </c>
+    </row>
+    <row r="9" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>3417</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>3267</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>4612</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>8492</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>4552</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="10" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="15" t="e">
+        <f>J9/J8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="15" t="e">
+        <f t="shared" ref="K10:AA10" si="2">K9/K8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y10" s="15">
+        <f t="shared" si="2"/>
+        <v>0.41880132369162887</v>
+      </c>
+      <c r="Z10" s="15">
+        <f t="shared" si="2"/>
+        <v>0.42767377929048306</v>
+      </c>
+      <c r="AA10" s="15">
+        <f t="shared" si="2"/>
+        <v>0.46898515354891196</v>
+      </c>
+      <c r="AB10" s="15">
+        <f>AB9/AB8</f>
+        <v>0.53516511217544749</v>
+      </c>
+      <c r="AC10" s="15">
+        <f t="shared" ref="AC10:AE10" si="3">AC9/AC8</f>
+        <v>0.3823282378632622</v>
+      </c>
+      <c r="AD10" s="15">
+        <f t="shared" si="3"/>
+        <v>0.43249241695642526</v>
+      </c>
+      <c r="AE10" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF10" s="15" t="e">
+        <f t="shared" ref="AF10" si="4">AF9/AF8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG10" s="15" t="e">
+        <f t="shared" ref="AG10" si="5">AG9/AG8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH10" s="15" t="e">
+        <f t="shared" ref="AH10" si="6">AH9/AH8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI10" s="15" t="e">
+        <f t="shared" ref="AI10" si="7">AI9/AI8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ10" s="15" t="e">
+        <f t="shared" ref="AJ10" si="8">AJ9/AJ8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK10" s="15" t="e">
+        <f t="shared" ref="AK10" si="9">AK9/AK8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL10" s="15" t="e">
+        <f t="shared" ref="AL10" si="10">AL9/AL8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM10" s="15" t="e">
+        <f t="shared" ref="AM10" si="11">AM9/AM8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN10" s="15" t="e">
+        <f t="shared" ref="AN10" si="12">AN9/AN8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO10" s="15" t="e">
+        <f t="shared" ref="AO10" si="13">AO9/AO8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP10" s="15" t="e">
+        <f t="shared" ref="AP10" si="14">AP9/AP8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:94" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>3557</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>3279</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>6841</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>11046</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>15068</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>47405</v>
+      </c>
+    </row>
+    <row r="13" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1251</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>751</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>2548</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>4598</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>5083</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>32016</v>
+      </c>
+    </row>
+    <row r="14" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="15" t="e">
+        <f>J13/J12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="15" t="e">
+        <f t="shared" ref="K14" si="15">K13/K12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="15" t="e">
+        <f t="shared" ref="L14" si="16">L13/L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="15" t="e">
+        <f t="shared" ref="M14" si="17">M13/M12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="15" t="e">
+        <f t="shared" ref="N14" si="18">N13/N12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="15" t="e">
+        <f t="shared" ref="O14" si="19">O13/O12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" s="15" t="e">
+        <f t="shared" ref="P14" si="20">P13/P12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="15" t="e">
+        <f t="shared" ref="Q14" si="21">Q13/Q12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="15" t="e">
+        <f t="shared" ref="R14" si="22">R13/R12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" s="15" t="e">
+        <f t="shared" ref="S14" si="23">S13/S12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="15" t="e">
+        <f t="shared" ref="T14" si="24">T13/T12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="15" t="e">
+        <f t="shared" ref="U14" si="25">U13/U12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="15" t="e">
+        <f t="shared" ref="V14" si="26">V13/V12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" s="15" t="e">
+        <f t="shared" ref="W14" si="27">W13/W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="15" t="e">
+        <f t="shared" ref="X14" si="28">X13/X12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="15">
+        <f t="shared" ref="Y14" si="29">Y13/Y12</f>
+        <v>0.35170087152094459</v>
+      </c>
+      <c r="Z14" s="15">
+        <f t="shared" ref="Z14" si="30">Z13/Z12</f>
+        <v>0.229033241842025</v>
+      </c>
+      <c r="AA14" s="15">
+        <f t="shared" ref="AA14" si="31">AA13/AA12</f>
+        <v>0.37246016664230375</v>
+      </c>
+      <c r="AB14" s="15">
+        <f>AB13/AB12</f>
+        <v>0.41625927937715013</v>
+      </c>
+      <c r="AC14" s="15">
+        <f t="shared" ref="AC14" si="32">AC13/AC12</f>
+        <v>0.33733740376957794</v>
+      </c>
+      <c r="AD14" s="15">
+        <f t="shared" ref="AD14" si="33">AD13/AD12</f>
+        <v>0.67537179622402699</v>
+      </c>
+      <c r="AE14" s="15" t="e">
+        <f t="shared" ref="AE14" si="34">AE13/AE12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF14" s="15" t="e">
+        <f t="shared" ref="AF14" si="35">AF13/AF12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="15" t="e">
+        <f t="shared" ref="AG14" si="36">AG13/AG12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="15" t="e">
+        <f t="shared" ref="AH14" si="37">AH13/AH12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="15" t="e">
+        <f t="shared" ref="AI14" si="38">AI13/AI12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="15" t="e">
+        <f t="shared" ref="AJ14" si="39">AJ13/AJ12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="15" t="e">
+        <f t="shared" ref="AK14" si="40">AK13/AK12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="15" t="e">
+        <f t="shared" ref="AL14" si="41">AL13/AL12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM14" s="15" t="e">
+        <f t="shared" ref="AM14" si="42">AM13/AM12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN14" s="15" t="e">
+        <f t="shared" ref="AN14" si="43">AN13/AN12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO14" s="15" t="e">
+        <f t="shared" ref="AO14" si="44">AO13/AO12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" s="15" t="e">
+        <f t="shared" ref="AP14" si="45">AP13/AP12</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>6246</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>5518</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>7759</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>12462</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>9067</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>10447</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1130</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1212</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1053</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>2111</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1544</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>2932</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>2983</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>6696</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>10613</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>15005</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>47525</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>641</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>536</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>566</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>903</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y20" s="20">
+        <v>767</v>
+      </c>
+      <c r="Z20" s="20">
+        <v>505</v>
+      </c>
+      <c r="AA20" s="20">
+        <v>631</v>
+      </c>
+      <c r="AB20" s="20">
+        <v>1162</v>
+      </c>
+      <c r="AC20" s="20">
+        <v>455</v>
+      </c>
+      <c r="AD20" s="20">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="21" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J21" s="21">
+        <f>SUM(J16:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
+        <f t="shared" ref="K21:AP21" si="46">SUM(K16:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="21">
+        <f t="shared" si="46"/>
+        <v>11716</v>
+      </c>
+      <c r="Z21" s="21">
+        <f t="shared" si="46"/>
+        <v>10918</v>
+      </c>
+      <c r="AA21" s="21">
+        <f t="shared" si="46"/>
+        <v>16675</v>
+      </c>
+      <c r="AB21" s="21">
+        <f t="shared" si="46"/>
+        <v>26914</v>
+      </c>
+      <c r="AC21" s="21">
+        <f t="shared" si="46"/>
+        <v>26974</v>
+      </c>
+      <c r="AD21" s="21">
+        <f t="shared" si="46"/>
+        <v>60922</v>
+      </c>
+      <c r="AE21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J23" s="15" t="e">
+        <f>J16/I16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="15" t="e">
+        <f t="shared" ref="K23:AP23" si="47">K16/J16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" s="15">
+        <f t="shared" si="47"/>
+        <v>-0.11655459494076204</v>
+      </c>
+      <c r="AA23" s="15">
+        <f t="shared" si="47"/>
+        <v>0.40612540775643358</v>
+      </c>
+      <c r="AB23" s="15">
+        <f t="shared" si="47"/>
+        <v>0.60613481118700863</v>
+      </c>
+      <c r="AC23" s="15">
+        <f t="shared" si="47"/>
+        <v>-0.27242818167228378</v>
+      </c>
+      <c r="AD23" s="15">
+        <f t="shared" si="47"/>
+        <v>0.15220028675416342</v>
+      </c>
+      <c r="AE23" s="15">
+        <f t="shared" si="47"/>
+        <v>-1</v>
+      </c>
+      <c r="AF23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP23" s="15" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="15" t="e">
+        <f>J17/I17-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="15" t="e">
+        <f t="shared" ref="K24:AP24" si="48">K17/J17-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="15">
+        <f t="shared" si="48"/>
+        <v>7.2566371681415998E-2</v>
+      </c>
+      <c r="AA24" s="15">
+        <f t="shared" si="48"/>
+        <v>-0.13118811881188119</v>
+      </c>
+      <c r="AB24" s="15">
+        <f t="shared" si="48"/>
+        <v>1.0047483380816713</v>
+      </c>
+      <c r="AC24" s="15">
+        <f t="shared" si="48"/>
+        <v>-0.26859308384651825</v>
+      </c>
+      <c r="AD24" s="15">
+        <f t="shared" si="48"/>
+        <v>5.8290155440414715E-3</v>
+      </c>
+      <c r="AE24" s="15">
+        <f t="shared" si="48"/>
+        <v>-1</v>
+      </c>
+      <c r="AF24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP24" s="15" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="17" t="e">
+        <f>J18/I18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="17" t="e">
+        <f t="shared" ref="K25:AP25" si="49">K18/J18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="17">
+        <f t="shared" si="49"/>
+        <v>1.7394270122783162E-2</v>
+      </c>
+      <c r="AA25" s="17">
+        <f t="shared" si="49"/>
+        <v>1.2447200804559166</v>
+      </c>
+      <c r="AB25" s="17">
+        <f t="shared" si="49"/>
+        <v>0.5849761051373954</v>
+      </c>
+      <c r="AC25" s="17">
+        <f t="shared" si="49"/>
+        <v>0.4138320927164798</v>
+      </c>
+      <c r="AD25" s="17">
+        <f t="shared" si="49"/>
+        <v>2.1672775741419525</v>
+      </c>
+      <c r="AE25" s="17">
+        <f t="shared" si="49"/>
+        <v>-1</v>
+      </c>
+      <c r="AF25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP25" s="17" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="15" t="e">
+        <f>J19/I19-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="15" t="e">
+        <f t="shared" ref="K26:AP26" si="50">K19/J19-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="15">
+        <f t="shared" si="50"/>
+        <v>9.2043681747269845E-2</v>
+      </c>
+      <c r="AA26" s="15">
+        <f t="shared" si="50"/>
+        <v>-0.23428571428571432</v>
+      </c>
+      <c r="AB26" s="15">
+        <f t="shared" si="50"/>
+        <v>5.5970149253731449E-2</v>
+      </c>
+      <c r="AC26" s="15">
+        <f t="shared" si="50"/>
+        <v>0.59540636042402828</v>
+      </c>
+      <c r="AD26" s="15">
+        <f t="shared" si="50"/>
+        <v>0.20819490586932443</v>
+      </c>
+      <c r="AE26" s="15">
+        <f t="shared" si="50"/>
+        <v>-1</v>
+      </c>
+      <c r="AF26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP26" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="16" t="e">
+        <f>J20/I20-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="16" t="e">
+        <f t="shared" ref="J27:AP28" si="51">K20/J20-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="16">
+        <f t="shared" si="51"/>
+        <v>-0.34159061277705349</v>
+      </c>
+      <c r="AA27" s="16">
+        <f t="shared" si="51"/>
+        <v>0.2495049504950495</v>
+      </c>
+      <c r="AB27" s="16">
+        <f t="shared" si="51"/>
+        <v>0.84152139461172748</v>
+      </c>
+      <c r="AC27" s="16">
+        <f t="shared" si="51"/>
+        <v>-0.60843373493975905</v>
+      </c>
+      <c r="AD27" s="16">
+        <f t="shared" si="51"/>
+        <v>-0.32747252747252742</v>
+      </c>
+      <c r="AE27" s="16">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="AF27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP27" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="16">
+        <f t="shared" si="51"/>
+        <v>-6.8111983612154314E-2</v>
+      </c>
+      <c r="AA28" s="16">
+        <f t="shared" si="51"/>
+        <v>0.52729437625938824</v>
+      </c>
+      <c r="AB28" s="16">
+        <f t="shared" si="51"/>
+        <v>0.61403298350824587</v>
+      </c>
+      <c r="AC28" s="16">
+        <f t="shared" si="51"/>
+        <v>2.2293230289069932E-3</v>
+      </c>
+      <c r="AD28" s="16">
+        <f t="shared" si="51"/>
+        <v>1.2585452658115224</v>
+      </c>
+      <c r="AE28" s="16">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="AF28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP28" s="16" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="24" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J30" s="15" t="e">
+        <f>J16/J$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="15" t="e">
+        <f t="shared" ref="K30:AP30" si="52">K16/K$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y30" s="15">
+        <f t="shared" si="52"/>
+        <v>0.53311710481392971</v>
+      </c>
+      <c r="Z30" s="15">
+        <f t="shared" si="52"/>
+        <v>0.50540392013189228</v>
+      </c>
+      <c r="AA30" s="15">
+        <f t="shared" si="52"/>
+        <v>0.46530734632683657</v>
+      </c>
+      <c r="AB30" s="15">
+        <f t="shared" si="52"/>
+        <v>0.46303039310396077</v>
+      </c>
+      <c r="AC30" s="15">
+        <f t="shared" si="52"/>
+        <v>0.3361385037443464</v>
+      </c>
+      <c r="AD30" s="15">
+        <f t="shared" si="52"/>
+        <v>0.17148156659334887</v>
+      </c>
+      <c r="AE30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP30" s="15" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="15" t="e">
+        <f>J17/J$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="15" t="e">
+        <f t="shared" ref="K31:AP31" si="53">K17/K$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y31" s="15">
+        <f t="shared" si="53"/>
+        <v>9.6449300102424029E-2</v>
+      </c>
+      <c r="Z31" s="15">
+        <f t="shared" si="53"/>
+        <v>0.11100934237039752</v>
+      </c>
+      <c r="AA31" s="15">
+        <f t="shared" si="53"/>
+        <v>6.3148425787106444E-2</v>
+      </c>
+      <c r="AB31" s="15">
+        <f t="shared" si="53"/>
+        <v>7.843501523370737E-2</v>
+      </c>
+      <c r="AC31" s="15">
+        <f t="shared" si="53"/>
+        <v>5.7240305479350488E-2</v>
+      </c>
+      <c r="AD31" s="15">
+        <f t="shared" si="53"/>
+        <v>2.5491612225468634E-2</v>
+      </c>
+      <c r="AE31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP31" s="15" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="17" t="e">
+        <f>J18/J$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="17" t="e">
+        <f t="shared" ref="K32:AP32" si="54">K18/K$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y32" s="17">
+        <f t="shared" si="54"/>
+        <v>0.2502560600887675</v>
+      </c>
+      <c r="Z32" s="17">
+        <f t="shared" si="54"/>
+        <v>0.27321853819380837</v>
+      </c>
+      <c r="AA32" s="17">
+        <f t="shared" si="54"/>
+        <v>0.40155922038980507</v>
+      </c>
+      <c r="AB32" s="17">
+        <f t="shared" si="54"/>
+        <v>0.39433008842981349</v>
+      </c>
+      <c r="AC32" s="17">
+        <f t="shared" si="54"/>
+        <v>0.55627641432490549</v>
+      </c>
+      <c r="AD32" s="17">
+        <f t="shared" si="54"/>
+        <v>0.78009586028035849</v>
+      </c>
+      <c r="AE32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP32" s="17" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="15" t="e">
+        <f>J19/J$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="15" t="e">
+        <f t="shared" ref="K33:AP33" si="55">K19/K$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y33" s="15">
+        <f t="shared" si="55"/>
+        <v>5.4711505633321951E-2</v>
+      </c>
+      <c r="Z33" s="15">
+        <f t="shared" si="55"/>
+        <v>6.4114306649569519E-2</v>
+      </c>
+      <c r="AA33" s="15">
+        <f t="shared" si="55"/>
+        <v>3.2143928035982011E-2</v>
+      </c>
+      <c r="AB33" s="15">
+        <f t="shared" si="55"/>
+        <v>2.1029947239354984E-2</v>
+      </c>
+      <c r="AC33" s="15">
+        <f t="shared" si="55"/>
+        <v>3.3476681248609773E-2</v>
+      </c>
+      <c r="AD33" s="15">
+        <f t="shared" si="55"/>
+        <v>1.7908144840944159E-2</v>
+      </c>
+      <c r="AE33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP33" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:42" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="16" t="e">
+        <f>J20/J$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="16" t="e">
+        <f t="shared" ref="K34:AP34" si="56">K20/K$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y34" s="16">
+        <f t="shared" si="56"/>
+        <v>6.5466029361556849E-2</v>
+      </c>
+      <c r="Z34" s="16">
+        <f t="shared" si="56"/>
+        <v>4.6253892654332295E-2</v>
+      </c>
+      <c r="AA34" s="16">
+        <f t="shared" si="56"/>
+        <v>3.7841079460269864E-2</v>
+      </c>
+      <c r="AB34" s="16">
+        <f t="shared" si="56"/>
+        <v>4.3174555993163409E-2</v>
+      </c>
+      <c r="AC34" s="16">
+        <f t="shared" si="56"/>
+        <v>1.6868095202787869E-2</v>
+      </c>
+      <c r="AD34" s="16">
+        <f t="shared" si="56"/>
+        <v>5.0228160598798461E-3</v>
+      </c>
+      <c r="AE34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP34" s="16" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J35" s="15" t="e">
+        <f>SUM(J30:J34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="15" t="e">
+        <f t="shared" ref="K35:AP35" si="57">SUM(K30:K34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y35" s="15">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="Z35" s="15">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="AA35" s="15">
+        <f t="shared" si="57"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AB35" s="15">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="AC35" s="15">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="AD35" s="15">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="AE35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP35" s="15" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="38" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" s="21">
+        <v>5010</v>
+      </c>
+      <c r="W38" s="21">
+        <v>6910</v>
+      </c>
+      <c r="X38" s="21">
+        <v>9714</v>
+      </c>
+      <c r="Y38" s="21">
+        <v>11716</v>
+      </c>
+      <c r="Z38" s="21">
+        <v>10918</v>
+      </c>
+      <c r="AA38" s="21">
+        <v>16675</v>
+      </c>
+      <c r="AB38" s="21">
+        <v>26914</v>
+      </c>
+      <c r="AC38" s="21">
+        <v>26974</v>
+      </c>
+      <c r="AD38" s="21">
+        <v>60922</v>
+      </c>
+      <c r="AE38" s="21">
+        <f>AD38*1.3</f>
+        <v>79198.600000000006</v>
+      </c>
+      <c r="AF38" s="21">
+        <f t="shared" ref="AF38:AP38" si="58">AE38*1.3</f>
+        <v>102958.18000000001</v>
+      </c>
+      <c r="AG38" s="21">
+        <f t="shared" si="58"/>
+        <v>133845.63400000002</v>
+      </c>
+      <c r="AH38" s="21">
+        <f t="shared" si="58"/>
+        <v>173999.32420000003</v>
+      </c>
+      <c r="AI38" s="21">
+        <f t="shared" si="58"/>
+        <v>226199.12146000005</v>
+      </c>
+      <c r="AJ38" s="21">
+        <f t="shared" si="58"/>
+        <v>294058.8578980001</v>
+      </c>
+      <c r="AK38" s="21">
+        <f t="shared" si="58"/>
+        <v>382276.51526740013</v>
+      </c>
+      <c r="AL38" s="21">
+        <f t="shared" si="58"/>
+        <v>496959.46984762017</v>
+      </c>
+      <c r="AM38" s="21">
+        <f t="shared" si="58"/>
+        <v>646047.31080190628</v>
+      </c>
+      <c r="AN38" s="21">
+        <f t="shared" si="58"/>
+        <v>839861.50404247816</v>
+      </c>
+      <c r="AO38" s="21">
+        <f t="shared" si="58"/>
+        <v>1091819.9552552216</v>
+      </c>
+      <c r="AP38" s="21">
+        <f t="shared" si="58"/>
+        <v>1419365.941831788</v>
+      </c>
+    </row>
+    <row r="39" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="V39" s="20">
+        <v>2199</v>
+      </c>
+      <c r="W39" s="20">
+        <v>2847</v>
+      </c>
+      <c r="X39" s="20">
+        <v>3892</v>
+      </c>
+      <c r="Y39" s="20">
+        <v>4545</v>
+      </c>
+      <c r="Z39" s="20">
+        <v>4150</v>
+      </c>
+      <c r="AA39" s="20">
+        <v>6279</v>
+      </c>
+      <c r="AB39" s="20">
+        <v>9439</v>
+      </c>
+      <c r="AC39" s="20">
+        <v>11618</v>
+      </c>
+      <c r="AD39" s="20">
+        <v>16621</v>
+      </c>
+    </row>
+    <row r="40" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="21">
+        <f>J38-J39</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="21">
+        <f t="shared" ref="K40:AP40" si="59">K38-K39</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="21">
+        <f t="shared" si="59"/>
+        <v>2811</v>
+      </c>
+      <c r="W40" s="21">
+        <f t="shared" si="59"/>
+        <v>4063</v>
+      </c>
+      <c r="X40" s="21">
+        <f t="shared" si="59"/>
+        <v>5822</v>
+      </c>
+      <c r="Y40" s="21">
+        <f t="shared" si="59"/>
+        <v>7171</v>
+      </c>
+      <c r="Z40" s="21">
+        <f t="shared" si="59"/>
+        <v>6768</v>
+      </c>
+      <c r="AA40" s="21">
+        <f t="shared" si="59"/>
+        <v>10396</v>
+      </c>
+      <c r="AB40" s="21">
+        <f t="shared" si="59"/>
+        <v>17475</v>
+      </c>
+      <c r="AC40" s="21">
+        <f t="shared" si="59"/>
+        <v>15356</v>
+      </c>
+      <c r="AD40" s="21">
+        <f t="shared" si="59"/>
+        <v>44301</v>
+      </c>
+      <c r="AE40" s="21">
+        <f>AE38*AE65</f>
+        <v>47519.16</v>
+      </c>
+      <c r="AF40" s="21">
+        <f t="shared" ref="AF40:AP40" si="60">AF38*AF65</f>
+        <v>61774.908000000003</v>
+      </c>
+      <c r="AG40" s="21">
+        <f t="shared" si="60"/>
+        <v>80307.380400000009</v>
+      </c>
+      <c r="AH40" s="21">
+        <f t="shared" si="60"/>
+        <v>104399.59452000001</v>
+      </c>
+      <c r="AI40" s="21">
+        <f t="shared" si="60"/>
+        <v>135719.47287600001</v>
+      </c>
+      <c r="AJ40" s="21">
+        <f t="shared" si="60"/>
+        <v>176435.31473880005</v>
+      </c>
+      <c r="AK40" s="21">
+        <f t="shared" si="60"/>
+        <v>229365.90916044006</v>
+      </c>
+      <c r="AL40" s="21">
+        <f t="shared" si="60"/>
+        <v>298175.68190857209</v>
+      </c>
+      <c r="AM40" s="21">
+        <f t="shared" si="60"/>
+        <v>387628.38648114377</v>
+      </c>
+      <c r="AN40" s="21">
+        <f t="shared" si="60"/>
+        <v>503916.90242548689</v>
+      </c>
+      <c r="AO40" s="21">
+        <f t="shared" si="60"/>
+        <v>655091.97315313295</v>
+      </c>
+      <c r="AP40" s="21">
+        <f t="shared" si="60"/>
+        <v>851619.56509907276</v>
+      </c>
+    </row>
+    <row r="41" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V41" s="3">
+        <v>1331</v>
+      </c>
+      <c r="W41" s="3">
+        <v>1463</v>
+      </c>
+      <c r="X41" s="3">
+        <v>1797</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>2376</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>2829</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>3924</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>5268</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>7339</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>8675</v>
+      </c>
+      <c r="AE41" s="3">
+        <f>AD41*1.25</f>
+        <v>10843.75</v>
+      </c>
+      <c r="AF41" s="3">
+        <f t="shared" ref="AF41:AP41" si="61">AE41*1.25</f>
+        <v>13554.6875</v>
+      </c>
+      <c r="AG41" s="3">
+        <f t="shared" si="61"/>
+        <v>16943.359375</v>
+      </c>
+      <c r="AH41" s="3">
+        <f t="shared" si="61"/>
+        <v>21179.19921875</v>
+      </c>
+      <c r="AI41" s="3">
+        <f t="shared" si="61"/>
+        <v>26473.9990234375</v>
+      </c>
+      <c r="AJ41" s="3">
+        <f t="shared" si="61"/>
+        <v>33092.498779296875</v>
+      </c>
+      <c r="AK41" s="3">
+        <f t="shared" si="61"/>
+        <v>41365.623474121094</v>
+      </c>
+      <c r="AL41" s="3">
+        <f t="shared" si="61"/>
+        <v>51707.029342651367</v>
+      </c>
+      <c r="AM41" s="3">
+        <f t="shared" si="61"/>
+        <v>64633.786678314209</v>
+      </c>
+      <c r="AN41" s="3">
+        <f t="shared" si="61"/>
+        <v>80792.233347892761</v>
+      </c>
+      <c r="AO41" s="3">
+        <f t="shared" si="61"/>
+        <v>100990.29168486595</v>
+      </c>
+      <c r="AP41" s="3">
+        <f t="shared" si="61"/>
+        <v>126237.86460608244</v>
+      </c>
+    </row>
+    <row r="42" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V42" s="3">
+        <v>602</v>
+      </c>
+      <c r="W42" s="3">
+        <v>663</v>
+      </c>
+      <c r="X42" s="3">
+        <v>815</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>991</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>1093</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>1940</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>2166</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>2440</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>2654</v>
+      </c>
+      <c r="AE42" s="3">
+        <f>AD42*1.15</f>
+        <v>3052.1</v>
+      </c>
+      <c r="AF42" s="3">
+        <f t="shared" ref="AF42:AP42" si="62">AE42*1.15</f>
+        <v>3509.9149999999995</v>
+      </c>
+      <c r="AG42" s="3">
+        <f t="shared" si="62"/>
+        <v>4036.4022499999992</v>
+      </c>
+      <c r="AH42" s="3">
+        <f t="shared" si="62"/>
+        <v>4641.8625874999989</v>
+      </c>
+      <c r="AI42" s="3">
+        <f t="shared" si="62"/>
+        <v>5338.1419756249979</v>
+      </c>
+      <c r="AJ42" s="3">
+        <f t="shared" si="62"/>
+        <v>6138.8632719687475</v>
+      </c>
+      <c r="AK42" s="3">
+        <f t="shared" si="62"/>
+        <v>7059.6927627640589</v>
+      </c>
+      <c r="AL42" s="3">
+        <f t="shared" si="62"/>
+        <v>8118.6466771786672</v>
+      </c>
+      <c r="AM42" s="3">
+        <f t="shared" si="62"/>
+        <v>9336.443678755466</v>
+      </c>
+      <c r="AN42" s="3">
+        <f t="shared" si="62"/>
+        <v>10736.910230568785</v>
+      </c>
+      <c r="AO42" s="3">
+        <f t="shared" si="62"/>
+        <v>12347.446765154102</v>
+      </c>
+      <c r="AP42" s="3">
+        <f t="shared" si="62"/>
+        <v>14199.563779927215</v>
+      </c>
+    </row>
+    <row r="43" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="V43" s="20">
+        <v>131</v>
+      </c>
+      <c r="W43" s="20">
+        <v>3</v>
+      </c>
+      <c r="X43" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="20">
+        <v>1353</v>
+      </c>
+      <c r="AD43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:42" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="30" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J44" s="30">
+        <f>SUM(J41:J43)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="30">
+        <f t="shared" ref="K44:AP44" si="63">SUM(K41:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="30">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="30">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="30">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="30">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="30">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="30">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="30">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="30">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="30">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="30">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="30">
+        <f t="shared" si="63"/>
+        <v>2064</v>
+      </c>
+      <c r="W44" s="30">
+        <f t="shared" si="63"/>
+        <v>2129</v>
+      </c>
+      <c r="X44" s="30">
+        <f t="shared" si="63"/>
+        <v>2612</v>
+      </c>
+      <c r="Y44" s="30">
+        <f t="shared" si="63"/>
+        <v>3367</v>
+      </c>
+      <c r="Z44" s="30">
+        <f t="shared" si="63"/>
+        <v>3922</v>
+      </c>
+      <c r="AA44" s="30">
+        <f t="shared" si="63"/>
+        <v>5864</v>
+      </c>
+      <c r="AB44" s="30">
+        <f t="shared" si="63"/>
+        <v>7434</v>
+      </c>
+      <c r="AC44" s="30">
+        <f t="shared" si="63"/>
+        <v>11132</v>
+      </c>
+      <c r="AD44" s="30">
+        <f t="shared" si="63"/>
+        <v>11329</v>
+      </c>
+      <c r="AE44" s="30">
+        <f t="shared" si="63"/>
+        <v>13895.85</v>
+      </c>
+      <c r="AF44" s="30">
+        <f t="shared" si="63"/>
+        <v>17064.602500000001</v>
+      </c>
+      <c r="AG44" s="30">
+        <f t="shared" si="63"/>
+        <v>20979.761624999999</v>
+      </c>
+      <c r="AH44" s="30">
+        <f t="shared" si="63"/>
+        <v>25821.06180625</v>
+      </c>
+      <c r="AI44" s="30">
+        <f t="shared" si="63"/>
+        <v>31812.140999062496</v>
+      </c>
+      <c r="AJ44" s="30">
+        <f t="shared" si="63"/>
+        <v>39231.36205126562</v>
+      </c>
+      <c r="AK44" s="30">
+        <f t="shared" si="63"/>
+        <v>48425.316236885155</v>
+      </c>
+      <c r="AL44" s="30">
+        <f t="shared" si="63"/>
+        <v>59825.676019830033</v>
+      </c>
+      <c r="AM44" s="30">
+        <f t="shared" si="63"/>
+        <v>73970.230357069668</v>
+      </c>
+      <c r="AN44" s="30">
+        <f t="shared" si="63"/>
+        <v>91529.143578461546</v>
+      </c>
+      <c r="AO44" s="30">
+        <f t="shared" si="63"/>
+        <v>113337.73845002006</v>
+      </c>
+      <c r="AP44" s="30">
+        <f t="shared" si="63"/>
+        <v>140437.42838600965</v>
+      </c>
+    </row>
+    <row r="45" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="3">
+        <f>J40-J44</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" ref="K45:AP45" si="64">K40-K44</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <f t="shared" si="64"/>
+        <v>747</v>
+      </c>
+      <c r="W45" s="3">
+        <f t="shared" si="64"/>
+        <v>1934</v>
+      </c>
+      <c r="X45" s="3">
+        <f t="shared" si="64"/>
+        <v>3210</v>
+      </c>
+      <c r="Y45" s="3">
+        <f t="shared" si="64"/>
+        <v>3804</v>
+      </c>
+      <c r="Z45" s="3">
+        <f t="shared" si="64"/>
+        <v>2846</v>
+      </c>
+      <c r="AA45" s="3">
+        <f t="shared" si="64"/>
+        <v>4532</v>
+      </c>
+      <c r="AB45" s="3">
+        <f t="shared" si="64"/>
+        <v>10041</v>
+      </c>
+      <c r="AC45" s="3">
+        <f t="shared" si="64"/>
+        <v>4224</v>
+      </c>
+      <c r="AD45" s="3">
+        <f t="shared" si="64"/>
+        <v>32972</v>
+      </c>
+      <c r="AE45" s="3">
+        <f t="shared" si="64"/>
+        <v>33623.310000000005</v>
+      </c>
+      <c r="AF45" s="3">
+        <f t="shared" si="64"/>
+        <v>44710.305500000002</v>
+      </c>
+      <c r="AG45" s="3">
+        <f t="shared" si="64"/>
+        <v>59327.61877500001</v>
+      </c>
+      <c r="AH45" s="3">
+        <f t="shared" si="64"/>
+        <v>78578.532713750013</v>
+      </c>
+      <c r="AI45" s="3">
+        <f t="shared" si="64"/>
+        <v>103907.33187693752</v>
+      </c>
+      <c r="AJ45" s="3">
+        <f t="shared" si="64"/>
+        <v>137203.95268753445</v>
+      </c>
+      <c r="AK45" s="3">
+        <f t="shared" si="64"/>
+        <v>180940.59292355491</v>
+      </c>
+      <c r="AL45" s="3">
+        <f t="shared" si="64"/>
+        <v>238350.00588874205</v>
+      </c>
+      <c r="AM45" s="3">
+        <f t="shared" si="64"/>
+        <v>313658.15612407413</v>
+      </c>
+      <c r="AN45" s="3">
+        <f t="shared" si="64"/>
+        <v>412387.75884702534</v>
+      </c>
+      <c r="AO45" s="3">
+        <f t="shared" si="64"/>
+        <v>541754.23470311286</v>
+      </c>
+      <c r="AP45" s="3">
+        <f t="shared" si="64"/>
+        <v>711182.13671306311</v>
+      </c>
+    </row>
+    <row r="46" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="3">
+        <v>39</v>
+      </c>
+      <c r="W46" s="3">
+        <v>54</v>
+      </c>
+      <c r="X46" s="3">
+        <v>69</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>136</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>178</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>57</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>29</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>267</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>866</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V47" s="3">
+        <v>-47</v>
+      </c>
+      <c r="W47" s="3">
+        <v>-58</v>
+      </c>
+      <c r="X47" s="3">
+        <v>-61</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>-58</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>-52</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>-184</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>-236</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>-262</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>-257</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="20" t="s">
+        <v>1709</v>
+      </c>
+      <c r="V48" s="20">
+        <v>4</v>
+      </c>
+      <c r="W48" s="20">
+        <v>-25</v>
+      </c>
+      <c r="X48" s="20">
+        <v>-22</v>
+      </c>
+      <c r="Y48" s="20">
+        <v>14</v>
+      </c>
+      <c r="Z48" s="20">
+        <v>-2</v>
+      </c>
+      <c r="AA48" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB48" s="20">
+        <v>107</v>
+      </c>
+      <c r="AC48" s="20">
+        <v>-48</v>
+      </c>
+      <c r="AD48" s="20">
+        <v>237</v>
+      </c>
+      <c r="AE48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="J49" s="3">
+        <f>J45+SUM(J46:J48)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" ref="K49:AP49" si="65">K45+SUM(K46:K48)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <f t="shared" si="65"/>
+        <v>743</v>
+      </c>
+      <c r="W49" s="3">
+        <f t="shared" si="65"/>
+        <v>1905</v>
+      </c>
+      <c r="X49" s="3">
+        <f t="shared" si="65"/>
+        <v>3196</v>
+      </c>
+      <c r="Y49" s="3">
+        <f t="shared" si="65"/>
+        <v>3896</v>
+      </c>
+      <c r="Z49" s="3">
+        <f t="shared" si="65"/>
+        <v>2970</v>
+      </c>
+      <c r="AA49" s="3">
+        <f t="shared" si="65"/>
+        <v>4409</v>
+      </c>
+      <c r="AB49" s="3">
+        <f t="shared" si="65"/>
+        <v>9941</v>
+      </c>
+      <c r="AC49" s="3">
+        <f t="shared" si="65"/>
+        <v>4181</v>
+      </c>
+      <c r="AD49" s="3">
+        <f t="shared" si="65"/>
+        <v>33818</v>
+      </c>
+      <c r="AE49" s="3">
+        <f t="shared" si="65"/>
+        <v>33623.310000000005</v>
+      </c>
+      <c r="AF49" s="3">
+        <f t="shared" si="65"/>
+        <v>44710.305500000002</v>
+      </c>
+      <c r="AG49" s="3">
+        <f t="shared" si="65"/>
+        <v>59327.61877500001</v>
+      </c>
+      <c r="AH49" s="3">
+        <f t="shared" si="65"/>
+        <v>78578.532713750013</v>
+      </c>
+      <c r="AI49" s="3">
+        <f t="shared" si="65"/>
+        <v>103907.33187693752</v>
+      </c>
+      <c r="AJ49" s="3">
+        <f t="shared" si="65"/>
+        <v>137203.95268753445</v>
+      </c>
+      <c r="AK49" s="3">
+        <f t="shared" si="65"/>
+        <v>180940.59292355491</v>
+      </c>
+      <c r="AL49" s="3">
+        <f t="shared" si="65"/>
+        <v>238350.00588874205</v>
+      </c>
+      <c r="AM49" s="3">
+        <f t="shared" si="65"/>
+        <v>313658.15612407413</v>
+      </c>
+      <c r="AN49" s="3">
+        <f t="shared" si="65"/>
+        <v>412387.75884702534</v>
+      </c>
+      <c r="AO49" s="3">
+        <f t="shared" si="65"/>
+        <v>541754.23470311286</v>
+      </c>
+      <c r="AP49" s="3">
+        <f t="shared" si="65"/>
+        <v>711182.13671306311</v>
+      </c>
+    </row>
+    <row r="50" spans="2:94" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="V50" s="20">
+        <v>129</v>
+      </c>
+      <c r="W50" s="20">
+        <v>239</v>
+      </c>
+      <c r="X50" s="20">
+        <v>149</v>
+      </c>
+      <c r="Y50" s="20">
+        <v>-245</v>
+      </c>
+      <c r="Z50" s="20">
+        <v>174</v>
+      </c>
+      <c r="AA50" s="20">
+        <v>77</v>
+      </c>
+      <c r="AB50" s="20">
+        <v>189</v>
+      </c>
+      <c r="AC50" s="20">
+        <v>-187</v>
+      </c>
+      <c r="AD50" s="20">
+        <v>4058</v>
+      </c>
+      <c r="AE50" s="20">
+        <f>AE49*AE68</f>
+        <v>6724.6620000000012</v>
+      </c>
+      <c r="AF50" s="20">
+        <f t="shared" ref="AF50:AP50" si="66">AF49*AF68</f>
+        <v>8942.0611000000008</v>
+      </c>
+      <c r="AG50" s="20">
+        <f t="shared" si="66"/>
+        <v>11865.523755000002</v>
+      </c>
+      <c r="AH50" s="20">
+        <f t="shared" si="66"/>
+        <v>15715.706542750004</v>
+      </c>
+      <c r="AI50" s="20">
+        <f t="shared" si="66"/>
+        <v>20781.466375387507</v>
+      </c>
+      <c r="AJ50" s="20">
+        <f t="shared" si="66"/>
+        <v>27440.790537506891</v>
+      </c>
+      <c r="AK50" s="20">
+        <f t="shared" si="66"/>
+        <v>36188.118584710981</v>
+      </c>
+      <c r="AL50" s="20">
+        <f t="shared" si="66"/>
+        <v>47670.001177748411</v>
+      </c>
+      <c r="AM50" s="20">
+        <f t="shared" si="66"/>
+        <v>62731.631224814832</v>
+      </c>
+      <c r="AN50" s="20">
+        <f t="shared" si="66"/>
+        <v>82477.55176940508</v>
+      </c>
+      <c r="AO50" s="20">
+        <f t="shared" si="66"/>
+        <v>108350.84694062258</v>
+      </c>
+      <c r="AP50" s="20">
+        <f t="shared" si="66"/>
+        <v>142236.42734261262</v>
+      </c>
+    </row>
+    <row r="51" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="3">
+        <f>J49-J50</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" ref="K51:AP51" si="67">K49-K50</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <f t="shared" si="67"/>
+        <v>614</v>
+      </c>
+      <c r="W51" s="3">
+        <f t="shared" si="67"/>
+        <v>1666</v>
+      </c>
+      <c r="X51" s="3">
+        <f t="shared" si="67"/>
+        <v>3047</v>
+      </c>
+      <c r="Y51" s="3">
+        <f t="shared" si="67"/>
+        <v>4141</v>
+      </c>
+      <c r="Z51" s="3">
+        <f t="shared" si="67"/>
+        <v>2796</v>
+      </c>
+      <c r="AA51" s="3">
+        <f t="shared" si="67"/>
+        <v>4332</v>
+      </c>
+      <c r="AB51" s="3">
+        <f t="shared" si="67"/>
+        <v>9752</v>
+      </c>
+      <c r="AC51" s="3">
+        <f t="shared" si="67"/>
+        <v>4368</v>
+      </c>
+      <c r="AD51" s="3">
+        <f t="shared" si="67"/>
+        <v>29760</v>
+      </c>
+      <c r="AE51" s="3">
+        <f t="shared" si="67"/>
+        <v>26898.648000000005</v>
+      </c>
+      <c r="AF51" s="3">
+        <f t="shared" si="67"/>
+        <v>35768.244400000003</v>
+      </c>
+      <c r="AG51" s="3">
+        <f t="shared" si="67"/>
+        <v>47462.095020000008</v>
+      </c>
+      <c r="AH51" s="3">
+        <f t="shared" si="67"/>
+        <v>62862.826171000008</v>
+      </c>
+      <c r="AI51" s="3">
+        <f t="shared" si="67"/>
+        <v>83125.865501550012</v>
+      </c>
+      <c r="AJ51" s="3">
+        <f t="shared" si="67"/>
+        <v>109763.16215002755</v>
+      </c>
+      <c r="AK51" s="3">
+        <f t="shared" si="67"/>
+        <v>144752.47433884392</v>
+      </c>
+      <c r="AL51" s="3">
+        <f t="shared" si="67"/>
+        <v>190680.00471099364</v>
+      </c>
+      <c r="AM51" s="3">
+        <f t="shared" si="67"/>
+        <v>250926.5248992593</v>
+      </c>
+      <c r="AN51" s="3">
+        <f t="shared" si="67"/>
+        <v>329910.20707762026</v>
+      </c>
+      <c r="AO51" s="3">
+        <f t="shared" si="67"/>
+        <v>433403.38776249031</v>
+      </c>
+      <c r="AP51" s="3">
+        <f t="shared" si="67"/>
+        <v>568945.70937045047</v>
+      </c>
+      <c r="AQ51" s="3">
+        <f>AP51*(1+$AT$73)</f>
+        <v>574635.16646415496</v>
+      </c>
+      <c r="AR51" s="3">
+        <f t="shared" ref="AR51:CP51" si="68">AQ51*(1+$AT$73)</f>
+        <v>580381.51812879648</v>
+      </c>
+      <c r="AS51" s="3">
+        <f t="shared" si="68"/>
+        <v>586185.33331008442</v>
+      </c>
+      <c r="AT51" s="3">
+        <f t="shared" si="68"/>
+        <v>592047.18664318521</v>
+      </c>
+      <c r="AU51" s="3">
+        <f t="shared" si="68"/>
+        <v>597967.65850961709</v>
+      </c>
+      <c r="AV51" s="3">
+        <f t="shared" si="68"/>
+        <v>603947.33509471326</v>
+      </c>
+      <c r="AW51" s="3">
+        <f t="shared" si="68"/>
+        <v>609986.8084456604</v>
+      </c>
+      <c r="AX51" s="3">
+        <f t="shared" si="68"/>
+        <v>616086.67653011705</v>
+      </c>
+      <c r="AY51" s="3">
+        <f t="shared" si="68"/>
+        <v>622247.54329541826</v>
+      </c>
+      <c r="AZ51" s="3">
+        <f t="shared" si="68"/>
+        <v>628470.01872837241</v>
+      </c>
+      <c r="BA51" s="3">
+        <f t="shared" si="68"/>
+        <v>634754.71891565609</v>
+      </c>
+      <c r="BB51" s="3">
+        <f t="shared" si="68"/>
+        <v>641102.26610481262</v>
+      </c>
+      <c r="BC51" s="3">
+        <f t="shared" si="68"/>
+        <v>647513.28876586072</v>
+      </c>
+      <c r="BD51" s="3">
+        <f t="shared" si="68"/>
+        <v>653988.42165351938</v>
+      </c>
+      <c r="BE51" s="3">
+        <f t="shared" si="68"/>
+        <v>660528.30587005464</v>
+      </c>
+      <c r="BF51" s="3">
+        <f t="shared" si="68"/>
+        <v>667133.58892875514</v>
+      </c>
+      <c r="BG51" s="3">
+        <f t="shared" si="68"/>
+        <v>673804.92481804267</v>
+      </c>
+      <c r="BH51" s="3">
+        <f t="shared" si="68"/>
+        <v>680542.97406622313</v>
+      </c>
+      <c r="BI51" s="3">
+        <f t="shared" si="68"/>
+        <v>687348.40380688536</v>
+      </c>
+      <c r="BJ51" s="3">
+        <f t="shared" si="68"/>
+        <v>694221.88784495427</v>
+      </c>
+      <c r="BK51" s="3">
+        <f t="shared" si="68"/>
+        <v>701164.10672340379</v>
+      </c>
+      <c r="BL51" s="3">
+        <f t="shared" si="68"/>
+        <v>708175.74779063789</v>
+      </c>
+      <c r="BM51" s="3">
+        <f t="shared" si="68"/>
+        <v>715257.50526854431</v>
+      </c>
+      <c r="BN51" s="3">
+        <f t="shared" si="68"/>
+        <v>722410.08032122976</v>
+      </c>
+      <c r="BO51" s="3">
+        <f t="shared" si="68"/>
+        <v>729634.18112444202</v>
+      </c>
+      <c r="BP51" s="3">
+        <f t="shared" si="68"/>
+        <v>736930.5229356864</v>
+      </c>
+      <c r="BQ51" s="3">
+        <f t="shared" si="68"/>
+        <v>744299.82816504326</v>
+      </c>
+      <c r="BR51" s="3">
+        <f t="shared" si="68"/>
+        <v>751742.82644669374</v>
+      </c>
+      <c r="BS51" s="3">
+        <f t="shared" si="68"/>
+        <v>759260.25471116067</v>
+      </c>
+      <c r="BT51" s="3">
+        <f t="shared" si="68"/>
+        <v>766852.85725827224</v>
+      </c>
+      <c r="BU51" s="3">
+        <f t="shared" si="68"/>
+        <v>774521.385830855</v>
+      </c>
+      <c r="BV51" s="3">
+        <f t="shared" si="68"/>
+        <v>782266.5996891635</v>
+      </c>
+      <c r="BW51" s="3">
+        <f t="shared" si="68"/>
+        <v>790089.26568605518</v>
+      </c>
+      <c r="BX51" s="3">
+        <f t="shared" si="68"/>
+        <v>797990.1583429157</v>
+      </c>
+      <c r="BY51" s="3">
+        <f t="shared" si="68"/>
+        <v>805970.0599263449</v>
+      </c>
+      <c r="BZ51" s="3">
+        <f t="shared" si="68"/>
+        <v>814029.76052560832</v>
+      </c>
+      <c r="CA51" s="3">
+        <f t="shared" si="68"/>
+        <v>822170.0581308644</v>
+      </c>
+      <c r="CB51" s="3">
+        <f t="shared" si="68"/>
+        <v>830391.75871217309</v>
+      </c>
+      <c r="CC51" s="3">
+        <f t="shared" si="68"/>
+        <v>838695.67629929481</v>
+      </c>
+      <c r="CD51" s="3">
+        <f t="shared" si="68"/>
+        <v>847082.63306228782</v>
+      </c>
+      <c r="CE51" s="3">
+        <f t="shared" si="68"/>
+        <v>855553.45939291071</v>
+      </c>
+      <c r="CF51" s="3">
+        <f t="shared" si="68"/>
+        <v>864108.99398683978</v>
+      </c>
+      <c r="CG51" s="3">
+        <f t="shared" si="68"/>
+        <v>872750.0839267082</v>
+      </c>
+      <c r="CH51" s="3">
+        <f t="shared" si="68"/>
+        <v>881477.58476597525</v>
+      </c>
+      <c r="CI51" s="3">
+        <f t="shared" si="68"/>
+        <v>890292.36061363504</v>
+      </c>
+      <c r="CJ51" s="3">
+        <f t="shared" si="68"/>
+        <v>899195.28421977139</v>
+      </c>
+      <c r="CK51" s="3">
+        <f t="shared" si="68"/>
+        <v>908187.23706196912</v>
+      </c>
+      <c r="CL51" s="3">
+        <f t="shared" si="68"/>
+        <v>917269.1094325888</v>
+      </c>
+      <c r="CM51" s="3">
+        <f t="shared" si="68"/>
+        <v>926441.80052691465</v>
+      </c>
+      <c r="CN51" s="3">
+        <f t="shared" si="68"/>
+        <v>935706.21853218379</v>
+      </c>
+      <c r="CO51" s="3">
+        <f t="shared" si="68"/>
+        <v>945063.28071750561</v>
+      </c>
+      <c r="CP51" s="3">
+        <f t="shared" si="68"/>
+        <v>954513.91352468065</v>
+      </c>
+    </row>
+    <row r="54" spans="2:94" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="53" t="s">
+        <v>911</v>
+      </c>
+      <c r="J54" s="53" t="e">
+        <f>J51/J55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="53" t="e">
+        <f t="shared" ref="K54:AP54" si="69">K51/K55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" s="53" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" s="53" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N54" s="53" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" s="53" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P54" s="53" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q54" s="53" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R54" s="53" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S54" s="53" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T54" s="53" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U54" s="53" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V54" s="53">
+        <f t="shared" si="69"/>
+        <v>0.28268876611418048</v>
+      </c>
+      <c r="W54" s="53">
+        <f t="shared" si="69"/>
+        <v>0.76987060998151569</v>
+      </c>
+      <c r="X54" s="53">
+        <f t="shared" si="69"/>
+        <v>1.271702838063439</v>
+      </c>
+      <c r="Y54" s="53">
+        <f t="shared" si="69"/>
+        <v>1.7027138157894737</v>
+      </c>
+      <c r="Z54" s="53">
+        <f t="shared" si="69"/>
+        <v>1.1477832512315271</v>
+      </c>
+      <c r="AA54" s="53">
+        <f t="shared" si="69"/>
+        <v>1.7552674230145866</v>
+      </c>
+      <c r="AB54" s="53">
+        <f t="shared" si="69"/>
+        <v>3.9070512820512819</v>
+      </c>
+      <c r="AC54" s="53">
+        <f t="shared" si="69"/>
+        <v>1.7563329312424607</v>
+      </c>
+      <c r="AD54" s="53">
+        <f t="shared" si="69"/>
+        <v>12.053462940461726</v>
+      </c>
+      <c r="AE54" s="53">
+        <f t="shared" si="69"/>
+        <v>10.89455164034022</v>
+      </c>
+      <c r="AF54" s="53">
+        <f t="shared" si="69"/>
+        <v>14.486935763466992</v>
+      </c>
+      <c r="AG54" s="53">
+        <f t="shared" si="69"/>
+        <v>19.223205759416771</v>
+      </c>
+      <c r="AH54" s="53">
+        <f t="shared" si="69"/>
+        <v>25.460844945727018</v>
+      </c>
+      <c r="AI54" s="53">
+        <f t="shared" si="69"/>
+        <v>33.667827258626978</v>
+      </c>
+      <c r="AJ54" s="53">
+        <f t="shared" si="69"/>
+        <v>44.456525779679041</v>
+      </c>
+      <c r="AK54" s="53">
+        <f t="shared" si="69"/>
+        <v>58.627976645947314</v>
+      </c>
+      <c r="AL54" s="53">
+        <f t="shared" si="69"/>
+        <v>77.229649538677052</v>
+      </c>
+      <c r="AM54" s="53">
+        <f t="shared" si="69"/>
+        <v>101.63083227997541</v>
+      </c>
+      <c r="AN54" s="53">
+        <f t="shared" si="69"/>
+        <v>133.62098302050234</v>
+      </c>
+      <c r="AO54" s="53">
+        <f t="shared" si="69"/>
+        <v>175.53802663527352</v>
+      </c>
+      <c r="AP54" s="53">
+        <f t="shared" si="69"/>
+        <v>230.43568625777661</v>
+      </c>
+    </row>
+    <row r="55" spans="2:94" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <f>V56*4</f>
+        <v>2172</v>
+      </c>
+      <c r="W55">
+        <f>W56*4</f>
+        <v>2164</v>
+      </c>
+      <c r="X55">
+        <f>X56*4</f>
+        <v>2396</v>
+      </c>
+      <c r="Y55">
+        <f>Y56*4</f>
+        <v>2432</v>
+      </c>
+      <c r="Z55">
+        <f>Z56*4</f>
+        <v>2436</v>
+      </c>
+      <c r="AA55">
+        <f>AA56*4</f>
+        <v>2468</v>
+      </c>
+      <c r="AB55">
+        <v>2496</v>
+      </c>
+      <c r="AC55">
+        <v>2487</v>
+      </c>
+      <c r="AD55">
+        <v>2469</v>
+      </c>
+      <c r="AE55">
+        <f>AD55</f>
+        <v>2469</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" ref="AF55:AP55" si="70">AE55</f>
+        <v>2469</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="70"/>
+        <v>2469</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="70"/>
+        <v>2469</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="70"/>
+        <v>2469</v>
+      </c>
+      <c r="AJ55">
+        <f t="shared" si="70"/>
+        <v>2469</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" si="70"/>
+        <v>2469</v>
+      </c>
+      <c r="AL55">
+        <f t="shared" si="70"/>
+        <v>2469</v>
+      </c>
+      <c r="AM55">
+        <f t="shared" si="70"/>
+        <v>2469</v>
+      </c>
+      <c r="AN55">
+        <f t="shared" si="70"/>
+        <v>2469</v>
+      </c>
+      <c r="AO55">
+        <f t="shared" si="70"/>
+        <v>2469</v>
+      </c>
+      <c r="AP55">
+        <f t="shared" si="70"/>
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="56" spans="2:94" x14ac:dyDescent="0.35">
+      <c r="V56">
+        <v>543</v>
+      </c>
+      <c r="W56">
+        <v>541</v>
+      </c>
+      <c r="X56">
+        <v>599</v>
+      </c>
+      <c r="Y56">
+        <v>608</v>
+      </c>
+      <c r="Z56">
+        <v>609</v>
+      </c>
+      <c r="AA56">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="57" spans="2:94" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="9" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="58" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="15" t="e">
+        <f>J38/I38-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="15" t="e">
+        <f t="shared" ref="K58:AP58" si="71">K38/J38-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L58" s="15" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="15" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N58" s="15" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O58" s="15" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P58" s="15" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q58" s="15" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R58" s="15" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S58" s="15" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T58" s="15" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U58" s="15" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V58" s="15" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.37924151696606789</v>
+      </c>
+      <c r="X58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.40578871201157751</v>
+      </c>
+      <c r="Y58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.20609429689108505</v>
+      </c>
+      <c r="Z58" s="15">
+        <f t="shared" si="71"/>
+        <v>-6.8111983612154314E-2</v>
+      </c>
+      <c r="AA58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.52729437625938824</v>
+      </c>
+      <c r="AB58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.61403298350824587</v>
+      </c>
+      <c r="AC58" s="15">
+        <f t="shared" si="71"/>
+        <v>2.2293230289069932E-3</v>
+      </c>
+      <c r="AD58" s="15">
+        <f t="shared" si="71"/>
+        <v>1.2585452658115224</v>
+      </c>
+      <c r="AE58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AG58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AH58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AI58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AJ58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AM58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AN58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AO58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AP58" s="15">
+        <f t="shared" si="71"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J59" s="15" t="e">
+        <f>J51/I51-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="15" t="e">
+        <f t="shared" ref="K59:AP59" si="72">K51/J51-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L59" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N59" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P59" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q59" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R59" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S59" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T59" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U59" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V59" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W59" s="15">
+        <f t="shared" si="72"/>
+        <v>1.7133550488599347</v>
+      </c>
+      <c r="X59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.82893157262905159</v>
+      </c>
+      <c r="Y59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.35904168034131922</v>
+      </c>
+      <c r="Z59" s="15">
+        <f t="shared" si="72"/>
+        <v>-0.3248007727602028</v>
+      </c>
+      <c r="AA59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.54935622317596566</v>
+      </c>
+      <c r="AB59" s="15">
+        <f t="shared" si="72"/>
+        <v>1.2511542012927053</v>
+      </c>
+      <c r="AC59" s="15">
+        <f t="shared" si="72"/>
+        <v>-0.55209187858900743</v>
+      </c>
+      <c r="AD59" s="15">
+        <f t="shared" si="72"/>
+        <v>5.813186813186813</v>
+      </c>
+      <c r="AE59" s="15">
+        <f t="shared" si="72"/>
+        <v>-9.6147580645161157E-2</v>
+      </c>
+      <c r="AF59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.32974134610780426</v>
+      </c>
+      <c r="AG59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.3269338715433292</v>
+      </c>
+      <c r="AH59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.32448485774827884</v>
+      </c>
+      <c r="AI59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.32233739023171348</v>
+      </c>
+      <c r="AJ59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.32044534499289923</v>
+      </c>
+      <c r="AK59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.31877099295838374</v>
+      </c>
+      <c r="AL59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.31728321454899788</v>
+      </c>
+      <c r="AM59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.31595615009334099</v>
+      </c>
+      <c r="AN59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.31476816653827622</v>
+      </c>
+      <c r="AO59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.31370105702889184</v>
+      </c>
+      <c r="AP59" s="15">
+        <f t="shared" si="72"/>
+        <v>0.31273941421574403</v>
+      </c>
+    </row>
+    <row r="60" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W60" s="15">
+        <f>W41/V41-1</f>
+        <v>9.9173553719008156E-2</v>
+      </c>
+      <c r="X60" s="15">
+        <f t="shared" ref="X60:AC60" si="73">X41/W41-1</f>
+        <v>0.228298017771702</v>
+      </c>
+      <c r="Y60" s="15">
+        <f t="shared" si="73"/>
+        <v>0.32220367278798001</v>
+      </c>
+      <c r="Z60" s="15">
+        <f t="shared" si="73"/>
+        <v>0.19065656565656575</v>
+      </c>
+      <c r="AA60" s="15">
+        <f t="shared" si="73"/>
+        <v>0.38706256627783664</v>
+      </c>
+      <c r="AB60" s="15">
+        <f t="shared" si="73"/>
+        <v>0.34250764525993893</v>
+      </c>
+      <c r="AC60" s="15">
+        <f t="shared" si="73"/>
+        <v>0.39312832194381175</v>
+      </c>
+      <c r="AD60" s="15">
+        <f>AD41/AC41-1</f>
+        <v>0.18204115002043886</v>
+      </c>
+      <c r="AE60" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AF60" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AG60" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AH60" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AI60" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AJ60" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AK60" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AL60" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AM60" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AN60" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AO60" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AP60" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="W61" s="15">
+        <f>W42/V42-1</f>
+        <v>0.1013289036544851</v>
+      </c>
+      <c r="X61" s="15">
+        <f t="shared" ref="X61:AC61" si="74">X42/W42-1</f>
+        <v>0.22926093514328816</v>
+      </c>
+      <c r="Y61" s="15">
+        <f t="shared" si="74"/>
+        <v>0.21595092024539886</v>
+      </c>
+      <c r="Z61" s="15">
+        <f t="shared" si="74"/>
+        <v>0.10292633703329979</v>
+      </c>
+      <c r="AA61" s="15">
+        <f t="shared" si="74"/>
+        <v>0.77493138151875574</v>
+      </c>
+      <c r="AB61" s="15">
+        <f t="shared" si="74"/>
+        <v>0.11649484536082477</v>
+      </c>
+      <c r="AC61" s="15">
+        <f t="shared" si="74"/>
+        <v>0.12650046168051698</v>
+      </c>
+      <c r="AD61" s="15">
+        <f>AD42/AC42-1</f>
+        <v>8.7704918032786905E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:94" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="15" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J65" s="15" t="e">
+        <f>J40/J38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="15" t="e">
+        <f>K40/K38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L65" s="15" t="e">
+        <f>L40/L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="15" t="e">
+        <f>M40/M38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N65" s="15" t="e">
+        <f>N40/N38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O65" s="15" t="e">
+        <f>O40/O38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P65" s="15" t="e">
+        <f>P40/P38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q65" s="15" t="e">
+        <f>Q40/Q38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R65" s="15" t="e">
+        <f>R40/R38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S65" s="15" t="e">
+        <f>S40/S38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T65" s="15" t="e">
+        <f>T40/T38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U65" s="15" t="e">
+        <f>U40/U38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V65" s="15">
+        <f>V40/V38</f>
+        <v>0.56107784431137719</v>
+      </c>
+      <c r="W65" s="15">
+        <f>W40/W38</f>
+        <v>0.58798842257597683</v>
+      </c>
+      <c r="X65" s="15">
+        <f>X40/X38</f>
+        <v>0.59934115709285563</v>
+      </c>
+      <c r="Y65" s="15">
+        <f>Y40/Y38</f>
+        <v>0.61206896551724133</v>
+      </c>
+      <c r="Z65" s="15">
+        <f>Z40/Z38</f>
+        <v>0.61989375343469499</v>
+      </c>
+      <c r="AA65" s="15">
+        <f>AA40/AA38</f>
+        <v>0.62344827586206897</v>
+      </c>
+      <c r="AB65" s="15">
+        <f>AB40/AB38</f>
+        <v>0.64929033216913135</v>
+      </c>
+      <c r="AC65" s="15">
+        <f>AC40/AC38</f>
+        <v>0.56928894490991322</v>
+      </c>
+      <c r="AD65" s="15">
+        <f>AD40/AD38</f>
+        <v>0.72717573290436954</v>
+      </c>
+      <c r="AE65" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AF65" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AG65" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AH65" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AI65" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AJ65" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AK65" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AL65" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AM65" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AN65" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AO65" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AP65" s="15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J66" s="15" t="e">
+        <f>J45/J38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="15" t="e">
+        <f t="shared" ref="K66:AP66" si="75">K45/K38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O66" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P66" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q66" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R66" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S66" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T66" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U66" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.14910179640718563</v>
+      </c>
+      <c r="W66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.27988422575976846</v>
+      </c>
+      <c r="X66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.33045089561457691</v>
+      </c>
+      <c r="Y66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.32468419255718678</v>
+      </c>
+      <c r="Z66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.2606704524638212</v>
+      </c>
+      <c r="AA66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.27178410794602698</v>
+      </c>
+      <c r="AB66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.37307720888756779</v>
+      </c>
+      <c r="AC66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.1565952398606065</v>
+      </c>
+      <c r="AD66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.54121663766783756</v>
+      </c>
+      <c r="AE66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.42454424699426507</v>
+      </c>
+      <c r="AF66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.43425695267729092</v>
+      </c>
+      <c r="AG66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.44325404573898913</v>
+      </c>
+      <c r="AH66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.45160251670534934</v>
+      </c>
+      <c r="AI66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.45936222566325036</v>
+      </c>
+      <c r="AJ66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.46658670195585894</v>
+      </c>
+      <c r="AK66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.47332385249192732</v>
+      </c>
+      <c r="AL66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.47961658917944744</v>
+      </c>
+      <c r="AM66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.4855033847826809</v>
+      </c>
+      <c r="AN66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.49101876542988659</v>
+      </c>
+      <c r="AO66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.49619374705097191</v>
+      </c>
+      <c r="AP66" s="15">
+        <f t="shared" si="75"/>
+        <v>0.50105622218554458</v>
+      </c>
+    </row>
+    <row r="67" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J67" s="15" t="e">
+        <f>J51/J38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K67" s="15" t="e">
+        <f t="shared" ref="K67:AP67" si="76">K51/K38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L67" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M67" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N67" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O67" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P67" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q67" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R67" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S67" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T67" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U67" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.12255489021956088</v>
+      </c>
+      <c r="W67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.24109985528219971</v>
+      </c>
+      <c r="X67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.3136709903232448</v>
+      </c>
+      <c r="Y67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.35344827586206895</v>
+      </c>
+      <c r="Z67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.25609085913170909</v>
+      </c>
+      <c r="AA67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.25979010494752625</v>
+      </c>
+      <c r="AB67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.36233930296499961</v>
+      </c>
+      <c r="AC67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.16193371394676356</v>
+      </c>
+      <c r="AD67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.4884934834706674</v>
+      </c>
+      <c r="AE67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.33963539759541206</v>
+      </c>
+      <c r="AF67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.34740556214183271</v>
+      </c>
+      <c r="AG67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.35460323659119131</v>
+      </c>
+      <c r="AH67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.36128201336427945</v>
+      </c>
+      <c r="AI67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.36748978053060027</v>
+      </c>
+      <c r="AJ67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.3732693615646871</v>
+      </c>
+      <c r="AK67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.37865908199354187</v>
+      </c>
+      <c r="AL67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.38369327134355796</v>
+      </c>
+      <c r="AM67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.38840270782614467</v>
+      </c>
+      <c r="AN67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.39281501234390925</v>
+      </c>
+      <c r="AO67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.39695499764077752</v>
+      </c>
+      <c r="AP67" s="15">
+        <f t="shared" si="76"/>
+        <v>0.40084497774843564</v>
+      </c>
+    </row>
+    <row r="68" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J68" s="15" t="e">
+        <f>J50/J49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K68" s="15" t="e">
+        <f t="shared" ref="K68:AD68" si="77">K50/K49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L68" s="15" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M68" s="15" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N68" s="15" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O68" s="15" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P68" s="15" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q68" s="15" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R68" s="15" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S68" s="15" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T68" s="15" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U68" s="15" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V68" s="15">
+        <f t="shared" si="77"/>
+        <v>0.17362045760430686</v>
+      </c>
+      <c r="W68" s="15">
+        <f t="shared" si="77"/>
+        <v>0.12545931758530185</v>
+      </c>
+      <c r="X68" s="15">
+        <f t="shared" si="77"/>
+        <v>4.6620775969962454E-2</v>
+      </c>
+      <c r="Y68" s="15">
+        <f t="shared" si="77"/>
+        <v>-6.2885010266940447E-2</v>
+      </c>
+      <c r="Z68" s="15">
+        <f t="shared" si="77"/>
+        <v>5.8585858585858588E-2</v>
+      </c>
+      <c r="AA68" s="15">
+        <f t="shared" si="77"/>
+        <v>1.7464277613971423E-2</v>
+      </c>
+      <c r="AB68" s="15">
+        <f t="shared" si="77"/>
+        <v>1.9012171813700834E-2</v>
+      </c>
+      <c r="AC68" s="15">
+        <f t="shared" si="77"/>
+        <v>-4.4726142071274816E-2</v>
+      </c>
+      <c r="AD68" s="15">
+        <f t="shared" si="77"/>
+        <v>0.1199952687917677</v>
+      </c>
+      <c r="AE68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AF68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AG68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AH68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AI68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AJ68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AK68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AL68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AM68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AN68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AO68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AP68" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="AS72" s="9" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT72" s="9"/>
+      <c r="AU72" s="9"/>
+      <c r="AV72" s="9"/>
+    </row>
+    <row r="73" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="AS73" s="52" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AT73" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="74" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="AS74" s="52" t="s">
+        <v>1719</v>
+      </c>
+      <c r="AT74" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="AS75" s="52" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AT75" s="55">
+        <f>NPV(AT74,AE51:CP51)</f>
+        <v>2986594.0807834635</v>
+      </c>
+    </row>
+    <row r="76" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="AS76" s="52" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AT76" s="54">
+        <f>AT75/AP55/10</f>
+        <v>120.96371327596046</v>
+      </c>
+    </row>
+    <row r="77" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="AS77" s="52" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AT77" s="2" cm="1">
+        <f t="array" ref="AT77">_FV(AS72,"Price")</f>
+        <v>113.06</v>
+      </c>
+    </row>
+    <row r="78" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="AS78" s="52" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AT78" s="15">
+        <f>AT76/AT77-1</f>
+        <v>6.9907246382101995E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
@@ -25684,7 +31638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
@@ -27927,7 +33881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
@@ -31017,7 +36971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>

--- a/NVDA/NVDA.xlsx
+++ b/NVDA/NVDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/NVDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1921" documentId="11_60E75B87F94EC339A3CE5EC2F11D231891AC5B93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16EB4DB3-63F6-4892-ABDE-46686DA8C6E6}"/>
+  <xr:revisionPtr revIDLastSave="1933" documentId="11_60E75B87F94EC339A3CE5EC2F11D231891AC5B93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13A16763-EA6C-4144-9F35-A83EBF3D0741}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5587,6 +5587,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24731,10 +24735,10 @@
   <dimension ref="B1:CP78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U76" sqref="U76"/>
+      <selection pane="bottomRight" activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24750,35 +24754,35 @@
         <v>1706</v>
       </c>
       <c r="V1" s="12">
-        <f>W1-1</f>
+        <f t="shared" ref="V1:AC1" si="0">W1-1</f>
         <v>2015</v>
       </c>
       <c r="W1" s="12">
-        <f>X1-1</f>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="X1" s="12">
-        <f>Y1-1</f>
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
       <c r="Y1" s="12">
-        <f>Z1-1</f>
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
       <c r="Z1" s="12">
-        <f>AA1-1</f>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="AA1" s="12">
-        <f>AB1-1</f>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="AB1" s="12">
-        <f>AC1-1</f>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="AC1" s="12">
-        <f>AD1-1</f>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="AD1" s="12">
@@ -24789,47 +24793,47 @@
         <v>2024</v>
       </c>
       <c r="AF1" s="12">
-        <f t="shared" ref="AF1:AP1" si="0">AE1+1</f>
+        <f t="shared" ref="AF1:AP1" si="1">AE1+1</f>
         <v>2025</v>
       </c>
       <c r="AG1" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2026</v>
       </c>
       <c r="AH1" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2027</v>
       </c>
       <c r="AI1" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2028</v>
       </c>
       <c r="AJ1" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2029</v>
       </c>
       <c r="AK1" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2030</v>
       </c>
       <c r="AL1" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2031</v>
       </c>
       <c r="AM1" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2032</v>
       </c>
       <c r="AN1" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2033</v>
       </c>
       <c r="AO1" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2034</v>
       </c>
       <c r="AP1" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2035</v>
       </c>
       <c r="AQ1" s="12">
@@ -24837,207 +24841,207 @@
         <v>2036</v>
       </c>
       <c r="AR1" s="12">
-        <f t="shared" ref="AR1:CP1" si="1">AQ1+1</f>
+        <f t="shared" ref="AR1:CP1" si="2">AQ1+1</f>
         <v>2037</v>
       </c>
       <c r="AS1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2038</v>
       </c>
       <c r="AT1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2039</v>
       </c>
       <c r="AU1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="AV1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2041</v>
       </c>
       <c r="AW1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2042</v>
       </c>
       <c r="AX1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2043</v>
       </c>
       <c r="AY1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2044</v>
       </c>
       <c r="AZ1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2045</v>
       </c>
       <c r="BA1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2046</v>
       </c>
       <c r="BB1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2047</v>
       </c>
       <c r="BC1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2048</v>
       </c>
       <c r="BD1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2049</v>
       </c>
       <c r="BE1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2050</v>
       </c>
       <c r="BF1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2051</v>
       </c>
       <c r="BG1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2052</v>
       </c>
       <c r="BH1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2053</v>
       </c>
       <c r="BI1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2054</v>
       </c>
       <c r="BJ1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2055</v>
       </c>
       <c r="BK1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2056</v>
       </c>
       <c r="BL1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2057</v>
       </c>
       <c r="BM1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2058</v>
       </c>
       <c r="BN1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2059</v>
       </c>
       <c r="BO1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2060</v>
       </c>
       <c r="BP1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2061</v>
       </c>
       <c r="BQ1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2062</v>
       </c>
       <c r="BR1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2063</v>
       </c>
       <c r="BS1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2064</v>
       </c>
       <c r="BT1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2065</v>
       </c>
       <c r="BU1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2066</v>
       </c>
       <c r="BV1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2067</v>
       </c>
       <c r="BW1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2068</v>
       </c>
       <c r="BX1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2069</v>
       </c>
       <c r="BY1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2070</v>
       </c>
       <c r="BZ1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2071</v>
       </c>
       <c r="CA1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2072</v>
       </c>
       <c r="CB1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2073</v>
       </c>
       <c r="CC1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2074</v>
       </c>
       <c r="CD1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2075</v>
       </c>
       <c r="CE1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2076</v>
       </c>
       <c r="CF1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2077</v>
       </c>
       <c r="CG1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2078</v>
       </c>
       <c r="CH1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2079</v>
       </c>
       <c r="CI1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2080</v>
       </c>
       <c r="CJ1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2081</v>
       </c>
       <c r="CK1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2082</v>
       </c>
       <c r="CL1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2083</v>
       </c>
       <c r="CM1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2084</v>
       </c>
       <c r="CN1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2085</v>
       </c>
       <c r="CO1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2086</v>
       </c>
       <c r="CP1" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2087</v>
       </c>
     </row>
@@ -25081,35 +25085,35 @@
         <v>1707</v>
       </c>
       <c r="V3" s="5">
-        <f>DATE(YEAR(W3)-1, MONTH(W3), DAY(W3))</f>
+        <f t="shared" ref="V3:AC3" si="3">DATE(YEAR(W3)-1, MONTH(W3), DAY(W3))</f>
         <v>42400</v>
       </c>
       <c r="W3" s="5">
-        <f>DATE(YEAR(X3)-1, MONTH(X3), DAY(X3))</f>
+        <f t="shared" si="3"/>
         <v>42766</v>
       </c>
       <c r="X3" s="5">
-        <f>DATE(YEAR(Y3)-1, MONTH(Y3), DAY(Y3))</f>
+        <f t="shared" si="3"/>
         <v>43131</v>
       </c>
       <c r="Y3" s="5">
-        <f>DATE(YEAR(Z3)-1, MONTH(Z3), DAY(Z3))</f>
+        <f t="shared" si="3"/>
         <v>43496</v>
       </c>
       <c r="Z3" s="5">
-        <f>DATE(YEAR(AA3)-1, MONTH(AA3), DAY(AA3))</f>
+        <f t="shared" si="3"/>
         <v>43861</v>
       </c>
       <c r="AA3" s="5">
-        <f>DATE(YEAR(AB3)-1, MONTH(AB3), DAY(AB3))</f>
+        <f t="shared" si="3"/>
         <v>44227</v>
       </c>
       <c r="AB3" s="5">
-        <f>DATE(YEAR(AC3)-1, MONTH(AC3), DAY(AC3))</f>
+        <f t="shared" si="3"/>
         <v>44592</v>
       </c>
       <c r="AC3" s="5">
-        <f>DATE(YEAR(AD3)-1, MONTH(AD3), DAY(AD3))</f>
+        <f t="shared" si="3"/>
         <v>44957</v>
       </c>
       <c r="AD3" s="5">
@@ -25176,71 +25180,71 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K10" s="15" t="e">
-        <f t="shared" ref="K10:AA10" si="2">K9/K8</f>
+        <f t="shared" ref="K10:AA10" si="4">K9/K8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y10" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.41880132369162887</v>
       </c>
       <c r="Z10" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.42767377929048306</v>
       </c>
       <c r="AA10" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.46898515354891196</v>
       </c>
       <c r="AB10" s="15">
@@ -25248,59 +25252,59 @@
         <v>0.53516511217544749</v>
       </c>
       <c r="AC10" s="15">
-        <f t="shared" ref="AC10:AE10" si="3">AC9/AC8</f>
+        <f t="shared" ref="AC10:AE10" si="5">AC9/AC8</f>
         <v>0.3823282378632622</v>
       </c>
       <c r="AD10" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.43249241695642526</v>
       </c>
       <c r="AE10" s="15" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF10" s="15" t="e">
-        <f t="shared" ref="AF10" si="4">AF9/AF8</f>
+        <f t="shared" ref="AF10" si="6">AF9/AF8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG10" s="15" t="e">
-        <f t="shared" ref="AG10" si="5">AG9/AG8</f>
+        <f t="shared" ref="AG10" si="7">AG9/AG8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH10" s="15" t="e">
-        <f t="shared" ref="AH10" si="6">AH9/AH8</f>
+        <f t="shared" ref="AH10" si="8">AH9/AH8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI10" s="15" t="e">
-        <f t="shared" ref="AI10" si="7">AI9/AI8</f>
+        <f t="shared" ref="AI10" si="9">AI9/AI8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ10" s="15" t="e">
-        <f t="shared" ref="AJ10" si="8">AJ9/AJ8</f>
+        <f t="shared" ref="AJ10" si="10">AJ9/AJ8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK10" s="15" t="e">
-        <f t="shared" ref="AK10" si="9">AK9/AK8</f>
+        <f t="shared" ref="AK10" si="11">AK9/AK8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL10" s="15" t="e">
-        <f t="shared" ref="AL10" si="10">AL9/AL8</f>
+        <f t="shared" ref="AL10" si="12">AL9/AL8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM10" s="15" t="e">
-        <f t="shared" ref="AM10" si="11">AM9/AM8</f>
+        <f t="shared" ref="AM10" si="13">AM9/AM8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN10" s="15" t="e">
-        <f t="shared" ref="AN10" si="12">AN9/AN8</f>
+        <f t="shared" ref="AN10" si="14">AN9/AN8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="15" t="e">
-        <f t="shared" ref="AO10" si="13">AO9/AO8</f>
+        <f t="shared" ref="AO10" si="15">AO9/AO8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="15" t="e">
-        <f t="shared" ref="AP10" si="14">AP9/AP8</f>
+        <f t="shared" ref="AP10" si="16">AP9/AP8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -25364,71 +25368,71 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K14" s="15" t="e">
-        <f t="shared" ref="K14" si="15">K13/K12</f>
+        <f t="shared" ref="K14" si="17">K13/K12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="15" t="e">
-        <f t="shared" ref="L14" si="16">L13/L12</f>
+        <f t="shared" ref="L14" si="18">L13/L12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M14" s="15" t="e">
-        <f t="shared" ref="M14" si="17">M13/M12</f>
+        <f t="shared" ref="M14" si="19">M13/M12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="15" t="e">
-        <f t="shared" ref="N14" si="18">N13/N12</f>
+        <f t="shared" ref="N14" si="20">N13/N12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O14" s="15" t="e">
-        <f t="shared" ref="O14" si="19">O13/O12</f>
+        <f t="shared" ref="O14" si="21">O13/O12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P14" s="15" t="e">
-        <f t="shared" ref="P14" si="20">P13/P12</f>
+        <f t="shared" ref="P14" si="22">P13/P12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q14" s="15" t="e">
-        <f t="shared" ref="Q14" si="21">Q13/Q12</f>
+        <f t="shared" ref="Q14" si="23">Q13/Q12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R14" s="15" t="e">
-        <f t="shared" ref="R14" si="22">R13/R12</f>
+        <f t="shared" ref="R14" si="24">R13/R12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S14" s="15" t="e">
-        <f t="shared" ref="S14" si="23">S13/S12</f>
+        <f t="shared" ref="S14" si="25">S13/S12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T14" s="15" t="e">
-        <f t="shared" ref="T14" si="24">T13/T12</f>
+        <f t="shared" ref="T14" si="26">T13/T12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U14" s="15" t="e">
-        <f t="shared" ref="U14" si="25">U13/U12</f>
+        <f t="shared" ref="U14" si="27">U13/U12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V14" s="15" t="e">
-        <f t="shared" ref="V14" si="26">V13/V12</f>
+        <f t="shared" ref="V14" si="28">V13/V12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W14" s="15" t="e">
-        <f t="shared" ref="W14" si="27">W13/W12</f>
+        <f t="shared" ref="W14" si="29">W13/W12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X14" s="15" t="e">
-        <f t="shared" ref="X14" si="28">X13/X12</f>
+        <f t="shared" ref="X14" si="30">X13/X12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y14" s="15">
-        <f t="shared" ref="Y14" si="29">Y13/Y12</f>
+        <f t="shared" ref="Y14" si="31">Y13/Y12</f>
         <v>0.35170087152094459</v>
       </c>
       <c r="Z14" s="15">
-        <f t="shared" ref="Z14" si="30">Z13/Z12</f>
+        <f t="shared" ref="Z14" si="32">Z13/Z12</f>
         <v>0.229033241842025</v>
       </c>
       <c r="AA14" s="15">
-        <f t="shared" ref="AA14" si="31">AA13/AA12</f>
+        <f t="shared" ref="AA14" si="33">AA13/AA12</f>
         <v>0.37246016664230375</v>
       </c>
       <c r="AB14" s="15">
@@ -25436,59 +25440,59 @@
         <v>0.41625927937715013</v>
       </c>
       <c r="AC14" s="15">
-        <f t="shared" ref="AC14" si="32">AC13/AC12</f>
+        <f t="shared" ref="AC14" si="34">AC13/AC12</f>
         <v>0.33733740376957794</v>
       </c>
       <c r="AD14" s="15">
-        <f t="shared" ref="AD14" si="33">AD13/AD12</f>
+        <f t="shared" ref="AD14" si="35">AD13/AD12</f>
         <v>0.67537179622402699</v>
       </c>
       <c r="AE14" s="15" t="e">
-        <f t="shared" ref="AE14" si="34">AE13/AE12</f>
+        <f t="shared" ref="AE14" si="36">AE13/AE12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF14" s="15" t="e">
-        <f t="shared" ref="AF14" si="35">AF13/AF12</f>
+        <f t="shared" ref="AF14" si="37">AF13/AF12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG14" s="15" t="e">
-        <f t="shared" ref="AG14" si="36">AG13/AG12</f>
+        <f t="shared" ref="AG14" si="38">AG13/AG12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH14" s="15" t="e">
-        <f t="shared" ref="AH14" si="37">AH13/AH12</f>
+        <f t="shared" ref="AH14" si="39">AH13/AH12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI14" s="15" t="e">
-        <f t="shared" ref="AI14" si="38">AI13/AI12</f>
+        <f t="shared" ref="AI14" si="40">AI13/AI12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ14" s="15" t="e">
-        <f t="shared" ref="AJ14" si="39">AJ13/AJ12</f>
+        <f t="shared" ref="AJ14" si="41">AJ13/AJ12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK14" s="15" t="e">
-        <f t="shared" ref="AK14" si="40">AK13/AK12</f>
+        <f t="shared" ref="AK14" si="42">AK13/AK12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14" s="15" t="e">
-        <f t="shared" ref="AL14" si="41">AL13/AL12</f>
+        <f t="shared" ref="AL14" si="43">AL13/AL12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM14" s="15" t="e">
-        <f t="shared" ref="AM14" si="42">AM13/AM12</f>
+        <f t="shared" ref="AM14" si="44">AM13/AM12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN14" s="15" t="e">
-        <f t="shared" ref="AN14" si="43">AN13/AN12</f>
+        <f t="shared" ref="AN14" si="45">AN13/AN12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO14" s="15" t="e">
-        <f t="shared" ref="AO14" si="44">AO13/AO12</f>
+        <f t="shared" ref="AO14" si="46">AO13/AO12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="15" t="e">
-        <f t="shared" ref="AP14" si="45">AP13/AP12</f>
+        <f t="shared" ref="AP14" si="47">AP13/AP12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -25616,131 +25620,131 @@
         <v>0</v>
       </c>
       <c r="K21" s="21">
-        <f t="shared" ref="K21:AP21" si="46">SUM(K16:K20)</f>
+        <f t="shared" ref="K21:AP21" si="48">SUM(K16:K20)</f>
         <v>0</v>
       </c>
       <c r="L21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="U21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="V21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="X21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Y21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>11716</v>
       </c>
       <c r="Z21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10918</v>
       </c>
       <c r="AA21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>16675</v>
       </c>
       <c r="AB21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>26914</v>
       </c>
       <c r="AC21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>26974</v>
       </c>
       <c r="AD21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>60922</v>
       </c>
       <c r="AE21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AF21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AG21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AI21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AJ21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AK21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AL21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AM21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AN21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AO21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AP21" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -25758,131 +25762,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="15" t="e">
-        <f t="shared" ref="K23:AP23" si="47">K16/J16-1</f>
+        <f t="shared" ref="K23:AP23" si="49">K16/J16-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z23" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.11655459494076204</v>
       </c>
       <c r="AA23" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.40612540775643358</v>
       </c>
       <c r="AB23" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.60613481118700863</v>
       </c>
       <c r="AC23" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.27242818167228378</v>
       </c>
       <c r="AD23" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.15220028675416342</v>
       </c>
       <c r="AE23" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-1</v>
       </c>
       <c r="AF23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP23" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -25895,131 +25899,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="15" t="e">
-        <f t="shared" ref="K24:AP24" si="48">K17/J17-1</f>
+        <f t="shared" ref="K24:AP24" si="50">K17/J17-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z24" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>7.2566371681415998E-2</v>
       </c>
       <c r="AA24" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-0.13118811881188119</v>
       </c>
       <c r="AB24" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.0047483380816713</v>
       </c>
       <c r="AC24" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-0.26859308384651825</v>
       </c>
       <c r="AD24" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>5.8290155440414715E-3</v>
       </c>
       <c r="AE24" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-1</v>
       </c>
       <c r="AF24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP24" s="15" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26032,131 +26036,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="17" t="e">
-        <f t="shared" ref="K25:AP25" si="49">K18/J18-1</f>
+        <f t="shared" ref="K25:AP25" si="51">K18/J18-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z25" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.7394270122783162E-2</v>
       </c>
       <c r="AA25" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.2447200804559166</v>
       </c>
       <c r="AB25" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.5849761051373954</v>
       </c>
       <c r="AC25" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.4138320927164798</v>
       </c>
       <c r="AD25" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2.1672775741419525</v>
       </c>
       <c r="AE25" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="AF25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP25" s="17" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26169,131 +26173,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="15" t="e">
-        <f t="shared" ref="K26:AP26" si="50">K19/J19-1</f>
+        <f t="shared" ref="K26:AP26" si="52">K19/J19-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z26" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.2043681747269845E-2</v>
       </c>
       <c r="AA26" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-0.23428571428571432</v>
       </c>
       <c r="AB26" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.5970149253731449E-2</v>
       </c>
       <c r="AC26" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.59540636042402828</v>
       </c>
       <c r="AD26" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.20819490586932443</v>
       </c>
       <c r="AE26" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-1</v>
       </c>
       <c r="AF26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP26" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26306,131 +26310,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="16" t="e">
-        <f t="shared" ref="J27:AP28" si="51">K20/J20-1</f>
+        <f t="shared" ref="J27:AP28" si="53">K20/J20-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z27" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-0.34159061277705349</v>
       </c>
       <c r="AA27" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.2495049504950495</v>
       </c>
       <c r="AB27" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.84152139461172748</v>
       </c>
       <c r="AC27" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-0.60843373493975905</v>
       </c>
       <c r="AD27" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-0.32747252747252742</v>
       </c>
       <c r="AE27" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-1</v>
       </c>
       <c r="AF27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP27" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26439,135 +26443,135 @@
         <v>1711</v>
       </c>
       <c r="J28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z28" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-6.8111983612154314E-2</v>
       </c>
       <c r="AA28" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.52729437625938824</v>
       </c>
       <c r="AB28" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.61403298350824587</v>
       </c>
       <c r="AC28" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>2.2293230289069932E-3</v>
       </c>
       <c r="AD28" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="AE28" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-1</v>
       </c>
       <c r="AF28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP28" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26585,131 +26589,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="15" t="e">
-        <f t="shared" ref="K30:AP30" si="52">K16/K$21</f>
+        <f t="shared" ref="K30:AP30" si="54">K16/K$21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y30" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.53311710481392971</v>
       </c>
       <c r="Z30" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.50540392013189228</v>
       </c>
       <c r="AA30" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.46530734632683657</v>
       </c>
       <c r="AB30" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.46303039310396077</v>
       </c>
       <c r="AC30" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.3361385037443464</v>
       </c>
       <c r="AD30" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.17148156659334887</v>
       </c>
       <c r="AE30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP30" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26722,131 +26726,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="15" t="e">
-        <f t="shared" ref="K31:AP31" si="53">K17/K$21</f>
+        <f t="shared" ref="K31:AP31" si="55">K17/K$21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y31" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>9.6449300102424029E-2</v>
       </c>
       <c r="Z31" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.11100934237039752</v>
       </c>
       <c r="AA31" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6.3148425787106444E-2</v>
       </c>
       <c r="AB31" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>7.843501523370737E-2</v>
       </c>
       <c r="AC31" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>5.7240305479350488E-2</v>
       </c>
       <c r="AD31" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>2.5491612225468634E-2</v>
       </c>
       <c r="AE31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP31" s="15" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26859,131 +26863,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="17" t="e">
-        <f t="shared" ref="K32:AP32" si="54">K18/K$21</f>
+        <f t="shared" ref="K32:AP32" si="56">K18/K$21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y32" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.2502560600887675</v>
       </c>
       <c r="Z32" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.27321853819380837</v>
       </c>
       <c r="AA32" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.40155922038980507</v>
       </c>
       <c r="AB32" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.39433008842981349</v>
       </c>
       <c r="AC32" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.55627641432490549</v>
       </c>
       <c r="AD32" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.78009586028035849</v>
       </c>
       <c r="AE32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP32" s="17" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26996,131 +27000,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="15" t="e">
-        <f t="shared" ref="K33:AP33" si="55">K19/K$21</f>
+        <f t="shared" ref="K33:AP33" si="57">K19/K$21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y33" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>5.4711505633321951E-2</v>
       </c>
       <c r="Z33" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>6.4114306649569519E-2</v>
       </c>
       <c r="AA33" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>3.2143928035982011E-2</v>
       </c>
       <c r="AB33" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>2.1029947239354984E-2</v>
       </c>
       <c r="AC33" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>3.3476681248609773E-2</v>
       </c>
       <c r="AD33" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.7908144840944159E-2</v>
       </c>
       <c r="AE33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP33" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27133,131 +27137,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="16" t="e">
-        <f t="shared" ref="K34:AP34" si="56">K20/K$21</f>
+        <f t="shared" ref="K34:AP34" si="58">K20/K$21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y34" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>6.5466029361556849E-2</v>
       </c>
       <c r="Z34" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>4.6253892654332295E-2</v>
       </c>
       <c r="AA34" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>3.7841079460269864E-2</v>
       </c>
       <c r="AB34" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>4.3174555993163409E-2</v>
       </c>
       <c r="AC34" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.6868095202787869E-2</v>
       </c>
       <c r="AD34" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>5.0228160598798461E-3</v>
       </c>
       <c r="AE34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP34" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27270,131 +27274,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="15" t="e">
-        <f t="shared" ref="K35:AP35" si="57">SUM(K30:K34)</f>
+        <f t="shared" ref="K35:AP35" si="59">SUM(K30:K34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y35" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="Z35" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="AA35" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="AB35" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="AC35" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="AD35" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="AE35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP35" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27442,47 +27446,47 @@
         <v>79198.600000000006</v>
       </c>
       <c r="AF38" s="21">
-        <f t="shared" ref="AF38:AP38" si="58">AE38*1.3</f>
+        <f t="shared" ref="AF38:AP38" si="60">AE38*1.3</f>
         <v>102958.18000000001</v>
       </c>
       <c r="AG38" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>133845.63400000002</v>
       </c>
       <c r="AH38" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>173999.32420000003</v>
       </c>
       <c r="AI38" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>226199.12146000005</v>
       </c>
       <c r="AJ38" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>294058.8578980001</v>
       </c>
       <c r="AK38" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>382276.51526740013</v>
       </c>
       <c r="AL38" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>496959.46984762017</v>
       </c>
       <c r="AM38" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>646047.31080190628</v>
       </c>
       <c r="AN38" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>839861.50404247816</v>
       </c>
       <c r="AO38" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1091819.9552552216</v>
       </c>
       <c r="AP38" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1419365.941831788</v>
       </c>
     </row>
@@ -27527,83 +27531,83 @@
         <v>0</v>
       </c>
       <c r="K40" s="21">
-        <f t="shared" ref="K40:AP40" si="59">K38-K39</f>
+        <f t="shared" ref="K40:AD40" si="61">K38-K39</f>
         <v>0</v>
       </c>
       <c r="L40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="U40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="V40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>2811</v>
       </c>
       <c r="W40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>4063</v>
       </c>
       <c r="X40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>5822</v>
       </c>
       <c r="Y40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>7171</v>
       </c>
       <c r="Z40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>6768</v>
       </c>
       <c r="AA40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10396</v>
       </c>
       <c r="AB40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>17475</v>
       </c>
       <c r="AC40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>15356</v>
       </c>
       <c r="AD40" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>44301</v>
       </c>
       <c r="AE40" s="21">
@@ -27611,47 +27615,47 @@
         <v>47519.16</v>
       </c>
       <c r="AF40" s="21">
-        <f t="shared" ref="AF40:AP40" si="60">AF38*AF65</f>
+        <f t="shared" ref="AF40:AP40" si="62">AF38*AF65</f>
         <v>61774.908000000003</v>
       </c>
       <c r="AG40" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>80307.380400000009</v>
       </c>
       <c r="AH40" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>104399.59452000001</v>
       </c>
       <c r="AI40" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>135719.47287600001</v>
       </c>
       <c r="AJ40" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>176435.31473880005</v>
       </c>
       <c r="AK40" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>229365.90916044006</v>
       </c>
       <c r="AL40" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>298175.68190857209</v>
       </c>
       <c r="AM40" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>387628.38648114377</v>
       </c>
       <c r="AN40" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>503916.90242548689</v>
       </c>
       <c r="AO40" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>655091.97315313295</v>
       </c>
       <c r="AP40" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>851619.56509907276</v>
       </c>
     </row>
@@ -27691,47 +27695,47 @@
         <v>10843.75</v>
       </c>
       <c r="AF41" s="3">
-        <f t="shared" ref="AF41:AP41" si="61">AE41*1.25</f>
+        <f t="shared" ref="AF41:AP41" si="63">AE41*1.25</f>
         <v>13554.6875</v>
       </c>
       <c r="AG41" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>16943.359375</v>
       </c>
       <c r="AH41" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>21179.19921875</v>
       </c>
       <c r="AI41" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>26473.9990234375</v>
       </c>
       <c r="AJ41" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>33092.498779296875</v>
       </c>
       <c r="AK41" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>41365.623474121094</v>
       </c>
       <c r="AL41" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>51707.029342651367</v>
       </c>
       <c r="AM41" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>64633.786678314209</v>
       </c>
       <c r="AN41" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>80792.233347892761</v>
       </c>
       <c r="AO41" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>100990.29168486595</v>
       </c>
       <c r="AP41" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>126237.86460608244</v>
       </c>
     </row>
@@ -27771,47 +27775,47 @@
         <v>3052.1</v>
       </c>
       <c r="AF42" s="3">
-        <f t="shared" ref="AF42:AP42" si="62">AE42*1.15</f>
+        <f t="shared" ref="AF42:AP42" si="64">AE42*1.15</f>
         <v>3509.9149999999995</v>
       </c>
       <c r="AG42" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>4036.4022499999992</v>
       </c>
       <c r="AH42" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>4641.8625874999989</v>
       </c>
       <c r="AI42" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>5338.1419756249979</v>
       </c>
       <c r="AJ42" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>6138.8632719687475</v>
       </c>
       <c r="AK42" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>7059.6927627640589</v>
       </c>
       <c r="AL42" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>8118.6466771786672</v>
       </c>
       <c r="AM42" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9336.443678755466</v>
       </c>
       <c r="AN42" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10736.910230568785</v>
       </c>
       <c r="AO42" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>12347.446765154102</v>
       </c>
       <c r="AP42" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>14199.563779927215</v>
       </c>
     </row>
@@ -27892,131 +27896,131 @@
         <v>0</v>
       </c>
       <c r="K44" s="30">
-        <f t="shared" ref="K44:AP44" si="63">SUM(K41:K43)</f>
+        <f t="shared" ref="K44:AP44" si="65">SUM(K41:K43)</f>
         <v>0</v>
       </c>
       <c r="L44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="P44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Q44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="T44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="U44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="V44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>2064</v>
       </c>
       <c r="W44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>2129</v>
       </c>
       <c r="X44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>2612</v>
       </c>
       <c r="Y44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>3367</v>
       </c>
       <c r="Z44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>3922</v>
       </c>
       <c r="AA44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>5864</v>
       </c>
       <c r="AB44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>7434</v>
       </c>
       <c r="AC44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>11132</v>
       </c>
       <c r="AD44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>11329</v>
       </c>
       <c r="AE44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>13895.85</v>
       </c>
       <c r="AF44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>17064.602500000001</v>
       </c>
       <c r="AG44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>20979.761624999999</v>
       </c>
       <c r="AH44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>25821.06180625</v>
       </c>
       <c r="AI44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>31812.140999062496</v>
       </c>
       <c r="AJ44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>39231.36205126562</v>
       </c>
       <c r="AK44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>48425.316236885155</v>
       </c>
       <c r="AL44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>59825.676019830033</v>
       </c>
       <c r="AM44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>73970.230357069668</v>
       </c>
       <c r="AN44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>91529.143578461546</v>
       </c>
       <c r="AO44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>113337.73845002006</v>
       </c>
       <c r="AP44" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>140437.42838600965</v>
       </c>
     </row>
@@ -28029,131 +28033,131 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" ref="K45:AP45" si="64">K40-K44</f>
+        <f t="shared" ref="K45:AP45" si="66">K40-K44</f>
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>747</v>
       </c>
       <c r="W45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1934</v>
       </c>
       <c r="X45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>3210</v>
       </c>
       <c r="Y45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>3804</v>
       </c>
       <c r="Z45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2846</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4532</v>
       </c>
       <c r="AB45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>10041</v>
       </c>
       <c r="AC45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4224</v>
       </c>
       <c r="AD45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>32972</v>
       </c>
       <c r="AE45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>33623.310000000005</v>
       </c>
       <c r="AF45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>44710.305500000002</v>
       </c>
       <c r="AG45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>59327.61877500001</v>
       </c>
       <c r="AH45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>78578.532713750013</v>
       </c>
       <c r="AI45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>103907.33187693752</v>
       </c>
       <c r="AJ45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>137203.95268753445</v>
       </c>
       <c r="AK45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>180940.59292355491</v>
       </c>
       <c r="AL45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>238350.00588874205</v>
       </c>
       <c r="AM45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>313658.15612407413</v>
       </c>
       <c r="AN45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>412387.75884702534</v>
       </c>
       <c r="AO45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>541754.23470311286</v>
       </c>
       <c r="AP45" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>711182.13671306311</v>
       </c>
     </row>
@@ -28370,131 +28374,131 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" ref="K49:AP49" si="65">K45+SUM(K46:K48)</f>
+        <f t="shared" ref="K49:AP49" si="67">K45+SUM(K46:K48)</f>
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="V49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>743</v>
       </c>
       <c r="W49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1905</v>
       </c>
       <c r="X49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>3196</v>
       </c>
       <c r="Y49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>3896</v>
       </c>
       <c r="Z49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>2970</v>
       </c>
       <c r="AA49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>4409</v>
       </c>
       <c r="AB49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>9941</v>
       </c>
       <c r="AC49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>4181</v>
       </c>
       <c r="AD49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>33818</v>
       </c>
       <c r="AE49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>33623.310000000005</v>
       </c>
       <c r="AF49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>44710.305500000002</v>
       </c>
       <c r="AG49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>59327.61877500001</v>
       </c>
       <c r="AH49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>78578.532713750013</v>
       </c>
       <c r="AI49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>103907.33187693752</v>
       </c>
       <c r="AJ49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>137203.95268753445</v>
       </c>
       <c r="AK49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>180940.59292355491</v>
       </c>
       <c r="AL49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>238350.00588874205</v>
       </c>
       <c r="AM49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>313658.15612407413</v>
       </c>
       <c r="AN49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>412387.75884702534</v>
       </c>
       <c r="AO49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>541754.23470311286</v>
       </c>
       <c r="AP49" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>711182.13671306311</v>
       </c>
     </row>
@@ -28534,47 +28538,47 @@
         <v>6724.6620000000012</v>
       </c>
       <c r="AF50" s="20">
-        <f t="shared" ref="AF50:AP50" si="66">AF49*AF68</f>
+        <f t="shared" ref="AF50:AP50" si="68">AF49*AF68</f>
         <v>8942.0611000000008</v>
       </c>
       <c r="AG50" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>11865.523755000002</v>
       </c>
       <c r="AH50" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>15715.706542750004</v>
       </c>
       <c r="AI50" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>20781.466375387507</v>
       </c>
       <c r="AJ50" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>27440.790537506891</v>
       </c>
       <c r="AK50" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>36188.118584710981</v>
       </c>
       <c r="AL50" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>47670.001177748411</v>
       </c>
       <c r="AM50" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>62731.631224814832</v>
       </c>
       <c r="AN50" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>82477.55176940508</v>
       </c>
       <c r="AO50" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>108350.84694062258</v>
       </c>
       <c r="AP50" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>142236.42734261262</v>
       </c>
     </row>
@@ -28587,131 +28591,131 @@
         <v>0</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" ref="K51:AP51" si="67">K49-K50</f>
+        <f t="shared" ref="K51:AP51" si="69">K49-K50</f>
         <v>0</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Q51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="R51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="T51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="U51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="V51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>614</v>
       </c>
       <c r="W51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1666</v>
       </c>
       <c r="X51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>3047</v>
       </c>
       <c r="Y51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>4141</v>
       </c>
       <c r="Z51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>2796</v>
       </c>
       <c r="AA51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>4332</v>
       </c>
       <c r="AB51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>9752</v>
       </c>
       <c r="AC51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>4368</v>
       </c>
       <c r="AD51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>29760</v>
       </c>
       <c r="AE51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>26898.648000000005</v>
       </c>
       <c r="AF51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>35768.244400000003</v>
       </c>
       <c r="AG51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>47462.095020000008</v>
       </c>
       <c r="AH51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>62862.826171000008</v>
       </c>
       <c r="AI51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>83125.865501550012</v>
       </c>
       <c r="AJ51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>109763.16215002755</v>
       </c>
       <c r="AK51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>144752.47433884392</v>
       </c>
       <c r="AL51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>190680.00471099364</v>
       </c>
       <c r="AM51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>250926.5248992593</v>
       </c>
       <c r="AN51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>329910.20707762026</v>
       </c>
       <c r="AO51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>433403.38776249031</v>
       </c>
       <c r="AP51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>568945.70937045047</v>
       </c>
       <c r="AQ51" s="3">
@@ -28719,207 +28723,207 @@
         <v>574635.16646415496</v>
       </c>
       <c r="AR51" s="3">
-        <f t="shared" ref="AR51:CP51" si="68">AQ51*(1+$AT$73)</f>
+        <f t="shared" ref="AR51:CP51" si="70">AQ51*(1+$AT$73)</f>
         <v>580381.51812879648</v>
       </c>
       <c r="AS51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>586185.33331008442</v>
       </c>
       <c r="AT51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>592047.18664318521</v>
       </c>
       <c r="AU51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>597967.65850961709</v>
       </c>
       <c r="AV51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>603947.33509471326</v>
       </c>
       <c r="AW51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>609986.8084456604</v>
       </c>
       <c r="AX51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>616086.67653011705</v>
       </c>
       <c r="AY51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>622247.54329541826</v>
       </c>
       <c r="AZ51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>628470.01872837241</v>
       </c>
       <c r="BA51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>634754.71891565609</v>
       </c>
       <c r="BB51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>641102.26610481262</v>
       </c>
       <c r="BC51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>647513.28876586072</v>
       </c>
       <c r="BD51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>653988.42165351938</v>
       </c>
       <c r="BE51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>660528.30587005464</v>
       </c>
       <c r="BF51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>667133.58892875514</v>
       </c>
       <c r="BG51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>673804.92481804267</v>
       </c>
       <c r="BH51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>680542.97406622313</v>
       </c>
       <c r="BI51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>687348.40380688536</v>
       </c>
       <c r="BJ51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>694221.88784495427</v>
       </c>
       <c r="BK51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>701164.10672340379</v>
       </c>
       <c r="BL51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>708175.74779063789</v>
       </c>
       <c r="BM51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>715257.50526854431</v>
       </c>
       <c r="BN51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>722410.08032122976</v>
       </c>
       <c r="BO51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>729634.18112444202</v>
       </c>
       <c r="BP51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>736930.5229356864</v>
       </c>
       <c r="BQ51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>744299.82816504326</v>
       </c>
       <c r="BR51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>751742.82644669374</v>
       </c>
       <c r="BS51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>759260.25471116067</v>
       </c>
       <c r="BT51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>766852.85725827224</v>
       </c>
       <c r="BU51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>774521.385830855</v>
       </c>
       <c r="BV51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>782266.5996891635</v>
       </c>
       <c r="BW51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>790089.26568605518</v>
       </c>
       <c r="BX51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>797990.1583429157</v>
       </c>
       <c r="BY51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>805970.0599263449</v>
       </c>
       <c r="BZ51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>814029.76052560832</v>
       </c>
       <c r="CA51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>822170.0581308644</v>
       </c>
       <c r="CB51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>830391.75871217309</v>
       </c>
       <c r="CC51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>838695.67629929481</v>
       </c>
       <c r="CD51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>847082.63306228782</v>
       </c>
       <c r="CE51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>855553.45939291071</v>
       </c>
       <c r="CF51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>864108.99398683978</v>
       </c>
       <c r="CG51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>872750.0839267082</v>
       </c>
       <c r="CH51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>881477.58476597525</v>
       </c>
       <c r="CI51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>890292.36061363504</v>
       </c>
       <c r="CJ51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>899195.28421977139</v>
       </c>
       <c r="CK51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>908187.23706196912</v>
       </c>
       <c r="CL51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>917269.1094325888</v>
       </c>
       <c r="CM51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>926441.80052691465</v>
       </c>
       <c r="CN51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>935706.21853218379</v>
       </c>
       <c r="CO51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>945063.28071750561</v>
       </c>
       <c r="CP51" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>954513.91352468065</v>
       </c>
     </row>
@@ -28932,131 +28936,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K54" s="53" t="e">
-        <f t="shared" ref="K54:AP54" si="69">K51/K55</f>
+        <f t="shared" ref="K54:AP54" si="71">K51/K55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L54" s="53" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M54" s="53" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N54" s="53" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="53" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P54" s="53" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="53" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R54" s="53" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S54" s="53" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T54" s="53" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U54" s="53" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0.28268876611418048</v>
       </c>
       <c r="W54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0.76987060998151569</v>
       </c>
       <c r="X54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.271702838063439</v>
       </c>
       <c r="Y54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.7027138157894737</v>
       </c>
       <c r="Z54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.1477832512315271</v>
       </c>
       <c r="AA54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.7552674230145866</v>
       </c>
       <c r="AB54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>3.9070512820512819</v>
       </c>
       <c r="AC54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.7563329312424607</v>
       </c>
       <c r="AD54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>12.053462940461726</v>
       </c>
       <c r="AE54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>10.89455164034022</v>
       </c>
       <c r="AF54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>14.486935763466992</v>
       </c>
       <c r="AG54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>19.223205759416771</v>
       </c>
       <c r="AH54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>25.460844945727018</v>
       </c>
       <c r="AI54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>33.667827258626978</v>
       </c>
       <c r="AJ54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>44.456525779679041</v>
       </c>
       <c r="AK54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>58.627976645947314</v>
       </c>
       <c r="AL54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>77.229649538677052</v>
       </c>
       <c r="AM54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>101.63083227997541</v>
       </c>
       <c r="AN54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>133.62098302050234</v>
       </c>
       <c r="AO54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>175.53802663527352</v>
       </c>
       <c r="AP54" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>230.43568625777661</v>
       </c>
     </row>
@@ -29065,27 +29069,27 @@
         <v>1</v>
       </c>
       <c r="V55">
-        <f>V56*4</f>
+        <f t="shared" ref="V55:AA55" si="72">V56*4</f>
         <v>2172</v>
       </c>
       <c r="W55">
-        <f>W56*4</f>
+        <f t="shared" si="72"/>
         <v>2164</v>
       </c>
       <c r="X55">
-        <f>X56*4</f>
+        <f t="shared" si="72"/>
         <v>2396</v>
       </c>
       <c r="Y55">
-        <f>Y56*4</f>
+        <f t="shared" si="72"/>
         <v>2432</v>
       </c>
       <c r="Z55">
-        <f>Z56*4</f>
+        <f t="shared" si="72"/>
         <v>2436</v>
       </c>
       <c r="AA55">
-        <f>AA56*4</f>
+        <f t="shared" si="72"/>
         <v>2468</v>
       </c>
       <c r="AB55">
@@ -29102,47 +29106,47 @@
         <v>2469</v>
       </c>
       <c r="AF55">
-        <f t="shared" ref="AF55:AP55" si="70">AE55</f>
+        <f t="shared" ref="AF55:AP55" si="73">AE55</f>
         <v>2469</v>
       </c>
       <c r="AG55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2469</v>
       </c>
       <c r="AH55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2469</v>
       </c>
       <c r="AI55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2469</v>
       </c>
       <c r="AJ55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2469</v>
       </c>
       <c r="AK55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2469</v>
       </c>
       <c r="AL55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2469</v>
       </c>
       <c r="AM55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2469</v>
       </c>
       <c r="AN55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2469</v>
       </c>
       <c r="AO55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2469</v>
       </c>
       <c r="AP55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2469</v>
       </c>
     </row>
@@ -29180,131 +29184,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="15" t="e">
-        <f t="shared" ref="K58:AP58" si="71">K38/J38-1</f>
+        <f t="shared" ref="K58:AP58" si="74">K38/J38-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L58" s="15" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M58" s="15" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N58" s="15" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O58" s="15" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P58" s="15" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q58" s="15" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R58" s="15" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S58" s="15" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T58" s="15" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U58" s="15" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V58" s="15" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.37924151696606789</v>
       </c>
       <c r="X58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.40578871201157751</v>
       </c>
       <c r="Y58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.20609429689108505</v>
       </c>
       <c r="Z58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>-6.8111983612154314E-2</v>
       </c>
       <c r="AA58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.52729437625938824</v>
       </c>
       <c r="AB58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.61403298350824587</v>
       </c>
       <c r="AC58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>2.2293230289069932E-3</v>
       </c>
       <c r="AD58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="AE58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AG58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AH58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AI58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AK58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AL58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AM58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AN58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AO58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AP58" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -29317,131 +29321,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K59" s="15" t="e">
-        <f t="shared" ref="K59:AP59" si="72">K51/J51-1</f>
+        <f t="shared" ref="K59:AP59" si="75">K51/J51-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L59" s="15" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M59" s="15" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N59" s="15" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O59" s="15" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P59" s="15" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="15" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R59" s="15" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S59" s="15" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T59" s="15" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U59" s="15" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V59" s="15" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.7133550488599347</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.82893157262905159</v>
       </c>
       <c r="Y59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.35904168034131922</v>
       </c>
       <c r="Z59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>-0.3248007727602028</v>
       </c>
       <c r="AA59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.54935622317596566</v>
       </c>
       <c r="AB59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1.2511542012927053</v>
       </c>
       <c r="AC59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>-0.55209187858900743</v>
       </c>
       <c r="AD59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>5.813186813186813</v>
       </c>
       <c r="AE59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>-9.6147580645161157E-2</v>
       </c>
       <c r="AF59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.32974134610780426</v>
       </c>
       <c r="AG59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.3269338715433292</v>
       </c>
       <c r="AH59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.32448485774827884</v>
       </c>
       <c r="AI59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.32233739023171348</v>
       </c>
       <c r="AJ59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.32044534499289923</v>
       </c>
       <c r="AK59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.31877099295838374</v>
       </c>
       <c r="AL59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.31728321454899788</v>
       </c>
       <c r="AM59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.31595615009334099</v>
       </c>
       <c r="AN59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.31476816653827622</v>
       </c>
       <c r="AO59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.31370105702889184</v>
       </c>
       <c r="AP59" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.31273941421574403</v>
       </c>
     </row>
@@ -29454,27 +29458,27 @@
         <v>9.9173553719008156E-2</v>
       </c>
       <c r="X60" s="15">
-        <f t="shared" ref="X60:AC60" si="73">X41/W41-1</f>
+        <f t="shared" ref="X60:AC60" si="76">X41/W41-1</f>
         <v>0.228298017771702</v>
       </c>
       <c r="Y60" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.32220367278798001</v>
       </c>
       <c r="Z60" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.19065656565656575</v>
       </c>
       <c r="AA60" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.38706256627783664</v>
       </c>
       <c r="AB60" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.34250764525993893</v>
       </c>
       <c r="AC60" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.39312832194381175</v>
       </c>
       <c r="AD60" s="15">
@@ -29527,27 +29531,27 @@
         <v>0.1013289036544851</v>
       </c>
       <c r="X61" s="15">
-        <f t="shared" ref="X61:AC61" si="74">X42/W42-1</f>
+        <f t="shared" ref="X61:AC61" si="77">X42/W42-1</f>
         <v>0.22926093514328816</v>
       </c>
       <c r="Y61" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.21595092024539886</v>
       </c>
       <c r="Z61" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.10292633703329979</v>
       </c>
       <c r="AA61" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.77493138151875574</v>
       </c>
       <c r="AB61" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.11649484536082477</v>
       </c>
       <c r="AC61" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.12650046168051698</v>
       </c>
       <c r="AD61" s="15">
@@ -29565,87 +29569,87 @@
         <v>1701</v>
       </c>
       <c r="J65" s="15" t="e">
-        <f>J40/J38</f>
+        <f t="shared" ref="J65:AD65" si="78">J40/J38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K65" s="15" t="e">
-        <f>K40/K38</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L65" s="15" t="e">
-        <f>L40/L38</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M65" s="15" t="e">
-        <f>M40/M38</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N65" s="15" t="e">
-        <f>N40/N38</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O65" s="15" t="e">
-        <f>O40/O38</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P65" s="15" t="e">
-        <f>P40/P38</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q65" s="15" t="e">
-        <f>Q40/Q38</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R65" s="15" t="e">
-        <f>R40/R38</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S65" s="15" t="e">
-        <f>S40/S38</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T65" s="15" t="e">
-        <f>T40/T38</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U65" s="15" t="e">
-        <f>U40/U38</f>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V65" s="15">
-        <f>V40/V38</f>
+        <f t="shared" si="78"/>
         <v>0.56107784431137719</v>
       </c>
       <c r="W65" s="15">
-        <f>W40/W38</f>
+        <f t="shared" si="78"/>
         <v>0.58798842257597683</v>
       </c>
       <c r="X65" s="15">
-        <f>X40/X38</f>
+        <f t="shared" si="78"/>
         <v>0.59934115709285563</v>
       </c>
       <c r="Y65" s="15">
-        <f>Y40/Y38</f>
+        <f t="shared" si="78"/>
         <v>0.61206896551724133</v>
       </c>
       <c r="Z65" s="15">
-        <f>Z40/Z38</f>
+        <f t="shared" si="78"/>
         <v>0.61989375343469499</v>
       </c>
       <c r="AA65" s="15">
-        <f>AA40/AA38</f>
+        <f t="shared" si="78"/>
         <v>0.62344827586206897</v>
       </c>
       <c r="AB65" s="15">
-        <f>AB40/AB38</f>
+        <f t="shared" si="78"/>
         <v>0.64929033216913135</v>
       </c>
       <c r="AC65" s="15">
-        <f>AC40/AC38</f>
+        <f t="shared" si="78"/>
         <v>0.56928894490991322</v>
       </c>
       <c r="AD65" s="15">
-        <f>AD40/AD38</f>
+        <f t="shared" si="78"/>
         <v>0.72717573290436954</v>
       </c>
       <c r="AE65" s="15">
@@ -29694,131 +29698,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K66" s="15" t="e">
-        <f t="shared" ref="K66:AP66" si="75">K45/K38</f>
+        <f t="shared" ref="K66:AP66" si="79">K45/K38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L66" s="15" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M66" s="15" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N66" s="15" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O66" s="15" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P66" s="15" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="15" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R66" s="15" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S66" s="15" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T66" s="15" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U66" s="15" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.14910179640718563</v>
       </c>
       <c r="W66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.27988422575976846</v>
       </c>
       <c r="X66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.33045089561457691</v>
       </c>
       <c r="Y66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.32468419255718678</v>
       </c>
       <c r="Z66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.2606704524638212</v>
       </c>
       <c r="AA66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.27178410794602698</v>
       </c>
       <c r="AB66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.37307720888756779</v>
       </c>
       <c r="AC66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.1565952398606065</v>
       </c>
       <c r="AD66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.54121663766783756</v>
       </c>
       <c r="AE66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.42454424699426507</v>
       </c>
       <c r="AF66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.43425695267729092</v>
       </c>
       <c r="AG66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.44325404573898913</v>
       </c>
       <c r="AH66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.45160251670534934</v>
       </c>
       <c r="AI66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.45936222566325036</v>
       </c>
       <c r="AJ66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.46658670195585894</v>
       </c>
       <c r="AK66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.47332385249192732</v>
       </c>
       <c r="AL66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.47961658917944744</v>
       </c>
       <c r="AM66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.4855033847826809</v>
       </c>
       <c r="AN66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.49101876542988659</v>
       </c>
       <c r="AO66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.49619374705097191</v>
       </c>
       <c r="AP66" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.50105622218554458</v>
       </c>
     </row>
@@ -29831,131 +29835,131 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K67" s="15" t="e">
-        <f t="shared" ref="K67:AP67" si="76">K51/K38</f>
+        <f t="shared" ref="K67:AP67" si="80">K51/K38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L67" s="15" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M67" s="15" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N67" s="15" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O67" s="15" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P67" s="15" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q67" s="15" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R67" s="15" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S67" s="15" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T67" s="15" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U67" s="15" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.12255489021956088</v>
       </c>
       <c r="W67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.24109985528219971</v>
       </c>
       <c r="X67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.3136709903232448</v>
       </c>
       <c r="Y67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.35344827586206895</v>
       </c>
       <c r="Z67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.25609085913170909</v>
       </c>
       <c r="AA67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.25979010494752625</v>
       </c>
       <c r="AB67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.36233930296499961</v>
       </c>
       <c r="AC67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.16193371394676356</v>
       </c>
       <c r="AD67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.4884934834706674</v>
       </c>
       <c r="AE67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.33963539759541206</v>
       </c>
       <c r="AF67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.34740556214183271</v>
       </c>
       <c r="AG67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.35460323659119131</v>
       </c>
       <c r="AH67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.36128201336427945</v>
       </c>
       <c r="AI67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.36748978053060027</v>
       </c>
       <c r="AJ67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.3732693615646871</v>
       </c>
       <c r="AK67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.37865908199354187</v>
       </c>
       <c r="AL67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.38369327134355796</v>
       </c>
       <c r="AM67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.38840270782614467</v>
       </c>
       <c r="AN67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.39281501234390925</v>
       </c>
       <c r="AO67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.39695499764077752</v>
       </c>
       <c r="AP67" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.40084497774843564</v>
       </c>
     </row>
@@ -29968,83 +29972,83 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K68" s="15" t="e">
-        <f t="shared" ref="K68:AD68" si="77">K50/K49</f>
+        <f t="shared" ref="K68:AD68" si="81">K50/K49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L68" s="15" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M68" s="15" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N68" s="15" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O68" s="15" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P68" s="15" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q68" s="15" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R68" s="15" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S68" s="15" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T68" s="15" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U68" s="15" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V68" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0.17362045760430686</v>
       </c>
       <c r="W68" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0.12545931758530185</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>4.6620775969962454E-2</v>
       </c>
       <c r="Y68" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>-6.2885010266940447E-2</v>
       </c>
       <c r="Z68" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>5.8585858585858588E-2</v>
       </c>
       <c r="AA68" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>1.7464277613971423E-2</v>
       </c>
       <c r="AB68" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>1.9012171813700834E-2</v>
       </c>
       <c r="AC68" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>-4.4726142071274816E-2</v>
       </c>
       <c r="AD68" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0.1199952687917677</v>
       </c>
       <c r="AE68" s="15">

--- a/NVDA/NVDA.xlsx
+++ b/NVDA/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/NVDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1933" documentId="11_60E75B87F94EC339A3CE5EC2F11D231891AC5B93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13A16763-EA6C-4144-9F35-A83EBF3D0741}"/>
+  <xr:revisionPtr revIDLastSave="1950" documentId="11_60E75B87F94EC339A3CE5EC2F11D231891AC5B93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A7AD85A-595B-4008-A0F3-BE1E10252BE6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -5358,7 +5358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5374,6 +5374,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5458,7 +5470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5515,8 +5527,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5546,7 +5559,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5731,9 +5744,7 @@
     <v>39.229999999999997</v>
     <v>1.6897</v>
     <v>0.78</v>
-    <v>-5.3069999999999994E-4</v>
     <v>6.9470000000000001E-3</v>
-    <v>-0.06</v>
     <v>USD</v>
     <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company accelerates computing to help solve the computational problems. The Company’s segments include Compute &amp; Networking and Graphics. Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI), cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; NVIDIA AI Enterprise and other software. The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>29600</v>
@@ -5751,14 +5762,13 @@
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
     <v>116.19</v>
-    <v>66.167299999999997</v>
+    <v>66.168000000000006</v>
     <v>112.28</v>
     <v>113.06</v>
-    <v>113</v>
     <v>24600000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>293399073</v>
+    <v>363935</v>
     <v>316467997</v>
     <v>1998</v>
   </rv>
@@ -5799,9 +5809,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -5822,7 +5830,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -5839,7 +5846,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -5850,16 +5857,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -5925,19 +5929,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -5982,9 +5980,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -5992,9 +5987,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -6445,7 +6437,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6500,7 +6492,7 @@
   <dimension ref="A1:BT165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="P17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AH1" sqref="AH1"/>
@@ -24732,13 +24724,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FB248-A3C3-4C3B-9EF4-109AC0AB356C}">
-  <dimension ref="B1:CP78"/>
+  <dimension ref="B1:CP76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AN55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AK16" sqref="AK16"/>
+      <selection pane="bottomRight" activeCell="AQ72" sqref="AQ72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25120,5031 +25112,5031 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="7" spans="2:94" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
+    <row r="5" spans="2:94" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+    <row r="6" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y6" s="3">
         <v>8159</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z6" s="3">
         <v>7639</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA6" s="3">
         <v>9834</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB6" s="3">
         <v>15868</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC6" s="3">
         <v>11906</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD6" s="3">
         <v>13517</v>
       </c>
     </row>
-    <row r="9" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+    <row r="7" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y7" s="3">
         <v>3417</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z7" s="3">
         <v>3267</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA7" s="3">
         <v>4612</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB7" s="3">
         <v>8492</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC7" s="3">
         <v>4552</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD7" s="3">
         <v>5846</v>
       </c>
     </row>
-    <row r="10" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
+    <row r="8" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="15" t="e">
-        <f>J9/J8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="15" t="e">
-        <f t="shared" ref="K10:AA10" si="4">K9/K8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="15" t="e">
+      <c r="J8" s="15" t="e">
+        <f>J7/J6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="15" t="e">
+        <f t="shared" ref="K8:AA8" si="4">K7/K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="15" t="e">
+      <c r="M8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="15" t="e">
+      <c r="N8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="15" t="e">
+      <c r="O8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="15" t="e">
+      <c r="P8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="15" t="e">
+      <c r="Q8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="15" t="e">
+      <c r="R8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="15" t="e">
+      <c r="S8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="15" t="e">
+      <c r="T8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="15" t="e">
+      <c r="U8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V10" s="15" t="e">
+      <c r="V8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" s="15" t="e">
+      <c r="W8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X10" s="15" t="e">
+      <c r="X8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="Y8" s="15">
         <f t="shared" si="4"/>
         <v>0.41880132369162887</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="Z8" s="15">
         <f t="shared" si="4"/>
         <v>0.42767377929048306</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AA8" s="15">
         <f t="shared" si="4"/>
         <v>0.46898515354891196</v>
       </c>
-      <c r="AB10" s="15">
-        <f>AB9/AB8</f>
+      <c r="AB8" s="15">
+        <f>AB7/AB6</f>
         <v>0.53516511217544749</v>
       </c>
-      <c r="AC10" s="15">
-        <f t="shared" ref="AC10:AE10" si="5">AC9/AC8</f>
+      <c r="AC8" s="15">
+        <f t="shared" ref="AC8:AE8" si="5">AC7/AC6</f>
         <v>0.3823282378632622</v>
       </c>
-      <c r="AD10" s="15">
+      <c r="AD8" s="15">
         <f t="shared" si="5"/>
         <v>0.43249241695642526</v>
       </c>
-      <c r="AE10" s="15" t="e">
+      <c r="AE8" s="15" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF10" s="15" t="e">
-        <f t="shared" ref="AF10" si="6">AF9/AF8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG10" s="15" t="e">
-        <f t="shared" ref="AG10" si="7">AG9/AG8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH10" s="15" t="e">
-        <f t="shared" ref="AH10" si="8">AH9/AH8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI10" s="15" t="e">
-        <f t="shared" ref="AI10" si="9">AI9/AI8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ10" s="15" t="e">
-        <f t="shared" ref="AJ10" si="10">AJ9/AJ8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK10" s="15" t="e">
-        <f t="shared" ref="AK10" si="11">AK9/AK8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL10" s="15" t="e">
-        <f t="shared" ref="AL10" si="12">AL9/AL8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM10" s="15" t="e">
-        <f t="shared" ref="AM10" si="13">AM9/AM8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN10" s="15" t="e">
-        <f t="shared" ref="AN10" si="14">AN9/AN8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO10" s="15" t="e">
-        <f t="shared" ref="AO10" si="15">AO9/AO8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP10" s="15" t="e">
-        <f t="shared" ref="AP10" si="16">AP9/AP8</f>
+      <c r="AF8" s="15" t="e">
+        <f t="shared" ref="AF8" si="6">AF7/AF6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG8" s="15" t="e">
+        <f t="shared" ref="AG8" si="7">AG7/AG6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH8" s="15" t="e">
+        <f t="shared" ref="AH8" si="8">AH7/AH6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI8" s="15" t="e">
+        <f t="shared" ref="AI8" si="9">AI7/AI6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ8" s="15" t="e">
+        <f t="shared" ref="AJ8" si="10">AJ7/AJ6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK8" s="15" t="e">
+        <f t="shared" ref="AK8" si="11">AK7/AK6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL8" s="15" t="e">
+        <f t="shared" ref="AL8" si="12">AL7/AL6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM8" s="15" t="e">
+        <f t="shared" ref="AM8" si="13">AM7/AM6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN8" s="15" t="e">
+        <f t="shared" ref="AN8" si="14">AN7/AN6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO8" s="15" t="e">
+        <f t="shared" ref="AO8" si="15">AO7/AO6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP8" s="15" t="e">
+        <f t="shared" ref="AP8" si="16">AP7/AP6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="2:94" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="24" t="s">
+    <row r="9" spans="2:94" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+    <row r="10" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y10" s="3">
         <v>3557</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z10" s="3">
         <v>3279</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA10" s="3">
         <v>6841</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB10" s="3">
         <v>11046</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC10" s="3">
         <v>15068</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD10" s="3">
         <v>47405</v>
       </c>
     </row>
-    <row r="13" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
+    <row r="11" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y11" s="3">
         <v>1251</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z11" s="3">
         <v>751</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA11" s="3">
         <v>2548</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB11" s="3">
         <v>4598</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AC11" s="3">
         <v>5083</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD11" s="3">
         <v>32016</v>
       </c>
     </row>
-    <row r="14" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
+    <row r="12" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="15" t="e">
-        <f>J13/J12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="15" t="e">
-        <f t="shared" ref="K14" si="17">K13/K12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="15" t="e">
-        <f t="shared" ref="L14" si="18">L13/L12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="15" t="e">
-        <f t="shared" ref="M14" si="19">M13/M12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="15" t="e">
-        <f t="shared" ref="N14" si="20">N13/N12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="15" t="e">
-        <f t="shared" ref="O14" si="21">O13/O12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P14" s="15" t="e">
-        <f t="shared" ref="P14" si="22">P13/P12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" s="15" t="e">
-        <f t="shared" ref="Q14" si="23">Q13/Q12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R14" s="15" t="e">
-        <f t="shared" ref="R14" si="24">R13/R12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S14" s="15" t="e">
-        <f t="shared" ref="S14" si="25">S13/S12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T14" s="15" t="e">
-        <f t="shared" ref="T14" si="26">T13/T12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" s="15" t="e">
-        <f t="shared" ref="U14" si="27">U13/U12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="15" t="e">
-        <f t="shared" ref="V14" si="28">V13/V12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W14" s="15" t="e">
-        <f t="shared" ref="W14" si="29">W13/W12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" s="15" t="e">
-        <f t="shared" ref="X14" si="30">X13/X12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="15">
-        <f t="shared" ref="Y14" si="31">Y13/Y12</f>
+      <c r="J12" s="15" t="e">
+        <f>J11/J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="15" t="e">
+        <f t="shared" ref="K12" si="17">K11/K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="15" t="e">
+        <f t="shared" ref="L12" si="18">L11/L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="15" t="e">
+        <f t="shared" ref="M12" si="19">M11/M10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="15" t="e">
+        <f t="shared" ref="N12" si="20">N11/N10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="15" t="e">
+        <f t="shared" ref="O12" si="21">O11/O10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="15" t="e">
+        <f t="shared" ref="P12" si="22">P11/P10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="15" t="e">
+        <f t="shared" ref="Q12" si="23">Q11/Q10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="15" t="e">
+        <f t="shared" ref="R12" si="24">R11/R10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" s="15" t="e">
+        <f t="shared" ref="S12" si="25">S11/S10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="15" t="e">
+        <f t="shared" ref="T12" si="26">T11/T10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="15" t="e">
+        <f t="shared" ref="U12" si="27">U11/U10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="15" t="e">
+        <f t="shared" ref="V12" si="28">V11/V10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="15" t="e">
+        <f t="shared" ref="W12" si="29">W11/W10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="15" t="e">
+        <f t="shared" ref="X12" si="30">X11/X10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="15">
+        <f t="shared" ref="Y12" si="31">Y11/Y10</f>
         <v>0.35170087152094459</v>
       </c>
-      <c r="Z14" s="15">
-        <f t="shared" ref="Z14" si="32">Z13/Z12</f>
+      <c r="Z12" s="15">
+        <f t="shared" ref="Z12" si="32">Z11/Z10</f>
         <v>0.229033241842025</v>
       </c>
-      <c r="AA14" s="15">
-        <f t="shared" ref="AA14" si="33">AA13/AA12</f>
+      <c r="AA12" s="15">
+        <f t="shared" ref="AA12" si="33">AA11/AA10</f>
         <v>0.37246016664230375</v>
       </c>
-      <c r="AB14" s="15">
-        <f>AB13/AB12</f>
+      <c r="AB12" s="15">
+        <f>AB11/AB10</f>
         <v>0.41625927937715013</v>
       </c>
-      <c r="AC14" s="15">
-        <f t="shared" ref="AC14" si="34">AC13/AC12</f>
+      <c r="AC12" s="15">
+        <f t="shared" ref="AC12" si="34">AC11/AC10</f>
         <v>0.33733740376957794</v>
       </c>
-      <c r="AD14" s="15">
-        <f t="shared" ref="AD14" si="35">AD13/AD12</f>
+      <c r="AD12" s="15">
+        <f t="shared" ref="AD12" si="35">AD11/AD10</f>
         <v>0.67537179622402699</v>
       </c>
-      <c r="AE14" s="15" t="e">
-        <f t="shared" ref="AE14" si="36">AE13/AE12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF14" s="15" t="e">
-        <f t="shared" ref="AF14" si="37">AF13/AF12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG14" s="15" t="e">
-        <f t="shared" ref="AG14" si="38">AG13/AG12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="15" t="e">
-        <f t="shared" ref="AH14" si="39">AH13/AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="15" t="e">
-        <f t="shared" ref="AI14" si="40">AI13/AI12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="15" t="e">
-        <f t="shared" ref="AJ14" si="41">AJ13/AJ12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="15" t="e">
-        <f t="shared" ref="AK14" si="42">AK13/AK12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="15" t="e">
-        <f t="shared" ref="AL14" si="43">AL13/AL12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM14" s="15" t="e">
-        <f t="shared" ref="AM14" si="44">AM13/AM12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN14" s="15" t="e">
-        <f t="shared" ref="AN14" si="45">AN13/AN12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO14" s="15" t="e">
-        <f t="shared" ref="AO14" si="46">AO13/AO12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP14" s="15" t="e">
-        <f t="shared" ref="AP14" si="47">AP13/AP12</f>
-        <v>#DIV/0!</v>
+      <c r="AE12" s="15" t="e">
+        <f t="shared" ref="AE12" si="36">AE11/AE10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12" s="15" t="e">
+        <f t="shared" ref="AF12" si="37">AF11/AF10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="15" t="e">
+        <f t="shared" ref="AG12" si="38">AG11/AG10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="15" t="e">
+        <f t="shared" ref="AH12" si="39">AH11/AH10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="15" t="e">
+        <f t="shared" ref="AI12" si="40">AI11/AI10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="15" t="e">
+        <f t="shared" ref="AJ12" si="41">AJ11/AJ10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="15" t="e">
+        <f t="shared" ref="AK12" si="42">AK11/AK10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="15" t="e">
+        <f t="shared" ref="AL12" si="43">AL11/AL10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM12" s="15" t="e">
+        <f t="shared" ref="AM12" si="44">AM11/AM10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN12" s="15" t="e">
+        <f t="shared" ref="AN12" si="45">AN11/AN10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO12" s="15" t="e">
+        <f t="shared" ref="AO12" si="46">AO11/AO10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP12" s="15" t="e">
+        <f t="shared" ref="AP12" si="47">AP11/AP10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>6246</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>5518</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>7759</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>12462</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>9067</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>10447</v>
+      </c>
+    </row>
+    <row r="15" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1130</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>1212</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>1053</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>2111</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>1544</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>1553</v>
       </c>
     </row>
     <row r="16" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y16" s="3">
-        <v>6246</v>
+        <v>2932</v>
       </c>
       <c r="Z16" s="3">
-        <v>5518</v>
+        <v>2983</v>
       </c>
       <c r="AA16" s="3">
-        <v>7759</v>
+        <v>6696</v>
       </c>
       <c r="AB16" s="3">
-        <v>12462</v>
+        <v>10613</v>
       </c>
       <c r="AC16" s="3">
-        <v>9067</v>
+        <v>15005</v>
       </c>
       <c r="AD16" s="3">
-        <v>10447</v>
+        <v>47525</v>
       </c>
     </row>
     <row r="17" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y17" s="3">
-        <v>1130</v>
+        <v>641</v>
       </c>
       <c r="Z17" s="3">
-        <v>1212</v>
+        <v>700</v>
       </c>
       <c r="AA17" s="3">
-        <v>1053</v>
+        <v>536</v>
       </c>
       <c r="AB17" s="3">
-        <v>2111</v>
+        <v>566</v>
       </c>
       <c r="AC17" s="3">
-        <v>1544</v>
+        <v>903</v>
       </c>
       <c r="AD17" s="3">
-        <v>1553</v>
+        <v>1091</v>
       </c>
     </row>
-    <row r="18" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>2932</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>2983</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>6696</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>10613</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>15005</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>47525</v>
+    <row r="18" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y18" s="20">
+        <v>767</v>
+      </c>
+      <c r="Z18" s="20">
+        <v>505</v>
+      </c>
+      <c r="AA18" s="20">
+        <v>631</v>
+      </c>
+      <c r="AB18" s="20">
+        <v>1162</v>
+      </c>
+      <c r="AC18" s="20">
+        <v>455</v>
+      </c>
+      <c r="AD18" s="20">
+        <v>306</v>
       </c>
     </row>
-    <row r="19" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>641</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>536</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>566</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>903</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="20" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y20" s="20">
-        <v>767</v>
-      </c>
-      <c r="Z20" s="20">
-        <v>505</v>
-      </c>
-      <c r="AA20" s="20">
-        <v>631</v>
-      </c>
-      <c r="AB20" s="20">
-        <v>1162</v>
-      </c>
-      <c r="AC20" s="20">
-        <v>455</v>
-      </c>
-      <c r="AD20" s="20">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
+    <row r="19" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="21" t="s">
         <v>1711</v>
       </c>
-      <c r="J21" s="21">
-        <f>SUM(J16:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="21">
-        <f t="shared" ref="K21:AP21" si="48">SUM(K16:K20)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="21">
+      <c r="J19" s="21">
+        <f>SUM(J14:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <f t="shared" ref="K19:AP19" si="48">SUM(K14:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="T21" s="21">
+      <c r="T19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="U21" s="21">
+      <c r="U19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="V21" s="21">
+      <c r="V19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="W21" s="21">
+      <c r="W19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="X21" s="21">
+      <c r="X19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="Y19" s="21">
         <f t="shared" si="48"/>
         <v>11716</v>
       </c>
-      <c r="Z21" s="21">
+      <c r="Z19" s="21">
         <f t="shared" si="48"/>
         <v>10918</v>
       </c>
-      <c r="AA21" s="21">
+      <c r="AA19" s="21">
         <f t="shared" si="48"/>
         <v>16675</v>
       </c>
-      <c r="AB21" s="21">
+      <c r="AB19" s="21">
         <f t="shared" si="48"/>
         <v>26914</v>
       </c>
-      <c r="AC21" s="21">
+      <c r="AC19" s="21">
         <f t="shared" si="48"/>
         <v>26974</v>
       </c>
-      <c r="AD21" s="21">
+      <c r="AD19" s="21">
         <f t="shared" si="48"/>
         <v>60922</v>
       </c>
-      <c r="AE21" s="21">
+      <c r="AE19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="21">
+      <c r="AF19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="21">
+      <c r="AG19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AH21" s="21">
+      <c r="AH19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AI21" s="21">
+      <c r="AI19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="21">
+      <c r="AJ19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="21">
+      <c r="AK19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="21">
+      <c r="AL19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AM21" s="21">
+      <c r="AM19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="21">
+      <c r="AN19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="21">
+      <c r="AO19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="21">
+      <c r="AP19" s="21">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="24" t="s">
+    <row r="20" spans="2:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="23" spans="2:42" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
+    <row r="21" spans="2:42" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
         <v>1713</v>
       </c>
-      <c r="J23" s="15" t="e">
-        <f>J16/I16-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="15" t="e">
-        <f t="shared" ref="K23:AP23" si="49">K16/J16-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="15" t="e">
+      <c r="J21" s="15" t="e">
+        <f>J14/I14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="15" t="e">
+        <f t="shared" ref="K21:AP21" si="49">K14/J14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="15" t="e">
+      <c r="M21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="15" t="e">
+      <c r="N21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="15" t="e">
+      <c r="O21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="15" t="e">
+      <c r="P21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q23" s="15" t="e">
+      <c r="Q21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="15" t="e">
+      <c r="R21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S23" s="15" t="e">
+      <c r="S21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T23" s="15" t="e">
+      <c r="T21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U23" s="15" t="e">
+      <c r="U21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V23" s="15" t="e">
+      <c r="V21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W23" s="15" t="e">
+      <c r="W21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X23" s="15" t="e">
+      <c r="X21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y23" s="15" t="e">
+      <c r="Y21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z23" s="15">
+      <c r="Z21" s="15">
         <f t="shared" si="49"/>
         <v>-0.11655459494076204</v>
       </c>
-      <c r="AA23" s="15">
+      <c r="AA21" s="15">
         <f t="shared" si="49"/>
         <v>0.40612540775643358</v>
       </c>
-      <c r="AB23" s="15">
+      <c r="AB21" s="15">
         <f t="shared" si="49"/>
         <v>0.60613481118700863</v>
       </c>
-      <c r="AC23" s="15">
+      <c r="AC21" s="15">
         <f t="shared" si="49"/>
         <v>-0.27242818167228378</v>
       </c>
-      <c r="AD23" s="15">
+      <c r="AD21" s="15">
         <f t="shared" si="49"/>
         <v>0.15220028675416342</v>
       </c>
-      <c r="AE23" s="15">
+      <c r="AE21" s="15">
         <f t="shared" si="49"/>
         <v>-1</v>
       </c>
-      <c r="AF23" s="15" t="e">
+      <c r="AF21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG23" s="15" t="e">
+      <c r="AG21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH23" s="15" t="e">
+      <c r="AH21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI23" s="15" t="e">
+      <c r="AI21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ23" s="15" t="e">
+      <c r="AJ21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK23" s="15" t="e">
+      <c r="AK21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL23" s="15" t="e">
+      <c r="AL21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM23" s="15" t="e">
+      <c r="AM21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN23" s="15" t="e">
+      <c r="AN21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO23" s="15" t="e">
+      <c r="AO21" s="15" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP23" s="15" t="e">
+      <c r="AP21" s="15" t="e">
         <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="15" t="e">
+        <f>J15/I15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="15" t="e">
+        <f t="shared" ref="K22:AP22" si="50">K15/J15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z22" s="15">
+        <f t="shared" si="50"/>
+        <v>7.2566371681415998E-2</v>
+      </c>
+      <c r="AA22" s="15">
+        <f t="shared" si="50"/>
+        <v>-0.13118811881188119</v>
+      </c>
+      <c r="AB22" s="15">
+        <f t="shared" si="50"/>
+        <v>1.0047483380816713</v>
+      </c>
+      <c r="AC22" s="15">
+        <f t="shared" si="50"/>
+        <v>-0.26859308384651825</v>
+      </c>
+      <c r="AD22" s="15">
+        <f t="shared" si="50"/>
+        <v>5.8290155440414715E-3</v>
+      </c>
+      <c r="AE22" s="15">
+        <f t="shared" si="50"/>
+        <v>-1</v>
+      </c>
+      <c r="AF22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP22" s="15" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="17" t="e">
+        <f>J16/I16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="17" t="e">
+        <f t="shared" ref="K23:AP23" si="51">K16/J16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" s="17">
+        <f t="shared" si="51"/>
+        <v>1.7394270122783162E-2</v>
+      </c>
+      <c r="AA23" s="17">
+        <f t="shared" si="51"/>
+        <v>1.2447200804559166</v>
+      </c>
+      <c r="AB23" s="17">
+        <f t="shared" si="51"/>
+        <v>0.5849761051373954</v>
+      </c>
+      <c r="AC23" s="17">
+        <f t="shared" si="51"/>
+        <v>0.4138320927164798</v>
+      </c>
+      <c r="AD23" s="17">
+        <f t="shared" si="51"/>
+        <v>2.1672775741419525</v>
+      </c>
+      <c r="AE23" s="17">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="AF23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO23" s="17" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP23" s="17" t="e">
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J24" s="15" t="e">
         <f>J17/I17-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="15" t="e">
-        <f t="shared" ref="K24:AP24" si="50">K17/J17-1</f>
+        <f t="shared" ref="K24:AP24" si="52">K17/J17-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z24" s="15">
-        <f t="shared" si="50"/>
-        <v>7.2566371681415998E-2</v>
+        <f t="shared" si="52"/>
+        <v>9.2043681747269845E-2</v>
       </c>
       <c r="AA24" s="15">
-        <f t="shared" si="50"/>
-        <v>-0.13118811881188119</v>
+        <f t="shared" si="52"/>
+        <v>-0.23428571428571432</v>
       </c>
       <c r="AB24" s="15">
-        <f t="shared" si="50"/>
-        <v>1.0047483380816713</v>
+        <f t="shared" si="52"/>
+        <v>5.5970149253731449E-2</v>
       </c>
       <c r="AC24" s="15">
-        <f t="shared" si="50"/>
-        <v>-0.26859308384651825</v>
+        <f t="shared" si="52"/>
+        <v>0.59540636042402828</v>
       </c>
       <c r="AD24" s="15">
-        <f t="shared" si="50"/>
-        <v>5.8290155440414715E-3</v>
+        <f t="shared" si="52"/>
+        <v>0.20819490586932443</v>
       </c>
       <c r="AE24" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-1</v>
       </c>
       <c r="AF24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP24" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:42" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="17" t="e">
+    <row r="25" spans="2:42" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="16" t="e">
         <f>J18/I18-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="17" t="e">
-        <f t="shared" ref="K25:AP25" si="51">K18/J18-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" s="17">
-        <f t="shared" si="51"/>
-        <v>1.7394270122783162E-2</v>
-      </c>
-      <c r="AA25" s="17">
-        <f t="shared" si="51"/>
-        <v>1.2447200804559166</v>
-      </c>
-      <c r="AB25" s="17">
-        <f t="shared" si="51"/>
-        <v>0.5849761051373954</v>
-      </c>
-      <c r="AC25" s="17">
-        <f t="shared" si="51"/>
-        <v>0.4138320927164798</v>
-      </c>
-      <c r="AD25" s="17">
-        <f t="shared" si="51"/>
-        <v>2.1672775741419525</v>
-      </c>
-      <c r="AE25" s="17">
-        <f t="shared" si="51"/>
+      <c r="K25" s="16" t="e">
+        <f t="shared" ref="J25:AP26" si="53">K18/J18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="16">
+        <f t="shared" si="53"/>
+        <v>-0.34159061277705349</v>
+      </c>
+      <c r="AA25" s="16">
+        <f t="shared" si="53"/>
+        <v>0.2495049504950495</v>
+      </c>
+      <c r="AB25" s="16">
+        <f t="shared" si="53"/>
+        <v>0.84152139461172748</v>
+      </c>
+      <c r="AC25" s="16">
+        <f t="shared" si="53"/>
+        <v>-0.60843373493975905</v>
+      </c>
+      <c r="AD25" s="16">
+        <f t="shared" si="53"/>
+        <v>-0.32747252747252742</v>
+      </c>
+      <c r="AE25" s="16">
+        <f t="shared" si="53"/>
         <v>-1</v>
       </c>
-      <c r="AF25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO25" s="17" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP25" s="17" t="e">
-        <f t="shared" si="51"/>
+      <c r="AF25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO25" s="16" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP25" s="16" t="e">
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="15" t="e">
-        <f>J19/I19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="15" t="e">
-        <f t="shared" ref="K26:AP26" si="52">K19/J19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="15">
-        <f t="shared" si="52"/>
-        <v>9.2043681747269845E-2</v>
-      </c>
-      <c r="AA26" s="15">
-        <f t="shared" si="52"/>
-        <v>-0.23428571428571432</v>
-      </c>
-      <c r="AB26" s="15">
-        <f t="shared" si="52"/>
-        <v>5.5970149253731449E-2</v>
-      </c>
-      <c r="AC26" s="15">
-        <f t="shared" si="52"/>
-        <v>0.59540636042402828</v>
-      </c>
-      <c r="AD26" s="15">
-        <f t="shared" si="52"/>
-        <v>0.20819490586932443</v>
-      </c>
-      <c r="AE26" s="15">
-        <f t="shared" si="52"/>
-        <v>-1</v>
-      </c>
-      <c r="AF26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP26" s="15" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:42" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="16" t="e">
-        <f>J20/I20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="16" t="e">
-        <f t="shared" ref="J27:AP28" si="53">K20/J20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="16" t="e">
+        <v>1711</v>
+      </c>
+      <c r="J26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="16" t="e">
+      <c r="K26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="16" t="e">
+      <c r="L26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="16" t="e">
+      <c r="M26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="16" t="e">
+      <c r="N26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="16" t="e">
+      <c r="O26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R27" s="16" t="e">
+      <c r="P26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="16" t="e">
+      <c r="Q26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="16" t="e">
+      <c r="R26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="16" t="e">
+      <c r="S26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V27" s="16" t="e">
+      <c r="T26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W27" s="16" t="e">
+      <c r="U26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X27" s="16" t="e">
+      <c r="V26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y27" s="16" t="e">
+      <c r="W26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z27" s="16">
+      <c r="X26" s="16" t="e">
         <f t="shared" si="53"/>
-        <v>-0.34159061277705349</v>
-      </c>
-      <c r="AA27" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y26" s="16" t="e">
         <f t="shared" si="53"/>
-        <v>0.2495049504950495</v>
-      </c>
-      <c r="AB27" s="16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="16">
         <f t="shared" si="53"/>
-        <v>0.84152139461172748</v>
-      </c>
-      <c r="AC27" s="16">
+        <v>-6.8111983612154314E-2</v>
+      </c>
+      <c r="AA26" s="16">
         <f t="shared" si="53"/>
-        <v>-0.60843373493975905</v>
-      </c>
-      <c r="AD27" s="16">
+        <v>0.52729437625938824</v>
+      </c>
+      <c r="AB26" s="16">
         <f t="shared" si="53"/>
-        <v>-0.32747252747252742</v>
-      </c>
-      <c r="AE27" s="16">
+        <v>0.61403298350824587</v>
+      </c>
+      <c r="AC26" s="16">
+        <f t="shared" si="53"/>
+        <v>2.2293230289069932E-3</v>
+      </c>
+      <c r="AD26" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2585452658115224</v>
+      </c>
+      <c r="AE26" s="16">
         <f t="shared" si="53"/>
         <v>-1</v>
       </c>
-      <c r="AF27" s="16" t="e">
+      <c r="AF26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG27" s="16" t="e">
+      <c r="AG26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH27" s="16" t="e">
+      <c r="AH26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI27" s="16" t="e">
+      <c r="AI26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ27" s="16" t="e">
+      <c r="AJ26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK27" s="16" t="e">
+      <c r="AK26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL27" s="16" t="e">
+      <c r="AL26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM27" s="16" t="e">
+      <c r="AM26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN27" s="16" t="e">
+      <c r="AN26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO27" s="16" t="e">
+      <c r="AO26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP27" s="16" t="e">
+      <c r="AP26" s="16" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="24" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="J28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="16">
-        <f t="shared" si="53"/>
-        <v>-6.8111983612154314E-2</v>
-      </c>
-      <c r="AA28" s="16">
-        <f t="shared" si="53"/>
-        <v>0.52729437625938824</v>
-      </c>
-      <c r="AB28" s="16">
-        <f t="shared" si="53"/>
-        <v>0.61403298350824587</v>
-      </c>
-      <c r="AC28" s="16">
-        <f t="shared" si="53"/>
-        <v>2.2293230289069932E-3</v>
-      </c>
-      <c r="AD28" s="16">
-        <f t="shared" si="53"/>
-        <v>1.2585452658115224</v>
-      </c>
-      <c r="AE28" s="16">
-        <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
-      <c r="AF28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP28" s="16" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="24" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>1713</v>
       </c>
-      <c r="J30" s="15" t="e">
-        <f>J16/J$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="15" t="e">
-        <f t="shared" ref="K30:AP30" si="54">K16/K$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="15" t="e">
+      <c r="J28" s="15" t="e">
+        <f>J14/J$19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="15" t="e">
+        <f t="shared" ref="K28:AP28" si="54">K14/K$19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="15" t="e">
+      <c r="M28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="15" t="e">
+      <c r="N28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="15" t="e">
+      <c r="O28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="15" t="e">
+      <c r="P28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="15" t="e">
+      <c r="Q28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="15" t="e">
+      <c r="R28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="15" t="e">
+      <c r="S28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T30" s="15" t="e">
+      <c r="T28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" s="15" t="e">
+      <c r="U28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V30" s="15" t="e">
+      <c r="V28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W30" s="15" t="e">
+      <c r="W28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X30" s="15" t="e">
+      <c r="X28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y30" s="15">
+      <c r="Y28" s="15">
         <f t="shared" si="54"/>
         <v>0.53311710481392971</v>
       </c>
-      <c r="Z30" s="15">
+      <c r="Z28" s="15">
         <f t="shared" si="54"/>
         <v>0.50540392013189228</v>
       </c>
-      <c r="AA30" s="15">
+      <c r="AA28" s="15">
         <f t="shared" si="54"/>
         <v>0.46530734632683657</v>
       </c>
-      <c r="AB30" s="15">
+      <c r="AB28" s="15">
         <f t="shared" si="54"/>
         <v>0.46303039310396077</v>
       </c>
-      <c r="AC30" s="15">
+      <c r="AC28" s="15">
         <f t="shared" si="54"/>
         <v>0.3361385037443464</v>
       </c>
-      <c r="AD30" s="15">
+      <c r="AD28" s="15">
         <f t="shared" si="54"/>
         <v>0.17148156659334887</v>
       </c>
-      <c r="AE30" s="15" t="e">
+      <c r="AE28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF30" s="15" t="e">
+      <c r="AF28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG30" s="15" t="e">
+      <c r="AG28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH30" s="15" t="e">
+      <c r="AH28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI30" s="15" t="e">
+      <c r="AI28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ30" s="15" t="e">
+      <c r="AJ28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK30" s="15" t="e">
+      <c r="AK28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL30" s="15" t="e">
+      <c r="AL28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM30" s="15" t="e">
+      <c r="AM28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN30" s="15" t="e">
+      <c r="AN28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO30" s="15" t="e">
+      <c r="AO28" s="15" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP30" s="15" t="e">
+      <c r="AP28" s="15" t="e">
         <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="15" t="e">
+        <f>J15/J$19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="15" t="e">
+        <f t="shared" ref="K29:AP29" si="55">K15/K$19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y29" s="15">
+        <f t="shared" si="55"/>
+        <v>9.6449300102424029E-2</v>
+      </c>
+      <c r="Z29" s="15">
+        <f t="shared" si="55"/>
+        <v>0.11100934237039752</v>
+      </c>
+      <c r="AA29" s="15">
+        <f t="shared" si="55"/>
+        <v>6.3148425787106444E-2</v>
+      </c>
+      <c r="AB29" s="15">
+        <f t="shared" si="55"/>
+        <v>7.843501523370737E-2</v>
+      </c>
+      <c r="AC29" s="15">
+        <f t="shared" si="55"/>
+        <v>5.7240305479350488E-2</v>
+      </c>
+      <c r="AD29" s="15">
+        <f t="shared" si="55"/>
+        <v>2.5491612225468634E-2</v>
+      </c>
+      <c r="AE29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP29" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="17" t="e">
+        <f>J16/J$19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="17" t="e">
+        <f t="shared" ref="K30:AP30" si="56">K16/K$19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y30" s="17">
+        <f t="shared" si="56"/>
+        <v>0.2502560600887675</v>
+      </c>
+      <c r="Z30" s="17">
+        <f t="shared" si="56"/>
+        <v>0.27321853819380837</v>
+      </c>
+      <c r="AA30" s="17">
+        <f t="shared" si="56"/>
+        <v>0.40155922038980507</v>
+      </c>
+      <c r="AB30" s="17">
+        <f t="shared" si="56"/>
+        <v>0.39433008842981349</v>
+      </c>
+      <c r="AC30" s="17">
+        <f t="shared" si="56"/>
+        <v>0.55627641432490549</v>
+      </c>
+      <c r="AD30" s="17">
+        <f t="shared" si="56"/>
+        <v>0.78009586028035849</v>
+      </c>
+      <c r="AE30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO30" s="17" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP30" s="17" t="e">
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J31" s="15" t="e">
-        <f>J17/J$21</f>
+        <f>J17/J$19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="15" t="e">
-        <f t="shared" ref="K31:AP31" si="55">K17/K$21</f>
+        <f t="shared" ref="K31:AP31" si="57">K17/K$19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y31" s="15">
-        <f t="shared" si="55"/>
-        <v>9.6449300102424029E-2</v>
+        <f t="shared" si="57"/>
+        <v>5.4711505633321951E-2</v>
       </c>
       <c r="Z31" s="15">
-        <f t="shared" si="55"/>
-        <v>0.11100934237039752</v>
+        <f t="shared" si="57"/>
+        <v>6.4114306649569519E-2</v>
       </c>
       <c r="AA31" s="15">
-        <f t="shared" si="55"/>
-        <v>6.3148425787106444E-2</v>
+        <f t="shared" si="57"/>
+        <v>3.2143928035982011E-2</v>
       </c>
       <c r="AB31" s="15">
-        <f t="shared" si="55"/>
-        <v>7.843501523370737E-2</v>
+        <f t="shared" si="57"/>
+        <v>2.1029947239354984E-2</v>
       </c>
       <c r="AC31" s="15">
-        <f t="shared" si="55"/>
-        <v>5.7240305479350488E-2</v>
+        <f t="shared" si="57"/>
+        <v>3.3476681248609773E-2</v>
       </c>
       <c r="AD31" s="15">
-        <f t="shared" si="55"/>
-        <v>2.5491612225468634E-2</v>
+        <f t="shared" si="57"/>
+        <v>1.7908144840944159E-2</v>
       </c>
       <c r="AE31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP31" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:42" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="17" t="e">
-        <f>J18/J$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="17" t="e">
-        <f t="shared" ref="K32:AP32" si="56">K18/K$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y32" s="17">
-        <f t="shared" si="56"/>
-        <v>0.2502560600887675</v>
-      </c>
-      <c r="Z32" s="17">
-        <f t="shared" si="56"/>
-        <v>0.27321853819380837</v>
-      </c>
-      <c r="AA32" s="17">
-        <f t="shared" si="56"/>
-        <v>0.40155922038980507</v>
-      </c>
-      <c r="AB32" s="17">
-        <f t="shared" si="56"/>
-        <v>0.39433008842981349</v>
-      </c>
-      <c r="AC32" s="17">
-        <f t="shared" si="56"/>
-        <v>0.55627641432490549</v>
-      </c>
-      <c r="AD32" s="17">
-        <f t="shared" si="56"/>
-        <v>0.78009586028035849</v>
-      </c>
-      <c r="AE32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO32" s="17" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP32" s="17" t="e">
-        <f t="shared" si="56"/>
+    <row r="32" spans="2:42" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="16" t="e">
+        <f>J18/J$19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="16" t="e">
+        <f t="shared" ref="K32:AP32" si="58">K18/K$19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y32" s="16">
+        <f t="shared" si="58"/>
+        <v>6.5466029361556849E-2</v>
+      </c>
+      <c r="Z32" s="16">
+        <f t="shared" si="58"/>
+        <v>4.6253892654332295E-2</v>
+      </c>
+      <c r="AA32" s="16">
+        <f t="shared" si="58"/>
+        <v>3.7841079460269864E-2</v>
+      </c>
+      <c r="AB32" s="16">
+        <f t="shared" si="58"/>
+        <v>4.3174555993163409E-2</v>
+      </c>
+      <c r="AC32" s="16">
+        <f t="shared" si="58"/>
+        <v>1.6868095202787869E-2</v>
+      </c>
+      <c r="AD32" s="16">
+        <f t="shared" si="58"/>
+        <v>5.0228160598798461E-3</v>
+      </c>
+      <c r="AE32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO32" s="16" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP32" s="16" t="e">
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>1711</v>
       </c>
       <c r="J33" s="15" t="e">
-        <f>J19/J$21</f>
+        <f>SUM(J28:J32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="15" t="e">
-        <f t="shared" ref="K33:AP33" si="57">K19/K$21</f>
+        <f t="shared" ref="K33:AP33" si="59">SUM(K28:K32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X33" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y33" s="15">
-        <f t="shared" si="57"/>
-        <v>5.4711505633321951E-2</v>
-      </c>
-      <c r="Z33" s="15">
-        <f t="shared" si="57"/>
-        <v>6.4114306649569519E-2</v>
-      </c>
-      <c r="AA33" s="15">
-        <f t="shared" si="57"/>
-        <v>3.2143928035982011E-2</v>
-      </c>
-      <c r="AB33" s="15">
-        <f t="shared" si="57"/>
-        <v>2.1029947239354984E-2</v>
-      </c>
-      <c r="AC33" s="15">
-        <f t="shared" si="57"/>
-        <v>3.3476681248609773E-2</v>
-      </c>
-      <c r="AD33" s="15">
-        <f t="shared" si="57"/>
-        <v>1.7908144840944159E-2</v>
-      </c>
-      <c r="AE33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP33" s="15" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:42" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="16" t="e">
-        <f>J20/J$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="16" t="e">
-        <f t="shared" ref="K34:AP34" si="58">K20/K$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y34" s="16">
-        <f t="shared" si="58"/>
-        <v>6.5466029361556849E-2</v>
-      </c>
-      <c r="Z34" s="16">
-        <f t="shared" si="58"/>
-        <v>4.6253892654332295E-2</v>
-      </c>
-      <c r="AA34" s="16">
-        <f t="shared" si="58"/>
-        <v>3.7841079460269864E-2</v>
-      </c>
-      <c r="AB34" s="16">
-        <f t="shared" si="58"/>
-        <v>4.3174555993163409E-2</v>
-      </c>
-      <c r="AC34" s="16">
-        <f t="shared" si="58"/>
-        <v>1.6868095202787869E-2</v>
-      </c>
-      <c r="AD34" s="16">
-        <f t="shared" si="58"/>
-        <v>5.0228160598798461E-3</v>
-      </c>
-      <c r="AE34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP34" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B35" s="3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="J35" s="15" t="e">
-        <f>SUM(J30:J34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="15" t="e">
-        <f t="shared" ref="K35:AP35" si="59">SUM(K30:K34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X35" s="15" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y35" s="15">
         <f t="shared" si="59"/>
         <v>1</v>
       </c>
-      <c r="Z35" s="15">
+      <c r="Z33" s="15">
         <f t="shared" si="59"/>
         <v>1</v>
       </c>
-      <c r="AA35" s="15">
+      <c r="AA33" s="15">
         <f t="shared" si="59"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AB35" s="15">
+      <c r="AB33" s="15">
         <f t="shared" si="59"/>
         <v>1</v>
       </c>
-      <c r="AC35" s="15">
+      <c r="AC33" s="15">
         <f t="shared" si="59"/>
         <v>1</v>
       </c>
-      <c r="AD35" s="15">
+      <c r="AD33" s="15">
         <f t="shared" si="59"/>
         <v>1</v>
       </c>
-      <c r="AE35" s="15" t="e">
+      <c r="AE33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF35" s="15" t="e">
+      <c r="AF33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG35" s="15" t="e">
+      <c r="AG33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH35" s="15" t="e">
+      <c r="AH33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI35" s="15" t="e">
+      <c r="AI33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ35" s="15" t="e">
+      <c r="AJ33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK35" s="15" t="e">
+      <c r="AK33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL35" s="15" t="e">
+      <c r="AL33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM35" s="15" t="e">
+      <c r="AM33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN35" s="15" t="e">
+      <c r="AN33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO35" s="15" t="e">
+      <c r="AO33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP35" s="15" t="e">
+      <c r="AP33" s="15" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
+    <row r="34" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
     </row>
-    <row r="37" spans="2:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="7" t="s">
+    <row r="35" spans="2:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="7" t="s">
         <v>1712</v>
+      </c>
+    </row>
+    <row r="36" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="V36" s="21">
+        <v>5010</v>
+      </c>
+      <c r="W36" s="21">
+        <v>6910</v>
+      </c>
+      <c r="X36" s="21">
+        <v>9714</v>
+      </c>
+      <c r="Y36" s="21">
+        <v>11716</v>
+      </c>
+      <c r="Z36" s="21">
+        <v>10918</v>
+      </c>
+      <c r="AA36" s="21">
+        <v>16675</v>
+      </c>
+      <c r="AB36" s="21">
+        <v>26914</v>
+      </c>
+      <c r="AC36" s="21">
+        <v>26974</v>
+      </c>
+      <c r="AD36" s="21">
+        <v>60922</v>
+      </c>
+      <c r="AE36" s="21">
+        <f>AD36*1.3</f>
+        <v>79198.600000000006</v>
+      </c>
+      <c r="AF36" s="21">
+        <f t="shared" ref="AF36:AP36" si="60">AE36*1.3</f>
+        <v>102958.18000000001</v>
+      </c>
+      <c r="AG36" s="21">
+        <f t="shared" si="60"/>
+        <v>133845.63400000002</v>
+      </c>
+      <c r="AH36" s="21">
+        <f t="shared" si="60"/>
+        <v>173999.32420000003</v>
+      </c>
+      <c r="AI36" s="21">
+        <f t="shared" si="60"/>
+        <v>226199.12146000005</v>
+      </c>
+      <c r="AJ36" s="21">
+        <f t="shared" si="60"/>
+        <v>294058.8578980001</v>
+      </c>
+      <c r="AK36" s="21">
+        <f t="shared" si="60"/>
+        <v>382276.51526740013</v>
+      </c>
+      <c r="AL36" s="21">
+        <f t="shared" si="60"/>
+        <v>496959.46984762017</v>
+      </c>
+      <c r="AM36" s="21">
+        <f t="shared" si="60"/>
+        <v>646047.31080190628</v>
+      </c>
+      <c r="AN36" s="21">
+        <f t="shared" si="60"/>
+        <v>839861.50404247816</v>
+      </c>
+      <c r="AO36" s="21">
+        <f t="shared" si="60"/>
+        <v>1091819.9552552216</v>
+      </c>
+      <c r="AP36" s="21">
+        <f t="shared" si="60"/>
+        <v>1419365.941831788</v>
+      </c>
+    </row>
+    <row r="37" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="V37" s="20">
+        <v>2199</v>
+      </c>
+      <c r="W37" s="20">
+        <v>2847</v>
+      </c>
+      <c r="X37" s="20">
+        <v>3892</v>
+      </c>
+      <c r="Y37" s="20">
+        <v>4545</v>
+      </c>
+      <c r="Z37" s="20">
+        <v>4150</v>
+      </c>
+      <c r="AA37" s="20">
+        <v>6279</v>
+      </c>
+      <c r="AB37" s="20">
+        <v>9439</v>
+      </c>
+      <c r="AC37" s="20">
+        <v>11618</v>
+      </c>
+      <c r="AD37" s="20">
+        <v>16621</v>
       </c>
     </row>
     <row r="38" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="21" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="J38" s="21">
+        <f>J36-J37</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="21">
+        <f t="shared" ref="K38:AD38" si="61">K36-K37</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="21">
+        <f t="shared" si="61"/>
+        <v>0</v>
       </c>
       <c r="V38" s="21">
-        <v>5010</v>
-      </c>
-      <c r="W38" s="21">
-        <v>6910</v>
-      </c>
-      <c r="X38" s="21">
-        <v>9714</v>
-      </c>
-      <c r="Y38" s="21">
-        <v>11716</v>
-      </c>
-      <c r="Z38" s="21">
-        <v>10918</v>
-      </c>
-      <c r="AA38" s="21">
-        <v>16675</v>
-      </c>
-      <c r="AB38" s="21">
-        <v>26914</v>
-      </c>
-      <c r="AC38" s="21">
-        <v>26974</v>
-      </c>
-      <c r="AD38" s="21">
-        <v>60922</v>
-      </c>
-      <c r="AE38" s="21">
-        <f>AD38*1.3</f>
-        <v>79198.600000000006</v>
-      </c>
-      <c r="AF38" s="21">
-        <f t="shared" ref="AF38:AP38" si="60">AE38*1.3</f>
-        <v>102958.18000000001</v>
-      </c>
-      <c r="AG38" s="21">
-        <f t="shared" si="60"/>
-        <v>133845.63400000002</v>
-      </c>
-      <c r="AH38" s="21">
-        <f t="shared" si="60"/>
-        <v>173999.32420000003</v>
-      </c>
-      <c r="AI38" s="21">
-        <f t="shared" si="60"/>
-        <v>226199.12146000005</v>
-      </c>
-      <c r="AJ38" s="21">
-        <f t="shared" si="60"/>
-        <v>294058.8578980001</v>
-      </c>
-      <c r="AK38" s="21">
-        <f t="shared" si="60"/>
-        <v>382276.51526740013</v>
-      </c>
-      <c r="AL38" s="21">
-        <f t="shared" si="60"/>
-        <v>496959.46984762017</v>
-      </c>
-      <c r="AM38" s="21">
-        <f t="shared" si="60"/>
-        <v>646047.31080190628</v>
-      </c>
-      <c r="AN38" s="21">
-        <f t="shared" si="60"/>
-        <v>839861.50404247816</v>
-      </c>
-      <c r="AO38" s="21">
-        <f t="shared" si="60"/>
-        <v>1091819.9552552216</v>
-      </c>
-      <c r="AP38" s="21">
-        <f t="shared" si="60"/>
-        <v>1419365.941831788</v>
-      </c>
-    </row>
-    <row r="39" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="V39" s="20">
-        <v>2199</v>
-      </c>
-      <c r="W39" s="20">
-        <v>2847</v>
-      </c>
-      <c r="X39" s="20">
-        <v>3892</v>
-      </c>
-      <c r="Y39" s="20">
-        <v>4545</v>
-      </c>
-      <c r="Z39" s="20">
-        <v>4150</v>
-      </c>
-      <c r="AA39" s="20">
-        <v>6279</v>
-      </c>
-      <c r="AB39" s="20">
-        <v>9439</v>
-      </c>
-      <c r="AC39" s="20">
-        <v>11618</v>
-      </c>
-      <c r="AD39" s="20">
-        <v>16621</v>
-      </c>
-    </row>
-    <row r="40" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" s="21">
-        <f>J38-J39</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="21">
-        <f t="shared" ref="K40:AD40" si="61">K38-K39</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="21">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="21">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="21">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="21">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="21">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="21">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="21">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="21">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="21">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="21">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="21">
         <f t="shared" si="61"/>
         <v>2811</v>
       </c>
-      <c r="W40" s="21">
+      <c r="W38" s="21">
         <f t="shared" si="61"/>
         <v>4063</v>
       </c>
-      <c r="X40" s="21">
+      <c r="X38" s="21">
         <f t="shared" si="61"/>
         <v>5822</v>
       </c>
-      <c r="Y40" s="21">
+      <c r="Y38" s="21">
         <f t="shared" si="61"/>
         <v>7171</v>
       </c>
-      <c r="Z40" s="21">
+      <c r="Z38" s="21">
         <f t="shared" si="61"/>
         <v>6768</v>
       </c>
-      <c r="AA40" s="21">
+      <c r="AA38" s="21">
         <f t="shared" si="61"/>
         <v>10396</v>
       </c>
-      <c r="AB40" s="21">
+      <c r="AB38" s="21">
         <f t="shared" si="61"/>
         <v>17475</v>
       </c>
-      <c r="AC40" s="21">
+      <c r="AC38" s="21">
         <f t="shared" si="61"/>
         <v>15356</v>
       </c>
-      <c r="AD40" s="21">
+      <c r="AD38" s="21">
         <f t="shared" si="61"/>
         <v>44301</v>
       </c>
-      <c r="AE40" s="21">
-        <f>AE38*AE65</f>
+      <c r="AE38" s="21">
+        <f>AE36*AE63</f>
         <v>47519.16</v>
       </c>
-      <c r="AF40" s="21">
-        <f t="shared" ref="AF40:AP40" si="62">AF38*AF65</f>
+      <c r="AF38" s="21">
+        <f t="shared" ref="AF38:AP38" si="62">AF36*AF63</f>
         <v>61774.908000000003</v>
       </c>
-      <c r="AG40" s="21">
+      <c r="AG38" s="21">
         <f t="shared" si="62"/>
         <v>80307.380400000009</v>
       </c>
-      <c r="AH40" s="21">
+      <c r="AH38" s="21">
         <f t="shared" si="62"/>
         <v>104399.59452000001</v>
       </c>
-      <c r="AI40" s="21">
+      <c r="AI38" s="21">
         <f t="shared" si="62"/>
         <v>135719.47287600001</v>
       </c>
-      <c r="AJ40" s="21">
+      <c r="AJ38" s="21">
         <f t="shared" si="62"/>
         <v>176435.31473880005</v>
       </c>
-      <c r="AK40" s="21">
+      <c r="AK38" s="21">
         <f t="shared" si="62"/>
         <v>229365.90916044006</v>
       </c>
-      <c r="AL40" s="21">
+      <c r="AL38" s="21">
         <f t="shared" si="62"/>
         <v>298175.68190857209</v>
       </c>
-      <c r="AM40" s="21">
+      <c r="AM38" s="21">
         <f t="shared" si="62"/>
         <v>387628.38648114377</v>
       </c>
-      <c r="AN40" s="21">
+      <c r="AN38" s="21">
         <f t="shared" si="62"/>
         <v>503916.90242548689</v>
       </c>
-      <c r="AO40" s="21">
+      <c r="AO38" s="21">
         <f t="shared" si="62"/>
         <v>655091.97315313295</v>
       </c>
-      <c r="AP40" s="21">
+      <c r="AP38" s="21">
         <f t="shared" si="62"/>
         <v>851619.56509907276</v>
       </c>
     </row>
-    <row r="41" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="3" t="s">
+    <row r="39" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V39" s="3">
         <v>1331</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W39" s="3">
         <v>1463</v>
       </c>
-      <c r="X41" s="3">
+      <c r="X39" s="3">
         <v>1797</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y39" s="3">
         <v>2376</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="Z39" s="3">
         <v>2829</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AA39" s="3">
         <v>3924</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AB39" s="3">
         <v>5268</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AC39" s="3">
         <v>7339</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AD39" s="3">
         <v>8675</v>
       </c>
-      <c r="AE41" s="3">
-        <f>AD41*1.25</f>
+      <c r="AE39" s="3">
+        <f>AD39*1.25</f>
         <v>10843.75</v>
       </c>
-      <c r="AF41" s="3">
-        <f t="shared" ref="AF41:AP41" si="63">AE41*1.25</f>
+      <c r="AF39" s="3">
+        <f t="shared" ref="AF39:AP39" si="63">AE39*1.25</f>
         <v>13554.6875</v>
       </c>
-      <c r="AG41" s="3">
+      <c r="AG39" s="3">
         <f t="shared" si="63"/>
         <v>16943.359375</v>
       </c>
-      <c r="AH41" s="3">
+      <c r="AH39" s="3">
         <f t="shared" si="63"/>
         <v>21179.19921875</v>
       </c>
-      <c r="AI41" s="3">
+      <c r="AI39" s="3">
         <f t="shared" si="63"/>
         <v>26473.9990234375</v>
       </c>
-      <c r="AJ41" s="3">
+      <c r="AJ39" s="3">
         <f t="shared" si="63"/>
         <v>33092.498779296875</v>
       </c>
-      <c r="AK41" s="3">
+      <c r="AK39" s="3">
         <f t="shared" si="63"/>
         <v>41365.623474121094</v>
       </c>
-      <c r="AL41" s="3">
+      <c r="AL39" s="3">
         <f t="shared" si="63"/>
         <v>51707.029342651367</v>
       </c>
-      <c r="AM41" s="3">
+      <c r="AM39" s="3">
         <f t="shared" si="63"/>
         <v>64633.786678314209</v>
       </c>
-      <c r="AN41" s="3">
+      <c r="AN39" s="3">
         <f t="shared" si="63"/>
         <v>80792.233347892761</v>
       </c>
-      <c r="AO41" s="3">
+      <c r="AO39" s="3">
         <f t="shared" si="63"/>
         <v>100990.29168486595</v>
       </c>
-      <c r="AP41" s="3">
+      <c r="AP39" s="3">
         <f t="shared" si="63"/>
         <v>126237.86460608244</v>
       </c>
     </row>
-    <row r="42" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="3" t="s">
+    <row r="40" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V40" s="3">
         <v>602</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W40" s="3">
         <v>663</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X40" s="3">
         <v>815</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y40" s="3">
         <v>991</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z40" s="3">
         <v>1093</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA40" s="3">
         <v>1940</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB40" s="3">
         <v>2166</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC40" s="3">
         <v>2440</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AD40" s="3">
         <v>2654</v>
       </c>
-      <c r="AE42" s="3">
-        <f>AD42*1.15</f>
+      <c r="AE40" s="3">
+        <f>AD40*1.15</f>
         <v>3052.1</v>
       </c>
-      <c r="AF42" s="3">
-        <f t="shared" ref="AF42:AP42" si="64">AE42*1.15</f>
+      <c r="AF40" s="3">
+        <f t="shared" ref="AF40:AP40" si="64">AE40*1.15</f>
         <v>3509.9149999999995</v>
       </c>
-      <c r="AG42" s="3">
+      <c r="AG40" s="3">
         <f t="shared" si="64"/>
         <v>4036.4022499999992</v>
       </c>
-      <c r="AH42" s="3">
+      <c r="AH40" s="3">
         <f t="shared" si="64"/>
         <v>4641.8625874999989</v>
       </c>
-      <c r="AI42" s="3">
+      <c r="AI40" s="3">
         <f t="shared" si="64"/>
         <v>5338.1419756249979</v>
       </c>
-      <c r="AJ42" s="3">
+      <c r="AJ40" s="3">
         <f t="shared" si="64"/>
         <v>6138.8632719687475</v>
       </c>
-      <c r="AK42" s="3">
+      <c r="AK40" s="3">
         <f t="shared" si="64"/>
         <v>7059.6927627640589</v>
       </c>
-      <c r="AL42" s="3">
+      <c r="AL40" s="3">
         <f t="shared" si="64"/>
         <v>8118.6466771786672</v>
       </c>
-      <c r="AM42" s="3">
+      <c r="AM40" s="3">
         <f t="shared" si="64"/>
         <v>9336.443678755466</v>
       </c>
-      <c r="AN42" s="3">
+      <c r="AN40" s="3">
         <f t="shared" si="64"/>
         <v>10736.910230568785</v>
       </c>
-      <c r="AO42" s="3">
+      <c r="AO40" s="3">
         <f t="shared" si="64"/>
         <v>12347.446765154102</v>
       </c>
-      <c r="AP42" s="3">
+      <c r="AP40" s="3">
         <f t="shared" si="64"/>
         <v>14199.563779927215</v>
       </c>
     </row>
-    <row r="43" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="20" t="s">
+    <row r="41" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="V43" s="20">
+      <c r="V41" s="20">
         <v>131</v>
       </c>
-      <c r="W43" s="20">
+      <c r="W41" s="20">
         <v>3</v>
       </c>
-      <c r="X43" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="20">
+      <c r="X41" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="20">
         <v>1353</v>
       </c>
-      <c r="AD43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="20">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="20">
+      <c r="AD41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:42" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="30" t="s">
+    <row r="42" spans="2:42" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="30" t="s">
         <v>1708</v>
       </c>
-      <c r="J44" s="30">
-        <f>SUM(J41:J43)</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="30">
-        <f t="shared" ref="K44:AP44" si="65">SUM(K41:K43)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="30">
+      <c r="J42" s="30">
+        <f>SUM(J39:J41)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="30">
+        <f t="shared" ref="K42:AP42" si="65">SUM(K39:K41)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="30">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="M44" s="30">
+      <c r="M42" s="30">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="N44" s="30">
+      <c r="N42" s="30">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="O44" s="30">
+      <c r="O42" s="30">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="P44" s="30">
+      <c r="P42" s="30">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q42" s="30">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="R44" s="30">
+      <c r="R42" s="30">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="S44" s="30">
+      <c r="S42" s="30">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="T44" s="30">
+      <c r="T42" s="30">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U44" s="30">
+      <c r="U42" s="30">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="V44" s="30">
+      <c r="V42" s="30">
         <f t="shared" si="65"/>
         <v>2064</v>
       </c>
-      <c r="W44" s="30">
+      <c r="W42" s="30">
         <f t="shared" si="65"/>
         <v>2129</v>
       </c>
-      <c r="X44" s="30">
+      <c r="X42" s="30">
         <f t="shared" si="65"/>
         <v>2612</v>
       </c>
-      <c r="Y44" s="30">
+      <c r="Y42" s="30">
         <f t="shared" si="65"/>
         <v>3367</v>
       </c>
-      <c r="Z44" s="30">
+      <c r="Z42" s="30">
         <f t="shared" si="65"/>
         <v>3922</v>
       </c>
-      <c r="AA44" s="30">
+      <c r="AA42" s="30">
         <f t="shared" si="65"/>
         <v>5864</v>
       </c>
-      <c r="AB44" s="30">
+      <c r="AB42" s="30">
         <f t="shared" si="65"/>
         <v>7434</v>
       </c>
-      <c r="AC44" s="30">
+      <c r="AC42" s="30">
         <f t="shared" si="65"/>
         <v>11132</v>
       </c>
-      <c r="AD44" s="30">
+      <c r="AD42" s="30">
         <f t="shared" si="65"/>
         <v>11329</v>
       </c>
-      <c r="AE44" s="30">
+      <c r="AE42" s="30">
         <f t="shared" si="65"/>
         <v>13895.85</v>
       </c>
-      <c r="AF44" s="30">
+      <c r="AF42" s="30">
         <f t="shared" si="65"/>
         <v>17064.602500000001</v>
       </c>
-      <c r="AG44" s="30">
+      <c r="AG42" s="30">
         <f t="shared" si="65"/>
         <v>20979.761624999999</v>
       </c>
-      <c r="AH44" s="30">
+      <c r="AH42" s="30">
         <f t="shared" si="65"/>
         <v>25821.06180625</v>
       </c>
-      <c r="AI44" s="30">
+      <c r="AI42" s="30">
         <f t="shared" si="65"/>
         <v>31812.140999062496</v>
       </c>
-      <c r="AJ44" s="30">
+      <c r="AJ42" s="30">
         <f t="shared" si="65"/>
         <v>39231.36205126562</v>
       </c>
-      <c r="AK44" s="30">
+      <c r="AK42" s="30">
         <f t="shared" si="65"/>
         <v>48425.316236885155</v>
       </c>
-      <c r="AL44" s="30">
+      <c r="AL42" s="30">
         <f t="shared" si="65"/>
         <v>59825.676019830033</v>
       </c>
-      <c r="AM44" s="30">
+      <c r="AM42" s="30">
         <f t="shared" si="65"/>
         <v>73970.230357069668</v>
       </c>
-      <c r="AN44" s="30">
+      <c r="AN42" s="30">
         <f t="shared" si="65"/>
         <v>91529.143578461546</v>
       </c>
-      <c r="AO44" s="30">
+      <c r="AO42" s="30">
         <f t="shared" si="65"/>
         <v>113337.73845002006</v>
       </c>
-      <c r="AP44" s="30">
+      <c r="AP42" s="30">
         <f t="shared" si="65"/>
         <v>140437.42838600965</v>
+      </c>
+    </row>
+    <row r="43" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="3">
+        <f>J38-J42</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" ref="K43:AP43" si="66">K38-K42</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <f t="shared" si="66"/>
+        <v>747</v>
+      </c>
+      <c r="W43" s="3">
+        <f t="shared" si="66"/>
+        <v>1934</v>
+      </c>
+      <c r="X43" s="3">
+        <f t="shared" si="66"/>
+        <v>3210</v>
+      </c>
+      <c r="Y43" s="3">
+        <f t="shared" si="66"/>
+        <v>3804</v>
+      </c>
+      <c r="Z43" s="3">
+        <f t="shared" si="66"/>
+        <v>2846</v>
+      </c>
+      <c r="AA43" s="3">
+        <f t="shared" si="66"/>
+        <v>4532</v>
+      </c>
+      <c r="AB43" s="3">
+        <f t="shared" si="66"/>
+        <v>10041</v>
+      </c>
+      <c r="AC43" s="3">
+        <f t="shared" si="66"/>
+        <v>4224</v>
+      </c>
+      <c r="AD43" s="3">
+        <f t="shared" si="66"/>
+        <v>32972</v>
+      </c>
+      <c r="AE43" s="3">
+        <f t="shared" si="66"/>
+        <v>33623.310000000005</v>
+      </c>
+      <c r="AF43" s="3">
+        <f t="shared" si="66"/>
+        <v>44710.305500000002</v>
+      </c>
+      <c r="AG43" s="3">
+        <f t="shared" si="66"/>
+        <v>59327.61877500001</v>
+      </c>
+      <c r="AH43" s="3">
+        <f t="shared" si="66"/>
+        <v>78578.532713750013</v>
+      </c>
+      <c r="AI43" s="3">
+        <f t="shared" si="66"/>
+        <v>103907.33187693752</v>
+      </c>
+      <c r="AJ43" s="3">
+        <f t="shared" si="66"/>
+        <v>137203.95268753445</v>
+      </c>
+      <c r="AK43" s="3">
+        <f t="shared" si="66"/>
+        <v>180940.59292355491</v>
+      </c>
+      <c r="AL43" s="3">
+        <f t="shared" si="66"/>
+        <v>238350.00588874205</v>
+      </c>
+      <c r="AM43" s="3">
+        <f t="shared" si="66"/>
+        <v>313658.15612407413</v>
+      </c>
+      <c r="AN43" s="3">
+        <f t="shared" si="66"/>
+        <v>412387.75884702534</v>
+      </c>
+      <c r="AO43" s="3">
+        <f t="shared" si="66"/>
+        <v>541754.23470311286</v>
+      </c>
+      <c r="AP43" s="3">
+        <f t="shared" si="66"/>
+        <v>711182.13671306311</v>
+      </c>
+    </row>
+    <row r="44" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V44" s="3">
+        <v>39</v>
+      </c>
+      <c r="W44" s="3">
+        <v>54</v>
+      </c>
+      <c r="X44" s="3">
+        <v>69</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>136</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>178</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>57</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>29</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>267</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>866</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="3">
-        <f>J40-J44</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <f t="shared" ref="K45:AP45" si="66">K40-K44</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <f t="shared" si="66"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="V45" s="3">
-        <f t="shared" si="66"/>
-        <v>747</v>
+        <v>-47</v>
       </c>
       <c r="W45" s="3">
-        <f t="shared" si="66"/>
-        <v>1934</v>
+        <v>-58</v>
       </c>
       <c r="X45" s="3">
-        <f t="shared" si="66"/>
-        <v>3210</v>
+        <v>-61</v>
       </c>
       <c r="Y45" s="3">
-        <f t="shared" si="66"/>
-        <v>3804</v>
+        <v>-58</v>
       </c>
       <c r="Z45" s="3">
-        <f t="shared" si="66"/>
-        <v>2846</v>
+        <v>-52</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" si="66"/>
-        <v>4532</v>
+        <v>-184</v>
       </c>
       <c r="AB45" s="3">
-        <f t="shared" si="66"/>
-        <v>10041</v>
+        <v>-236</v>
       </c>
       <c r="AC45" s="3">
-        <f t="shared" si="66"/>
-        <v>4224</v>
+        <v>-262</v>
       </c>
       <c r="AD45" s="3">
-        <f t="shared" si="66"/>
-        <v>32972</v>
+        <v>-257</v>
       </c>
       <c r="AE45" s="3">
-        <f t="shared" si="66"/>
-        <v>33623.310000000005</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="3">
-        <f t="shared" si="66"/>
-        <v>44710.305500000002</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="3">
-        <f t="shared" si="66"/>
-        <v>59327.61877500001</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="3">
-        <f t="shared" si="66"/>
-        <v>78578.532713750013</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="3">
-        <f t="shared" si="66"/>
-        <v>103907.33187693752</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="3">
-        <f t="shared" si="66"/>
-        <v>137203.95268753445</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="3">
-        <f t="shared" si="66"/>
-        <v>180940.59292355491</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="3">
-        <f t="shared" si="66"/>
-        <v>238350.00588874205</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="3">
-        <f t="shared" si="66"/>
-        <v>313658.15612407413</v>
+        <v>0</v>
       </c>
       <c r="AN45" s="3">
-        <f t="shared" si="66"/>
-        <v>412387.75884702534</v>
+        <v>0</v>
       </c>
       <c r="AO45" s="3">
-        <f t="shared" si="66"/>
-        <v>541754.23470311286</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="3">
-        <f t="shared" si="66"/>
-        <v>711182.13671306311</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="3">
-        <v>39</v>
-      </c>
-      <c r="W46" s="3">
-        <v>54</v>
-      </c>
-      <c r="X46" s="3">
-        <v>69</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>136</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>178</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>57</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>29</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>267</v>
-      </c>
-      <c r="AD46" s="3">
-        <v>866</v>
-      </c>
-      <c r="AE46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP46" s="3">
+    <row r="46" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="20" t="s">
+        <v>1709</v>
+      </c>
+      <c r="V46" s="20">
+        <v>4</v>
+      </c>
+      <c r="W46" s="20">
+        <v>-25</v>
+      </c>
+      <c r="X46" s="20">
+        <v>-22</v>
+      </c>
+      <c r="Y46" s="20">
+        <v>14</v>
+      </c>
+      <c r="Z46" s="20">
+        <v>-2</v>
+      </c>
+      <c r="AA46" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB46" s="20">
+        <v>107</v>
+      </c>
+      <c r="AC46" s="20">
+        <v>-48</v>
+      </c>
+      <c r="AD46" s="20">
+        <v>237</v>
+      </c>
+      <c r="AE46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
-        <v>57</v>
+        <v>1710</v>
+      </c>
+      <c r="J47" s="3">
+        <f>J43+SUM(J44:J46)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" ref="K47:AP47" si="67">K43+SUM(K44:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
-        <v>-47</v>
+        <f t="shared" si="67"/>
+        <v>743</v>
       </c>
       <c r="W47" s="3">
-        <v>-58</v>
+        <f t="shared" si="67"/>
+        <v>1905</v>
       </c>
       <c r="X47" s="3">
-        <v>-61</v>
+        <f t="shared" si="67"/>
+        <v>3196</v>
       </c>
       <c r="Y47" s="3">
-        <v>-58</v>
+        <f t="shared" si="67"/>
+        <v>3896</v>
       </c>
       <c r="Z47" s="3">
-        <v>-52</v>
+        <f t="shared" si="67"/>
+        <v>2970</v>
       </c>
       <c r="AA47" s="3">
-        <v>-184</v>
+        <f t="shared" si="67"/>
+        <v>4409</v>
       </c>
       <c r="AB47" s="3">
-        <v>-236</v>
+        <f t="shared" si="67"/>
+        <v>9941</v>
       </c>
       <c r="AC47" s="3">
-        <v>-262</v>
+        <f t="shared" si="67"/>
+        <v>4181</v>
       </c>
       <c r="AD47" s="3">
-        <v>-257</v>
+        <f t="shared" si="67"/>
+        <v>33818</v>
       </c>
       <c r="AE47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>33623.310000000005</v>
       </c>
       <c r="AF47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>44710.305500000002</v>
       </c>
       <c r="AG47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>59327.61877500001</v>
       </c>
       <c r="AH47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>78578.532713750013</v>
       </c>
       <c r="AI47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>103907.33187693752</v>
       </c>
       <c r="AJ47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>137203.95268753445</v>
       </c>
       <c r="AK47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>180940.59292355491</v>
       </c>
       <c r="AL47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>238350.00588874205</v>
       </c>
       <c r="AM47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>313658.15612407413</v>
       </c>
       <c r="AN47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>412387.75884702534</v>
       </c>
       <c r="AO47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>541754.23470311286</v>
       </c>
       <c r="AP47" s="3">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>711182.13671306311</v>
       </c>
     </row>
     <row r="48" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="20" t="s">
-        <v>1709</v>
+        <v>61</v>
       </c>
       <c r="V48" s="20">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="W48" s="20">
-        <v>-25</v>
+        <v>239</v>
       </c>
       <c r="X48" s="20">
-        <v>-22</v>
+        <v>149</v>
       </c>
       <c r="Y48" s="20">
-        <v>14</v>
+        <v>-245</v>
       </c>
       <c r="Z48" s="20">
-        <v>-2</v>
+        <v>174</v>
       </c>
       <c r="AA48" s="20">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="AB48" s="20">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AC48" s="20">
-        <v>-48</v>
+        <v>-187</v>
       </c>
       <c r="AD48" s="20">
-        <v>237</v>
+        <v>4058</v>
       </c>
       <c r="AE48" s="20">
-        <v>0</v>
+        <f>AE47*AE66</f>
+        <v>6724.6620000000012</v>
       </c>
       <c r="AF48" s="20">
-        <v>0</v>
+        <f t="shared" ref="AF48:AP48" si="68">AF47*AF66</f>
+        <v>8942.0611000000008</v>
       </c>
       <c r="AG48" s="20">
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>11865.523755000002</v>
       </c>
       <c r="AH48" s="20">
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>15715.706542750004</v>
       </c>
       <c r="AI48" s="20">
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>20781.466375387507</v>
       </c>
       <c r="AJ48" s="20">
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>27440.790537506891</v>
       </c>
       <c r="AK48" s="20">
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>36188.118584710981</v>
       </c>
       <c r="AL48" s="20">
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>47670.001177748411</v>
       </c>
       <c r="AM48" s="20">
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>62731.631224814832</v>
       </c>
       <c r="AN48" s="20">
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>82477.55176940508</v>
       </c>
       <c r="AO48" s="20">
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>108350.84694062258</v>
       </c>
       <c r="AP48" s="20">
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>142236.42734261262</v>
       </c>
     </row>
     <row r="49" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
-        <v>1710</v>
+        <v>62</v>
       </c>
       <c r="J49" s="3">
-        <f>J45+SUM(J46:J48)</f>
+        <f>J47-J48</f>
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" ref="K49:AP49" si="67">K45+SUM(K46:K48)</f>
+        <f t="shared" ref="K49:AP49" si="69">K47-K48</f>
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="V49" s="3">
-        <f t="shared" si="67"/>
-        <v>743</v>
-      </c>
-      <c r="W49" s="3">
-        <f t="shared" si="67"/>
-        <v>1905</v>
-      </c>
-      <c r="X49" s="3">
-        <f t="shared" si="67"/>
-        <v>3196</v>
-      </c>
-      <c r="Y49" s="3">
-        <f t="shared" si="67"/>
-        <v>3896</v>
-      </c>
-      <c r="Z49" s="3">
-        <f t="shared" si="67"/>
-        <v>2970</v>
-      </c>
-      <c r="AA49" s="3">
-        <f t="shared" si="67"/>
-        <v>4409</v>
-      </c>
-      <c r="AB49" s="3">
-        <f t="shared" si="67"/>
-        <v>9941</v>
-      </c>
-      <c r="AC49" s="3">
-        <f t="shared" si="67"/>
-        <v>4181</v>
-      </c>
-      <c r="AD49" s="3">
-        <f t="shared" si="67"/>
-        <v>33818</v>
-      </c>
-      <c r="AE49" s="3">
-        <f t="shared" si="67"/>
-        <v>33623.310000000005</v>
-      </c>
-      <c r="AF49" s="3">
-        <f t="shared" si="67"/>
-        <v>44710.305500000002</v>
-      </c>
-      <c r="AG49" s="3">
-        <f t="shared" si="67"/>
-        <v>59327.61877500001</v>
-      </c>
-      <c r="AH49" s="3">
-        <f t="shared" si="67"/>
-        <v>78578.532713750013</v>
-      </c>
-      <c r="AI49" s="3">
-        <f t="shared" si="67"/>
-        <v>103907.33187693752</v>
-      </c>
-      <c r="AJ49" s="3">
-        <f t="shared" si="67"/>
-        <v>137203.95268753445</v>
-      </c>
-      <c r="AK49" s="3">
-        <f t="shared" si="67"/>
-        <v>180940.59292355491</v>
-      </c>
-      <c r="AL49" s="3">
-        <f t="shared" si="67"/>
-        <v>238350.00588874205</v>
-      </c>
-      <c r="AM49" s="3">
-        <f t="shared" si="67"/>
-        <v>313658.15612407413</v>
-      </c>
-      <c r="AN49" s="3">
-        <f t="shared" si="67"/>
-        <v>412387.75884702534</v>
-      </c>
-      <c r="AO49" s="3">
-        <f t="shared" si="67"/>
-        <v>541754.23470311286</v>
-      </c>
-      <c r="AP49" s="3">
-        <f t="shared" si="67"/>
-        <v>711182.13671306311</v>
-      </c>
-    </row>
-    <row r="50" spans="2:94" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="V50" s="20">
-        <v>129</v>
-      </c>
-      <c r="W50" s="20">
-        <v>239</v>
-      </c>
-      <c r="X50" s="20">
-        <v>149</v>
-      </c>
-      <c r="Y50" s="20">
-        <v>-245</v>
-      </c>
-      <c r="Z50" s="20">
-        <v>174</v>
-      </c>
-      <c r="AA50" s="20">
-        <v>77</v>
-      </c>
-      <c r="AB50" s="20">
-        <v>189</v>
-      </c>
-      <c r="AC50" s="20">
-        <v>-187</v>
-      </c>
-      <c r="AD50" s="20">
-        <v>4058</v>
-      </c>
-      <c r="AE50" s="20">
-        <f>AE49*AE68</f>
-        <v>6724.6620000000012</v>
-      </c>
-      <c r="AF50" s="20">
-        <f t="shared" ref="AF50:AP50" si="68">AF49*AF68</f>
-        <v>8942.0611000000008</v>
-      </c>
-      <c r="AG50" s="20">
-        <f t="shared" si="68"/>
-        <v>11865.523755000002</v>
-      </c>
-      <c r="AH50" s="20">
-        <f t="shared" si="68"/>
-        <v>15715.706542750004</v>
-      </c>
-      <c r="AI50" s="20">
-        <f t="shared" si="68"/>
-        <v>20781.466375387507</v>
-      </c>
-      <c r="AJ50" s="20">
-        <f t="shared" si="68"/>
-        <v>27440.790537506891</v>
-      </c>
-      <c r="AK50" s="20">
-        <f t="shared" si="68"/>
-        <v>36188.118584710981</v>
-      </c>
-      <c r="AL50" s="20">
-        <f t="shared" si="68"/>
-        <v>47670.001177748411</v>
-      </c>
-      <c r="AM50" s="20">
-        <f t="shared" si="68"/>
-        <v>62731.631224814832</v>
-      </c>
-      <c r="AN50" s="20">
-        <f t="shared" si="68"/>
-        <v>82477.55176940508</v>
-      </c>
-      <c r="AO50" s="20">
-        <f t="shared" si="68"/>
-        <v>108350.84694062258</v>
-      </c>
-      <c r="AP50" s="20">
-        <f t="shared" si="68"/>
-        <v>142236.42734261262</v>
-      </c>
-    </row>
-    <row r="51" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J51" s="3">
-        <f>J49-J50</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="3">
-        <f t="shared" ref="K51:AP51" si="69">K49-K50</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="3">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="3">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="3">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="3">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="3">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="3">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="3">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="3">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="3">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="3">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="V51" s="3">
         <f t="shared" si="69"/>
         <v>614</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W49" s="3">
         <f t="shared" si="69"/>
         <v>1666</v>
       </c>
-      <c r="X51" s="3">
+      <c r="X49" s="3">
         <f t="shared" si="69"/>
         <v>3047</v>
       </c>
-      <c r="Y51" s="3">
+      <c r="Y49" s="3">
         <f t="shared" si="69"/>
         <v>4141</v>
       </c>
-      <c r="Z51" s="3">
+      <c r="Z49" s="3">
         <f t="shared" si="69"/>
         <v>2796</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AA49" s="3">
         <f t="shared" si="69"/>
         <v>4332</v>
       </c>
-      <c r="AB51" s="3">
+      <c r="AB49" s="3">
         <f t="shared" si="69"/>
         <v>9752</v>
       </c>
-      <c r="AC51" s="3">
+      <c r="AC49" s="3">
         <f t="shared" si="69"/>
         <v>4368</v>
       </c>
-      <c r="AD51" s="3">
+      <c r="AD49" s="3">
         <f t="shared" si="69"/>
         <v>29760</v>
       </c>
-      <c r="AE51" s="3">
+      <c r="AE49" s="3">
         <f t="shared" si="69"/>
         <v>26898.648000000005</v>
       </c>
-      <c r="AF51" s="3">
+      <c r="AF49" s="3">
         <f t="shared" si="69"/>
         <v>35768.244400000003</v>
       </c>
-      <c r="AG51" s="3">
+      <c r="AG49" s="3">
         <f t="shared" si="69"/>
         <v>47462.095020000008</v>
       </c>
-      <c r="AH51" s="3">
+      <c r="AH49" s="3">
         <f t="shared" si="69"/>
         <v>62862.826171000008</v>
       </c>
-      <c r="AI51" s="3">
+      <c r="AI49" s="3">
         <f t="shared" si="69"/>
         <v>83125.865501550012</v>
       </c>
-      <c r="AJ51" s="3">
+      <c r="AJ49" s="3">
         <f t="shared" si="69"/>
         <v>109763.16215002755</v>
       </c>
-      <c r="AK51" s="3">
+      <c r="AK49" s="3">
         <f t="shared" si="69"/>
         <v>144752.47433884392</v>
       </c>
-      <c r="AL51" s="3">
+      <c r="AL49" s="3">
         <f t="shared" si="69"/>
         <v>190680.00471099364</v>
       </c>
-      <c r="AM51" s="3">
+      <c r="AM49" s="3">
         <f t="shared" si="69"/>
         <v>250926.5248992593</v>
       </c>
-      <c r="AN51" s="3">
+      <c r="AN49" s="3">
         <f t="shared" si="69"/>
         <v>329910.20707762026</v>
       </c>
-      <c r="AO51" s="3">
+      <c r="AO49" s="3">
         <f t="shared" si="69"/>
         <v>433403.38776249031</v>
       </c>
-      <c r="AP51" s="3">
+      <c r="AP49" s="3">
         <f t="shared" si="69"/>
         <v>568945.70937045047</v>
       </c>
-      <c r="AQ51" s="3">
-        <f>AP51*(1+$AT$73)</f>
+      <c r="AQ49" s="3">
+        <f>AP49*(1+$AT$71)</f>
         <v>574635.16646415496</v>
       </c>
-      <c r="AR51" s="3">
-        <f t="shared" ref="AR51:CP51" si="70">AQ51*(1+$AT$73)</f>
+      <c r="AR49" s="3">
+        <f t="shared" ref="AR49:CP49" si="70">AQ49*(1+$AT$71)</f>
         <v>580381.51812879648</v>
       </c>
-      <c r="AS51" s="3">
+      <c r="AS49" s="3">
         <f t="shared" si="70"/>
         <v>586185.33331008442</v>
       </c>
-      <c r="AT51" s="3">
+      <c r="AT49" s="3">
         <f t="shared" si="70"/>
         <v>592047.18664318521</v>
       </c>
-      <c r="AU51" s="3">
+      <c r="AU49" s="3">
         <f t="shared" si="70"/>
         <v>597967.65850961709</v>
       </c>
-      <c r="AV51" s="3">
+      <c r="AV49" s="3">
         <f t="shared" si="70"/>
         <v>603947.33509471326</v>
       </c>
-      <c r="AW51" s="3">
+      <c r="AW49" s="3">
         <f t="shared" si="70"/>
         <v>609986.8084456604</v>
       </c>
-      <c r="AX51" s="3">
+      <c r="AX49" s="3">
         <f t="shared" si="70"/>
         <v>616086.67653011705</v>
       </c>
-      <c r="AY51" s="3">
+      <c r="AY49" s="3">
         <f t="shared" si="70"/>
         <v>622247.54329541826</v>
       </c>
-      <c r="AZ51" s="3">
+      <c r="AZ49" s="3">
         <f t="shared" si="70"/>
         <v>628470.01872837241</v>
       </c>
-      <c r="BA51" s="3">
+      <c r="BA49" s="3">
         <f t="shared" si="70"/>
         <v>634754.71891565609</v>
       </c>
-      <c r="BB51" s="3">
+      <c r="BB49" s="3">
         <f t="shared" si="70"/>
         <v>641102.26610481262</v>
       </c>
-      <c r="BC51" s="3">
+      <c r="BC49" s="3">
         <f t="shared" si="70"/>
         <v>647513.28876586072</v>
       </c>
-      <c r="BD51" s="3">
+      <c r="BD49" s="3">
         <f t="shared" si="70"/>
         <v>653988.42165351938</v>
       </c>
-      <c r="BE51" s="3">
+      <c r="BE49" s="3">
         <f t="shared" si="70"/>
         <v>660528.30587005464</v>
       </c>
-      <c r="BF51" s="3">
+      <c r="BF49" s="3">
         <f t="shared" si="70"/>
         <v>667133.58892875514</v>
       </c>
-      <c r="BG51" s="3">
+      <c r="BG49" s="3">
         <f t="shared" si="70"/>
         <v>673804.92481804267</v>
       </c>
-      <c r="BH51" s="3">
+      <c r="BH49" s="3">
         <f t="shared" si="70"/>
         <v>680542.97406622313</v>
       </c>
-      <c r="BI51" s="3">
+      <c r="BI49" s="3">
         <f t="shared" si="70"/>
         <v>687348.40380688536</v>
       </c>
-      <c r="BJ51" s="3">
+      <c r="BJ49" s="3">
         <f t="shared" si="70"/>
         <v>694221.88784495427</v>
       </c>
-      <c r="BK51" s="3">
+      <c r="BK49" s="3">
         <f t="shared" si="70"/>
         <v>701164.10672340379</v>
       </c>
-      <c r="BL51" s="3">
+      <c r="BL49" s="3">
         <f t="shared" si="70"/>
         <v>708175.74779063789</v>
       </c>
-      <c r="BM51" s="3">
+      <c r="BM49" s="3">
         <f t="shared" si="70"/>
         <v>715257.50526854431</v>
       </c>
-      <c r="BN51" s="3">
+      <c r="BN49" s="3">
         <f t="shared" si="70"/>
         <v>722410.08032122976</v>
       </c>
-      <c r="BO51" s="3">
+      <c r="BO49" s="3">
         <f t="shared" si="70"/>
         <v>729634.18112444202</v>
       </c>
-      <c r="BP51" s="3">
+      <c r="BP49" s="3">
         <f t="shared" si="70"/>
         <v>736930.5229356864</v>
       </c>
-      <c r="BQ51" s="3">
+      <c r="BQ49" s="3">
         <f t="shared" si="70"/>
         <v>744299.82816504326</v>
       </c>
-      <c r="BR51" s="3">
+      <c r="BR49" s="3">
         <f t="shared" si="70"/>
         <v>751742.82644669374</v>
       </c>
-      <c r="BS51" s="3">
+      <c r="BS49" s="3">
         <f t="shared" si="70"/>
         <v>759260.25471116067</v>
       </c>
-      <c r="BT51" s="3">
+      <c r="BT49" s="3">
         <f t="shared" si="70"/>
         <v>766852.85725827224</v>
       </c>
-      <c r="BU51" s="3">
+      <c r="BU49" s="3">
         <f t="shared" si="70"/>
         <v>774521.385830855</v>
       </c>
-      <c r="BV51" s="3">
+      <c r="BV49" s="3">
         <f t="shared" si="70"/>
         <v>782266.5996891635</v>
       </c>
-      <c r="BW51" s="3">
+      <c r="BW49" s="3">
         <f t="shared" si="70"/>
         <v>790089.26568605518</v>
       </c>
-      <c r="BX51" s="3">
+      <c r="BX49" s="3">
         <f t="shared" si="70"/>
         <v>797990.1583429157</v>
       </c>
-      <c r="BY51" s="3">
+      <c r="BY49" s="3">
         <f t="shared" si="70"/>
         <v>805970.0599263449</v>
       </c>
-      <c r="BZ51" s="3">
+      <c r="BZ49" s="3">
         <f t="shared" si="70"/>
         <v>814029.76052560832</v>
       </c>
-      <c r="CA51" s="3">
+      <c r="CA49" s="3">
         <f t="shared" si="70"/>
         <v>822170.0581308644</v>
       </c>
-      <c r="CB51" s="3">
+      <c r="CB49" s="3">
         <f t="shared" si="70"/>
         <v>830391.75871217309</v>
       </c>
-      <c r="CC51" s="3">
+      <c r="CC49" s="3">
         <f t="shared" si="70"/>
         <v>838695.67629929481</v>
       </c>
-      <c r="CD51" s="3">
+      <c r="CD49" s="3">
         <f t="shared" si="70"/>
         <v>847082.63306228782</v>
       </c>
-      <c r="CE51" s="3">
+      <c r="CE49" s="3">
         <f t="shared" si="70"/>
         <v>855553.45939291071</v>
       </c>
-      <c r="CF51" s="3">
+      <c r="CF49" s="3">
         <f t="shared" si="70"/>
         <v>864108.99398683978</v>
       </c>
-      <c r="CG51" s="3">
+      <c r="CG49" s="3">
         <f t="shared" si="70"/>
         <v>872750.0839267082</v>
       </c>
-      <c r="CH51" s="3">
+      <c r="CH49" s="3">
         <f t="shared" si="70"/>
         <v>881477.58476597525</v>
       </c>
-      <c r="CI51" s="3">
+      <c r="CI49" s="3">
         <f t="shared" si="70"/>
         <v>890292.36061363504</v>
       </c>
-      <c r="CJ51" s="3">
+      <c r="CJ49" s="3">
         <f t="shared" si="70"/>
         <v>899195.28421977139</v>
       </c>
-      <c r="CK51" s="3">
+      <c r="CK49" s="3">
         <f t="shared" si="70"/>
         <v>908187.23706196912</v>
       </c>
-      <c r="CL51" s="3">
+      <c r="CL49" s="3">
         <f t="shared" si="70"/>
         <v>917269.1094325888</v>
       </c>
-      <c r="CM51" s="3">
+      <c r="CM49" s="3">
         <f t="shared" si="70"/>
         <v>926441.80052691465</v>
       </c>
-      <c r="CN51" s="3">
+      <c r="CN49" s="3">
         <f t="shared" si="70"/>
         <v>935706.21853218379</v>
       </c>
-      <c r="CO51" s="3">
+      <c r="CO49" s="3">
         <f t="shared" si="70"/>
         <v>945063.28071750561</v>
       </c>
-      <c r="CP51" s="3">
+      <c r="CP49" s="3">
         <f t="shared" si="70"/>
         <v>954513.91352468065</v>
       </c>
     </row>
-    <row r="54" spans="2:94" s="53" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="53" t="s">
+    <row r="52" spans="2:94" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="53" t="s">
         <v>911</v>
       </c>
-      <c r="J54" s="53" t="e">
-        <f>J51/J55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K54" s="53" t="e">
-        <f t="shared" ref="K54:AP54" si="71">K51/K55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L54" s="53" t="e">
+      <c r="J52" s="53" t="e">
+        <f>J49/J53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="53" t="e">
+        <f t="shared" ref="K52:AP52" si="71">K49/K53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" s="53" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M54" s="53" t="e">
+      <c r="M52" s="53" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N54" s="53" t="e">
+      <c r="N52" s="53" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O54" s="53" t="e">
+      <c r="O52" s="53" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P54" s="53" t="e">
+      <c r="P52" s="53" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q54" s="53" t="e">
+      <c r="Q52" s="53" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R54" s="53" t="e">
+      <c r="R52" s="53" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S54" s="53" t="e">
+      <c r="S52" s="53" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T54" s="53" t="e">
+      <c r="T52" s="53" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U54" s="53" t="e">
+      <c r="U52" s="53" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V54" s="53">
+      <c r="V52" s="53">
         <f t="shared" si="71"/>
         <v>0.28268876611418048</v>
       </c>
-      <c r="W54" s="53">
+      <c r="W52" s="53">
         <f t="shared" si="71"/>
         <v>0.76987060998151569</v>
       </c>
-      <c r="X54" s="53">
+      <c r="X52" s="53">
         <f t="shared" si="71"/>
         <v>1.271702838063439</v>
       </c>
-      <c r="Y54" s="53">
+      <c r="Y52" s="53">
         <f t="shared" si="71"/>
         <v>1.7027138157894737</v>
       </c>
-      <c r="Z54" s="53">
+      <c r="Z52" s="53">
         <f t="shared" si="71"/>
         <v>1.1477832512315271</v>
       </c>
-      <c r="AA54" s="53">
+      <c r="AA52" s="53">
         <f t="shared" si="71"/>
         <v>1.7552674230145866</v>
       </c>
-      <c r="AB54" s="53">
+      <c r="AB52" s="53">
         <f t="shared" si="71"/>
         <v>3.9070512820512819</v>
       </c>
-      <c r="AC54" s="53">
+      <c r="AC52" s="53">
         <f t="shared" si="71"/>
         <v>1.7563329312424607</v>
       </c>
-      <c r="AD54" s="53">
+      <c r="AD52" s="53">
         <f t="shared" si="71"/>
         <v>12.053462940461726</v>
       </c>
-      <c r="AE54" s="53">
+      <c r="AE52" s="53">
         <f t="shared" si="71"/>
         <v>10.89455164034022</v>
       </c>
-      <c r="AF54" s="53">
+      <c r="AF52" s="53">
         <f t="shared" si="71"/>
         <v>14.486935763466992</v>
       </c>
-      <c r="AG54" s="53">
+      <c r="AG52" s="53">
         <f t="shared" si="71"/>
         <v>19.223205759416771</v>
       </c>
-      <c r="AH54" s="53">
+      <c r="AH52" s="53">
         <f t="shared" si="71"/>
         <v>25.460844945727018</v>
       </c>
-      <c r="AI54" s="53">
+      <c r="AI52" s="53">
         <f t="shared" si="71"/>
         <v>33.667827258626978</v>
       </c>
-      <c r="AJ54" s="53">
+      <c r="AJ52" s="53">
         <f t="shared" si="71"/>
         <v>44.456525779679041</v>
       </c>
-      <c r="AK54" s="53">
+      <c r="AK52" s="53">
         <f t="shared" si="71"/>
         <v>58.627976645947314</v>
       </c>
-      <c r="AL54" s="53">
+      <c r="AL52" s="53">
         <f t="shared" si="71"/>
         <v>77.229649538677052</v>
       </c>
-      <c r="AM54" s="53">
+      <c r="AM52" s="53">
         <f t="shared" si="71"/>
         <v>101.63083227997541</v>
       </c>
-      <c r="AN54" s="53">
+      <c r="AN52" s="53">
         <f t="shared" si="71"/>
         <v>133.62098302050234</v>
       </c>
-      <c r="AO54" s="53">
+      <c r="AO52" s="53">
         <f t="shared" si="71"/>
         <v>175.53802663527352</v>
       </c>
-      <c r="AP54" s="53">
+      <c r="AP52" s="53">
         <f t="shared" si="71"/>
         <v>230.43568625777661</v>
       </c>
     </row>
-    <row r="55" spans="2:94" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
+    <row r="53" spans="2:94" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
         <v>1</v>
       </c>
-      <c r="V55">
-        <f t="shared" ref="V55:AA55" si="72">V56*4</f>
+      <c r="V53">
+        <f t="shared" ref="V53:AA53" si="72">V54*4</f>
         <v>2172</v>
       </c>
-      <c r="W55">
+      <c r="W53">
         <f t="shared" si="72"/>
         <v>2164</v>
       </c>
-      <c r="X55">
+      <c r="X53">
         <f t="shared" si="72"/>
         <v>2396</v>
       </c>
-      <c r="Y55">
+      <c r="Y53">
         <f t="shared" si="72"/>
         <v>2432</v>
       </c>
-      <c r="Z55">
+      <c r="Z53">
         <f t="shared" si="72"/>
         <v>2436</v>
       </c>
-      <c r="AA55">
+      <c r="AA53">
         <f t="shared" si="72"/>
         <v>2468</v>
       </c>
-      <c r="AB55">
+      <c r="AB53">
         <v>2496</v>
       </c>
-      <c r="AC55">
+      <c r="AC53">
         <v>2487</v>
       </c>
-      <c r="AD55">
+      <c r="AD53">
         <v>2469</v>
       </c>
-      <c r="AE55">
-        <f>AD55</f>
+      <c r="AE53">
+        <f>AD53</f>
         <v>2469</v>
       </c>
-      <c r="AF55">
-        <f t="shared" ref="AF55:AP55" si="73">AE55</f>
+      <c r="AF53">
+        <f t="shared" ref="AF53:AP53" si="73">AE53</f>
         <v>2469</v>
       </c>
-      <c r="AG55">
+      <c r="AG53">
         <f t="shared" si="73"/>
         <v>2469</v>
       </c>
-      <c r="AH55">
+      <c r="AH53">
         <f t="shared" si="73"/>
         <v>2469</v>
       </c>
-      <c r="AI55">
+      <c r="AI53">
         <f t="shared" si="73"/>
         <v>2469</v>
       </c>
-      <c r="AJ55">
+      <c r="AJ53">
         <f t="shared" si="73"/>
         <v>2469</v>
       </c>
-      <c r="AK55">
+      <c r="AK53">
         <f t="shared" si="73"/>
         <v>2469</v>
       </c>
-      <c r="AL55">
+      <c r="AL53">
         <f t="shared" si="73"/>
         <v>2469</v>
       </c>
-      <c r="AM55">
+      <c r="AM53">
         <f t="shared" si="73"/>
         <v>2469</v>
       </c>
-      <c r="AN55">
+      <c r="AN53">
         <f t="shared" si="73"/>
         <v>2469</v>
       </c>
-      <c r="AO55">
+      <c r="AO53">
         <f t="shared" si="73"/>
         <v>2469</v>
       </c>
-      <c r="AP55">
+      <c r="AP53">
         <f t="shared" si="73"/>
         <v>2469</v>
       </c>
     </row>
-    <row r="56" spans="2:94" x14ac:dyDescent="0.35">
-      <c r="V56">
+    <row r="54" spans="2:94" x14ac:dyDescent="0.35">
+      <c r="V54">
         <v>543</v>
       </c>
-      <c r="W56">
+      <c r="W54">
         <v>541</v>
       </c>
-      <c r="X56">
+      <c r="X54">
         <v>599</v>
       </c>
-      <c r="Y56">
+      <c r="Y54">
         <v>608</v>
       </c>
-      <c r="Z56">
+      <c r="Z54">
         <v>609</v>
       </c>
-      <c r="AA56">
+      <c r="AA54">
         <v>617</v>
       </c>
     </row>
-    <row r="57" spans="2:94" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="9" t="s">
+    <row r="55" spans="2:94" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="9" t="s">
         <v>1676</v>
+      </c>
+    </row>
+    <row r="56" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="15" t="e">
+        <f>J36/I36-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K56" s="15" t="e">
+        <f t="shared" ref="K56:AP56" si="74">K36/J36-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L56" s="15" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="15" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" s="15" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="15" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P56" s="15" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q56" s="15" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R56" s="15" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S56" s="15" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T56" s="15" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U56" s="15" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V56" s="15" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.37924151696606789</v>
+      </c>
+      <c r="X56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.40578871201157751</v>
+      </c>
+      <c r="Y56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.20609429689108505</v>
+      </c>
+      <c r="Z56" s="15">
+        <f t="shared" si="74"/>
+        <v>-6.8111983612154314E-2</v>
+      </c>
+      <c r="AA56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.52729437625938824</v>
+      </c>
+      <c r="AB56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.61403298350824587</v>
+      </c>
+      <c r="AC56" s="15">
+        <f t="shared" si="74"/>
+        <v>2.2293230289069932E-3</v>
+      </c>
+      <c r="AD56" s="15">
+        <f t="shared" si="74"/>
+        <v>1.2585452658115224</v>
+      </c>
+      <c r="AE56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AG56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AH56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AI56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AJ56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AK56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AM56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AN56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AO56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AP56" s="15">
+        <f t="shared" si="74"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J57" s="15" t="e">
+        <f>J49/I49-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K57" s="15" t="e">
+        <f t="shared" ref="K57:AP57" si="75">K49/J49-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L57" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P57" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q57" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R57" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S57" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T57" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U57" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V57" s="15" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W57" s="15">
+        <f t="shared" si="75"/>
+        <v>1.7133550488599347</v>
+      </c>
+      <c r="X57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.82893157262905159</v>
+      </c>
+      <c r="Y57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.35904168034131922</v>
+      </c>
+      <c r="Z57" s="15">
+        <f t="shared" si="75"/>
+        <v>-0.3248007727602028</v>
+      </c>
+      <c r="AA57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.54935622317596566</v>
+      </c>
+      <c r="AB57" s="15">
+        <f t="shared" si="75"/>
+        <v>1.2511542012927053</v>
+      </c>
+      <c r="AC57" s="15">
+        <f t="shared" si="75"/>
+        <v>-0.55209187858900743</v>
+      </c>
+      <c r="AD57" s="15">
+        <f t="shared" si="75"/>
+        <v>5.813186813186813</v>
+      </c>
+      <c r="AE57" s="15">
+        <f t="shared" si="75"/>
+        <v>-9.6147580645161157E-2</v>
+      </c>
+      <c r="AF57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.32974134610780426</v>
+      </c>
+      <c r="AG57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.3269338715433292</v>
+      </c>
+      <c r="AH57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.32448485774827884</v>
+      </c>
+      <c r="AI57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.32233739023171348</v>
+      </c>
+      <c r="AJ57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.32044534499289923</v>
+      </c>
+      <c r="AK57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.31877099295838374</v>
+      </c>
+      <c r="AL57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.31728321454899788</v>
+      </c>
+      <c r="AM57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.31595615009334099</v>
+      </c>
+      <c r="AN57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.31476816653827622</v>
+      </c>
+      <c r="AO57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.31370105702889184</v>
+      </c>
+      <c r="AP57" s="15">
+        <f t="shared" si="75"/>
+        <v>0.31273941421574403</v>
       </c>
     </row>
     <row r="58" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="15" t="e">
-        <f>J38/I38-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K58" s="15" t="e">
-        <f t="shared" ref="K58:AP58" si="74">K38/J38-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L58" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M58" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N58" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O58" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P58" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q58" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R58" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S58" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T58" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U58" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V58" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
+        <v>51</v>
       </c>
       <c r="W58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.37924151696606789</v>
+        <f>W39/V39-1</f>
+        <v>9.9173553719008156E-2</v>
       </c>
       <c r="X58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.40578871201157751</v>
+        <f t="shared" ref="X58:AC58" si="76">X39/W39-1</f>
+        <v>0.228298017771702</v>
       </c>
       <c r="Y58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.20609429689108505</v>
+        <f t="shared" si="76"/>
+        <v>0.32220367278798001</v>
       </c>
       <c r="Z58" s="15">
-        <f t="shared" si="74"/>
-        <v>-6.8111983612154314E-2</v>
+        <f t="shared" si="76"/>
+        <v>0.19065656565656575</v>
       </c>
       <c r="AA58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.52729437625938824</v>
+        <f t="shared" si="76"/>
+        <v>0.38706256627783664</v>
       </c>
       <c r="AB58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.61403298350824587</v>
+        <f t="shared" si="76"/>
+        <v>0.34250764525993893</v>
       </c>
       <c r="AC58" s="15">
-        <f t="shared" si="74"/>
-        <v>2.2293230289069932E-3</v>
+        <f t="shared" si="76"/>
+        <v>0.39312832194381175</v>
       </c>
       <c r="AD58" s="15">
-        <f t="shared" si="74"/>
-        <v>1.2585452658115224</v>
+        <f>AD39/AC39-1</f>
+        <v>0.18204115002043886</v>
       </c>
       <c r="AE58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AF58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AG58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AH58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AI58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AJ58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AK58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AL58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AM58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AN58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AO58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AP58" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="59" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>1677</v>
-      </c>
-      <c r="J59" s="15" t="e">
-        <f>J51/I51-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K59" s="15" t="e">
-        <f t="shared" ref="K59:AP59" si="75">K51/J51-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L59" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M59" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N59" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O59" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P59" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q59" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R59" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S59" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T59" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U59" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V59" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
+        <v>52</v>
       </c>
       <c r="W59" s="15">
-        <f t="shared" si="75"/>
-        <v>1.7133550488599347</v>
+        <f>W40/V40-1</f>
+        <v>0.1013289036544851</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.82893157262905159</v>
+        <f t="shared" ref="X59:AC59" si="77">X40/W40-1</f>
+        <v>0.22926093514328816</v>
       </c>
       <c r="Y59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.35904168034131922</v>
-      </c>
-      <c r="Z59" s="15">
-        <f t="shared" si="75"/>
-        <v>-0.3248007727602028</v>
-      </c>
-      <c r="AA59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.54935622317596566</v>
-      </c>
-      <c r="AB59" s="15">
-        <f t="shared" si="75"/>
-        <v>1.2511542012927053</v>
-      </c>
-      <c r="AC59" s="15">
-        <f t="shared" si="75"/>
-        <v>-0.55209187858900743</v>
-      </c>
-      <c r="AD59" s="15">
-        <f t="shared" si="75"/>
-        <v>5.813186813186813</v>
-      </c>
-      <c r="AE59" s="15">
-        <f t="shared" si="75"/>
-        <v>-9.6147580645161157E-2</v>
-      </c>
-      <c r="AF59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.32974134610780426</v>
-      </c>
-      <c r="AG59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.3269338715433292</v>
-      </c>
-      <c r="AH59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.32448485774827884</v>
-      </c>
-      <c r="AI59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.32233739023171348</v>
-      </c>
-      <c r="AJ59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.32044534499289923</v>
-      </c>
-      <c r="AK59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31877099295838374</v>
-      </c>
-      <c r="AL59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31728321454899788</v>
-      </c>
-      <c r="AM59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31595615009334099</v>
-      </c>
-      <c r="AN59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31476816653827622</v>
-      </c>
-      <c r="AO59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31370105702889184</v>
-      </c>
-      <c r="AP59" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31273941421574403</v>
-      </c>
-    </row>
-    <row r="60" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="W60" s="15">
-        <f>W41/V41-1</f>
-        <v>9.9173553719008156E-2</v>
-      </c>
-      <c r="X60" s="15">
-        <f t="shared" ref="X60:AC60" si="76">X41/W41-1</f>
-        <v>0.228298017771702</v>
-      </c>
-      <c r="Y60" s="15">
-        <f t="shared" si="76"/>
-        <v>0.32220367278798001</v>
-      </c>
-      <c r="Z60" s="15">
-        <f t="shared" si="76"/>
-        <v>0.19065656565656575</v>
-      </c>
-      <c r="AA60" s="15">
-        <f t="shared" si="76"/>
-        <v>0.38706256627783664</v>
-      </c>
-      <c r="AB60" s="15">
-        <f t="shared" si="76"/>
-        <v>0.34250764525993893</v>
-      </c>
-      <c r="AC60" s="15">
-        <f t="shared" si="76"/>
-        <v>0.39312832194381175</v>
-      </c>
-      <c r="AD60" s="15">
-        <f>AD41/AC41-1</f>
-        <v>0.18204115002043886</v>
-      </c>
-      <c r="AE60" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="AF60" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="AG60" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="AH60" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="AI60" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="AJ60" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="AK60" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="AL60" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="AM60" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="AN60" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="AO60" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="AP60" s="15">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="61" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="W61" s="15">
-        <f>W42/V42-1</f>
-        <v>0.1013289036544851</v>
-      </c>
-      <c r="X61" s="15">
-        <f t="shared" ref="X61:AC61" si="77">X42/W42-1</f>
-        <v>0.22926093514328816</v>
-      </c>
-      <c r="Y61" s="15">
         <f t="shared" si="77"/>
         <v>0.21595092024539886</v>
       </c>
-      <c r="Z61" s="15">
+      <c r="Z59" s="15">
         <f t="shared" si="77"/>
         <v>0.10292633703329979</v>
       </c>
-      <c r="AA61" s="15">
+      <c r="AA59" s="15">
         <f t="shared" si="77"/>
         <v>0.77493138151875574</v>
       </c>
-      <c r="AB61" s="15">
+      <c r="AB59" s="15">
         <f t="shared" si="77"/>
         <v>0.11649484536082477</v>
       </c>
-      <c r="AC61" s="15">
+      <c r="AC59" s="15">
         <f t="shared" si="77"/>
         <v>0.12650046168051698</v>
       </c>
-      <c r="AD61" s="15">
-        <f>AD42/AC42-1</f>
+      <c r="AD59" s="15">
+        <f>AD40/AC40-1</f>
         <v>8.7704918032786905E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:94" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="9" t="s">
+    <row r="62" spans="2:94" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="9" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="15" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J63" s="15" t="e">
+        <f t="shared" ref="J63:AD63" si="78">J38/J36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K63" s="15" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L63" s="15" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M63" s="15" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N63" s="15" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O63" s="15" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P63" s="15" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q63" s="15" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R63" s="15" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S63" s="15" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T63" s="15" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U63" s="15" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V63" s="15">
+        <f t="shared" si="78"/>
+        <v>0.56107784431137719</v>
+      </c>
+      <c r="W63" s="15">
+        <f t="shared" si="78"/>
+        <v>0.58798842257597683</v>
+      </c>
+      <c r="X63" s="15">
+        <f t="shared" si="78"/>
+        <v>0.59934115709285563</v>
+      </c>
+      <c r="Y63" s="15">
+        <f t="shared" si="78"/>
+        <v>0.61206896551724133</v>
+      </c>
+      <c r="Z63" s="15">
+        <f t="shared" si="78"/>
+        <v>0.61989375343469499</v>
+      </c>
+      <c r="AA63" s="15">
+        <f t="shared" si="78"/>
+        <v>0.62344827586206897</v>
+      </c>
+      <c r="AB63" s="15">
+        <f t="shared" si="78"/>
+        <v>0.64929033216913135</v>
+      </c>
+      <c r="AC63" s="15">
+        <f t="shared" si="78"/>
+        <v>0.56928894490991322</v>
+      </c>
+      <c r="AD63" s="15">
+        <f t="shared" si="78"/>
+        <v>0.72717573290436954</v>
+      </c>
+      <c r="AE63" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AF63" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AG63" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AH63" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AI63" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AJ63" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AK63" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AL63" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AM63" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AN63" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AO63" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AP63" s="15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J64" s="15" t="e">
+        <f>J43/J36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="15" t="e">
+        <f t="shared" ref="K64:AP64" si="79">K43/K36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L64" s="15" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" s="15" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N64" s="15" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="15" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P64" s="15" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q64" s="15" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R64" s="15" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S64" s="15" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T64" s="15" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U64" s="15" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.14910179640718563</v>
+      </c>
+      <c r="W64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.27988422575976846</v>
+      </c>
+      <c r="X64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.33045089561457691</v>
+      </c>
+      <c r="Y64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.32468419255718678</v>
+      </c>
+      <c r="Z64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.2606704524638212</v>
+      </c>
+      <c r="AA64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.27178410794602698</v>
+      </c>
+      <c r="AB64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.37307720888756779</v>
+      </c>
+      <c r="AC64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.1565952398606065</v>
+      </c>
+      <c r="AD64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.54121663766783756</v>
+      </c>
+      <c r="AE64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.42454424699426507</v>
+      </c>
+      <c r="AF64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.43425695267729092</v>
+      </c>
+      <c r="AG64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.44325404573898913</v>
+      </c>
+      <c r="AH64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.45160251670534934</v>
+      </c>
+      <c r="AI64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.45936222566325036</v>
+      </c>
+      <c r="AJ64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.46658670195585894</v>
+      </c>
+      <c r="AK64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.47332385249192732</v>
+      </c>
+      <c r="AL64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.47961658917944744</v>
+      </c>
+      <c r="AM64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.4855033847826809</v>
+      </c>
+      <c r="AN64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.49101876542988659</v>
+      </c>
+      <c r="AO64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.49619374705097191</v>
+      </c>
+      <c r="AP64" s="15">
+        <f t="shared" si="79"/>
+        <v>0.50105622218554458</v>
       </c>
     </row>
     <row r="65" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>1701</v>
+        <v>1715</v>
       </c>
       <c r="J65" s="15" t="e">
-        <f t="shared" ref="J65:AD65" si="78">J40/J38</f>
+        <f>J49/J36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K65" s="15" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="K65:AP65" si="80">K49/K36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L65" s="15" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M65" s="15" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N65" s="15" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O65" s="15" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P65" s="15" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q65" s="15" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R65" s="15" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S65" s="15" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T65" s="15" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U65" s="15" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V65" s="15">
-        <f t="shared" si="78"/>
-        <v>0.56107784431137719</v>
+        <f t="shared" si="80"/>
+        <v>0.12255489021956088</v>
       </c>
       <c r="W65" s="15">
-        <f t="shared" si="78"/>
-        <v>0.58798842257597683</v>
+        <f t="shared" si="80"/>
+        <v>0.24109985528219971</v>
       </c>
       <c r="X65" s="15">
-        <f t="shared" si="78"/>
-        <v>0.59934115709285563</v>
+        <f t="shared" si="80"/>
+        <v>0.3136709903232448</v>
       </c>
       <c r="Y65" s="15">
-        <f t="shared" si="78"/>
-        <v>0.61206896551724133</v>
+        <f t="shared" si="80"/>
+        <v>0.35344827586206895</v>
       </c>
       <c r="Z65" s="15">
-        <f t="shared" si="78"/>
-        <v>0.61989375343469499</v>
+        <f t="shared" si="80"/>
+        <v>0.25609085913170909</v>
       </c>
       <c r="AA65" s="15">
-        <f t="shared" si="78"/>
-        <v>0.62344827586206897</v>
+        <f t="shared" si="80"/>
+        <v>0.25979010494752625</v>
       </c>
       <c r="AB65" s="15">
-        <f t="shared" si="78"/>
-        <v>0.64929033216913135</v>
+        <f t="shared" si="80"/>
+        <v>0.36233930296499961</v>
       </c>
       <c r="AC65" s="15">
-        <f t="shared" si="78"/>
-        <v>0.56928894490991322</v>
+        <f t="shared" si="80"/>
+        <v>0.16193371394676356</v>
       </c>
       <c r="AD65" s="15">
-        <f t="shared" si="78"/>
-        <v>0.72717573290436954</v>
+        <f t="shared" si="80"/>
+        <v>0.4884934834706674</v>
       </c>
       <c r="AE65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.33963539759541206</v>
       </c>
       <c r="AF65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.34740556214183271</v>
       </c>
       <c r="AG65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.35460323659119131</v>
       </c>
       <c r="AH65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.36128201336427945</v>
       </c>
       <c r="AI65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.36748978053060027</v>
       </c>
       <c r="AJ65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.3732693615646871</v>
       </c>
       <c r="AK65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.37865908199354187</v>
       </c>
       <c r="AL65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.38369327134355796</v>
       </c>
       <c r="AM65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.38840270782614467</v>
       </c>
       <c r="AN65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.39281501234390925</v>
       </c>
       <c r="AO65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.39695499764077752</v>
       </c>
       <c r="AP65" s="15">
-        <v>0.6</v>
+        <f t="shared" si="80"/>
+        <v>0.40084497774843564</v>
       </c>
     </row>
     <row r="66" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>75</v>
+        <v>1717</v>
       </c>
       <c r="J66" s="15" t="e">
-        <f>J45/J38</f>
+        <f>J48/J47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K66" s="15" t="e">
-        <f t="shared" ref="K66:AP66" si="79">K45/K38</f>
+        <f t="shared" ref="K66:AD66" si="81">K48/K47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L66" s="15" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M66" s="15" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N66" s="15" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O66" s="15" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P66" s="15" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="15" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R66" s="15" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S66" s="15" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T66" s="15" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U66" s="15" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.14910179640718563</v>
-      </c>
-      <c r="W66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.27988422575976846</v>
-      </c>
-      <c r="X66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.33045089561457691</v>
-      </c>
-      <c r="Y66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.32468419255718678</v>
-      </c>
-      <c r="Z66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.2606704524638212</v>
-      </c>
-      <c r="AA66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.27178410794602698</v>
-      </c>
-      <c r="AB66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.37307720888756779</v>
-      </c>
-      <c r="AC66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.1565952398606065</v>
-      </c>
-      <c r="AD66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.54121663766783756</v>
-      </c>
-      <c r="AE66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.42454424699426507</v>
-      </c>
-      <c r="AF66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.43425695267729092</v>
-      </c>
-      <c r="AG66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.44325404573898913</v>
-      </c>
-      <c r="AH66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.45160251670534934</v>
-      </c>
-      <c r="AI66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.45936222566325036</v>
-      </c>
-      <c r="AJ66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.46658670195585894</v>
-      </c>
-      <c r="AK66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.47332385249192732</v>
-      </c>
-      <c r="AL66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.47961658917944744</v>
-      </c>
-      <c r="AM66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.4855033847826809</v>
-      </c>
-      <c r="AN66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.49101876542988659</v>
-      </c>
-      <c r="AO66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.49619374705097191</v>
-      </c>
-      <c r="AP66" s="15">
-        <f t="shared" si="79"/>
-        <v>0.50105622218554458</v>
-      </c>
-    </row>
-    <row r="67" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J67" s="15" t="e">
-        <f>J51/J38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K67" s="15" t="e">
-        <f t="shared" ref="K67:AP67" si="80">K51/K38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L67" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M67" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N67" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O67" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P67" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q67" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R67" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S67" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T67" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U67" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.12255489021956088</v>
-      </c>
-      <c r="W67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.24109985528219971</v>
-      </c>
-      <c r="X67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.3136709903232448</v>
-      </c>
-      <c r="Y67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.35344827586206895</v>
-      </c>
-      <c r="Z67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.25609085913170909</v>
-      </c>
-      <c r="AA67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.25979010494752625</v>
-      </c>
-      <c r="AB67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.36233930296499961</v>
-      </c>
-      <c r="AC67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.16193371394676356</v>
-      </c>
-      <c r="AD67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.4884934834706674</v>
-      </c>
-      <c r="AE67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.33963539759541206</v>
-      </c>
-      <c r="AF67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.34740556214183271</v>
-      </c>
-      <c r="AG67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.35460323659119131</v>
-      </c>
-      <c r="AH67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.36128201336427945</v>
-      </c>
-      <c r="AI67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.36748978053060027</v>
-      </c>
-      <c r="AJ67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.3732693615646871</v>
-      </c>
-      <c r="AK67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.37865908199354187</v>
-      </c>
-      <c r="AL67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.38369327134355796</v>
-      </c>
-      <c r="AM67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.38840270782614467</v>
-      </c>
-      <c r="AN67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.39281501234390925</v>
-      </c>
-      <c r="AO67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.39695499764077752</v>
-      </c>
-      <c r="AP67" s="15">
-        <f t="shared" si="80"/>
-        <v>0.40084497774843564</v>
-      </c>
-    </row>
-    <row r="68" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>1717</v>
-      </c>
-      <c r="J68" s="15" t="e">
-        <f>J50/J49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K68" s="15" t="e">
-        <f t="shared" ref="K68:AD68" si="81">K50/K49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L68" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M68" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N68" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O68" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P68" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q68" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R68" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S68" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T68" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U68" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V68" s="15">
         <f t="shared" si="81"/>
         <v>0.17362045760430686</v>
       </c>
-      <c r="W68" s="15">
+      <c r="W66" s="15">
         <f t="shared" si="81"/>
         <v>0.12545931758530185</v>
       </c>
-      <c r="X68" s="15">
+      <c r="X66" s="15">
         <f t="shared" si="81"/>
         <v>4.6620775969962454E-2</v>
       </c>
-      <c r="Y68" s="15">
+      <c r="Y66" s="15">
         <f t="shared" si="81"/>
         <v>-6.2885010266940447E-2</v>
       </c>
-      <c r="Z68" s="15">
+      <c r="Z66" s="15">
         <f t="shared" si="81"/>
         <v>5.8585858585858588E-2</v>
       </c>
-      <c r="AA68" s="15">
+      <c r="AA66" s="15">
         <f t="shared" si="81"/>
         <v>1.7464277613971423E-2</v>
       </c>
-      <c r="AB68" s="15">
+      <c r="AB66" s="15">
         <f t="shared" si="81"/>
         <v>1.9012171813700834E-2</v>
       </c>
-      <c r="AC68" s="15">
+      <c r="AC66" s="15">
         <f t="shared" si="81"/>
         <v>-4.4726142071274816E-2</v>
       </c>
-      <c r="AD68" s="15">
+      <c r="AD66" s="15">
         <f t="shared" si="81"/>
         <v>0.1199952687917677</v>
       </c>
-      <c r="AE68" s="15">
+      <c r="AE66" s="15">
         <v>0.2</v>
       </c>
-      <c r="AF68" s="15">
+      <c r="AF66" s="15">
         <v>0.2</v>
       </c>
-      <c r="AG68" s="15">
+      <c r="AG66" s="15">
         <v>0.2</v>
       </c>
-      <c r="AH68" s="15">
+      <c r="AH66" s="15">
         <v>0.2</v>
       </c>
-      <c r="AI68" s="15">
+      <c r="AI66" s="15">
         <v>0.2</v>
       </c>
-      <c r="AJ68" s="15">
+      <c r="AJ66" s="15">
         <v>0.2</v>
       </c>
-      <c r="AK68" s="15">
+      <c r="AK66" s="15">
         <v>0.2</v>
       </c>
-      <c r="AL68" s="15">
+      <c r="AL66" s="15">
         <v>0.2</v>
       </c>
-      <c r="AM68" s="15">
+      <c r="AM66" s="15">
         <v>0.2</v>
       </c>
-      <c r="AN68" s="15">
+      <c r="AN66" s="15">
         <v>0.2</v>
       </c>
-      <c r="AO68" s="15">
+      <c r="AO66" s="15">
         <v>0.2</v>
       </c>
-      <c r="AP68" s="15">
+      <c r="AP66" s="15">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="AS70" s="9" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT70" s="9"/>
+      <c r="AU70" s="9"/>
+      <c r="AV70" s="9"/>
+    </row>
+    <row r="71" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="AS71" s="52" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AT71" s="15">
+        <v>0.01</v>
       </c>
     </row>
     <row r="72" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="AS72" s="9" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT72" s="9"/>
-      <c r="AU72" s="9"/>
-      <c r="AV72" s="9"/>
+      <c r="AS72" s="52" t="s">
+        <v>1719</v>
+      </c>
+      <c r="AT72" s="15">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="73" spans="2:48" x14ac:dyDescent="0.35">
       <c r="AS73" s="52" t="s">
-        <v>1718</v>
-      </c>
-      <c r="AT73" s="15">
-        <v>0.01</v>
+        <v>1720</v>
+      </c>
+      <c r="AT73" s="54">
+        <f>NPV(AT72,AE49:CP49)</f>
+        <v>2986594.0807834635</v>
       </c>
     </row>
     <row r="74" spans="2:48" x14ac:dyDescent="0.35">
       <c r="AS74" s="52" t="s">
-        <v>1719</v>
-      </c>
-      <c r="AT74" s="15">
-        <v>0.1</v>
+        <v>1721</v>
+      </c>
+      <c r="AT74" s="55">
+        <f>AT73/AP53/10</f>
+        <v>120.96371327596046</v>
       </c>
     </row>
     <row r="75" spans="2:48" x14ac:dyDescent="0.35">
       <c r="AS75" s="52" t="s">
-        <v>1720</v>
-      </c>
-      <c r="AT75" s="55">
-        <f>NPV(AT74,AE51:CP51)</f>
-        <v>2986594.0807834635</v>
+        <v>1722</v>
+      </c>
+      <c r="AT75" s="56" cm="1">
+        <f t="array" ref="AT75">_FV(AS70,"Price")</f>
+        <v>113.06</v>
       </c>
     </row>
     <row r="76" spans="2:48" x14ac:dyDescent="0.35">
       <c r="AS76" s="52" t="s">
-        <v>1721</v>
-      </c>
-      <c r="AT76" s="54">
-        <f>AT75/AP55/10</f>
-        <v>120.96371327596046</v>
-      </c>
-    </row>
-    <row r="77" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="AS77" s="52" t="s">
-        <v>1722</v>
-      </c>
-      <c r="AT77" s="2" cm="1">
-        <f t="array" ref="AT77">_FV(AS72,"Price")</f>
-        <v>113.06</v>
-      </c>
-    </row>
-    <row r="78" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="AS78" s="52" t="s">
         <v>1723</v>
       </c>
-      <c r="AT78" s="15">
-        <f>AT76/AT77-1</f>
+      <c r="AT76" s="15">
+        <f>AT74/AT75-1</f>
         <v>6.9907246382101995E-2</v>
       </c>
     </row>

--- a/NVDA/NVDA.xlsx
+++ b/NVDA/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/NVDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1950" documentId="11_60E75B87F94EC339A3CE5EC2F11D231891AC5B93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A7AD85A-595B-4008-A0F3-BE1E10252BE6}"/>
+  <xr:revisionPtr revIDLastSave="2102" documentId="11_60E75B87F94EC339A3CE5EC2F11D231891AC5B93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBD257A5-2AA3-418F-A004-4B2E1A6FE0A4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1330" yWindow="1450" windowWidth="29050" windowHeight="19020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="1724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="1724">
   <si>
     <t>Price</t>
   </si>
@@ -5279,9 +5279,6 @@
     <t>Mix</t>
   </si>
   <si>
-    <t>Profit Margin</t>
-  </si>
-  <si>
     <t>FORECAST</t>
   </si>
   <si>
@@ -5297,13 +5294,16 @@
     <t>NPV</t>
   </si>
   <si>
-    <t>Price/Share</t>
-  </si>
-  <si>
     <t>Current Price</t>
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>OpEx/Revenue</t>
+  </si>
+  <si>
+    <t>Forecast Price</t>
   </si>
 </sst>
 </file>
@@ -5559,7 +5559,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5742,9 +5742,11 @@
     <v>4</v>
     <v>140.76</v>
     <v>39.229999999999997</v>
-    <v>1.6897</v>
-    <v>0.78</v>
-    <v>6.9470000000000001E-3</v>
+    <v>1.6801999999999999</v>
+    <v>-7.81</v>
+    <v>-1.0163999999999999E-2</v>
+    <v>-6.6740999999999995E-2</v>
+    <v>-1.1100000000000001</v>
     <v>USD</v>
     <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company accelerates computing to help solve the computational problems. The Company’s segments include Compute &amp; Networking and Graphics. Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI), cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; NVIDIA AI Enterprise and other software. The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>29600</v>
@@ -5752,24 +5754,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>116.2</v>
+    <v>120.16</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45499.999996631253</v>
+    <v>45505.999998402345</v>
     <v>3</v>
-    <v>111.58</v>
-    <v>2781276000000</v>
+    <v>106.8104</v>
+    <v>2551758000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>116.19</v>
-    <v>66.168000000000006</v>
-    <v>112.28</v>
-    <v>113.06</v>
+    <v>117.53</v>
+    <v>63.9148</v>
+    <v>117.02</v>
+    <v>109.21</v>
+    <v>108.1</v>
     <v>24600000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>363935</v>
-    <v>316467997</v>
+    <v>523462326</v>
+    <v>293526284</v>
     <v>1998</v>
   </rv>
   <rv s="4">
@@ -5809,7 +5812,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -5830,6 +5835,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -5846,7 +5852,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -5857,13 +5863,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -5929,13 +5938,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -5980,6 +5995,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -5987,6 +6005,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -24724,19 +24745,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FB248-A3C3-4C3B-9EF4-109AC0AB356C}">
-  <dimension ref="B1:CP76"/>
+  <dimension ref="B1:CP81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AN55" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AD53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AQ72" sqref="AQ72"/>
+      <selection pane="bottomRight" activeCell="AJ72" sqref="AJ72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21.453125" customWidth="1"/>
     <col min="22" max="30" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11.81640625" customWidth="1"/>
     <col min="46" max="46" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -25069,7 +25092,7 @@
         <v>45343</v>
       </c>
       <c r="AE2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="3" spans="2:94" x14ac:dyDescent="0.35">
@@ -27257,7 +27280,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:94" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>1711</v>
       </c>
@@ -27394,15 +27417,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:94" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:94" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="36" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:94" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="21" t="s">
         <v>21</v>
       </c>
@@ -27434,55 +27457,263 @@
         <v>60922</v>
       </c>
       <c r="AE36" s="21">
-        <f>AD36*1.3</f>
-        <v>79198.600000000006</v>
+        <f>AD36*(1+AE56)</f>
+        <v>82244.700000000012</v>
       </c>
       <c r="AF36" s="21">
-        <f t="shared" ref="AF36:AP36" si="60">AE36*1.3</f>
-        <v>102958.18000000001</v>
+        <f t="shared" ref="AF36:AP36" si="60">AE36*(1+AF56)</f>
+        <v>111030.34500000003</v>
       </c>
       <c r="AG36" s="21">
         <f t="shared" si="60"/>
-        <v>133845.63400000002</v>
+        <v>149890.96575000006</v>
       </c>
       <c r="AH36" s="21">
         <f t="shared" si="60"/>
-        <v>173999.32420000003</v>
+        <v>202352.80376250009</v>
       </c>
       <c r="AI36" s="21">
         <f t="shared" si="60"/>
-        <v>226199.12146000005</v>
+        <v>273176.28507937514</v>
       </c>
       <c r="AJ36" s="21">
         <f t="shared" si="60"/>
-        <v>294058.8578980001</v>
+        <v>355129.1706031877</v>
       </c>
       <c r="AK36" s="21">
         <f t="shared" si="60"/>
-        <v>382276.51526740013</v>
+        <v>461667.92178414401</v>
       </c>
       <c r="AL36" s="21">
         <f t="shared" si="60"/>
-        <v>496959.46984762017</v>
+        <v>600168.29831938725</v>
       </c>
       <c r="AM36" s="21">
         <f t="shared" si="60"/>
-        <v>646047.31080190628</v>
+        <v>780218.78781520342</v>
       </c>
       <c r="AN36" s="21">
         <f t="shared" si="60"/>
-        <v>839861.50404247816</v>
+        <v>1014284.4241597644</v>
       </c>
       <c r="AO36" s="21">
         <f t="shared" si="60"/>
-        <v>1091819.9552552216</v>
+        <v>1318569.7514076938</v>
       </c>
       <c r="AP36" s="21">
         <f t="shared" si="60"/>
-        <v>1419365.941831788</v>
+        <v>1714140.6768300021</v>
+      </c>
+      <c r="AQ36" s="21">
+        <f>AP36*(1+AG76)</f>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="AR36" s="21">
+        <f t="shared" ref="AR36:CP36" si="61">AQ36*(1+AH76)</f>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="AS36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="AT36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="AU36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="AV36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="AW36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="AX36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="AY36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="AZ36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BA36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BB36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BC36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BD36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BE36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BF36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BG36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BH36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BI36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BJ36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BK36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BL36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BM36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BN36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BO36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BP36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BQ36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BR36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BS36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BT36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BU36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BV36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BW36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BX36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BY36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="BZ36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CA36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CB36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CC36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CD36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CE36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CF36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CG36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CH36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CI36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CJ36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CK36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CL36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CM36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CN36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CO36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
+      </c>
+      <c r="CP36" s="21">
+        <f t="shared" si="61"/>
+        <v>1731282.0835983022</v>
       </c>
     </row>
-    <row r="37" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:94" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="20" t="s">
         <v>48</v>
       </c>
@@ -27514,7 +27745,7 @@
         <v>16621</v>
       </c>
     </row>
-    <row r="38" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:94" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="21" t="s">
         <v>49</v>
       </c>
@@ -27523,135 +27754,135 @@
         <v>0</v>
       </c>
       <c r="K38" s="21">
-        <f t="shared" ref="K38:AD38" si="61">K36-K37</f>
+        <f t="shared" ref="K38:AD38" si="62">K36-K37</f>
         <v>0</v>
       </c>
       <c r="L38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="M38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="N38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="P38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Q38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="S38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="U38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="V38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>2811</v>
       </c>
       <c r="W38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>4063</v>
       </c>
       <c r="X38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>5822</v>
       </c>
       <c r="Y38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>7171</v>
       </c>
       <c r="Z38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>6768</v>
       </c>
       <c r="AA38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>10396</v>
       </c>
       <c r="AB38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>17475</v>
       </c>
       <c r="AC38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>15356</v>
       </c>
       <c r="AD38" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>44301</v>
       </c>
       <c r="AE38" s="21">
-        <f>AE36*AE63</f>
-        <v>47519.16</v>
+        <f>AE36*AE58</f>
+        <v>49346.820000000007</v>
       </c>
       <c r="AF38" s="21">
-        <f t="shared" ref="AF38:AP38" si="62">AF36*AF63</f>
-        <v>61774.908000000003</v>
+        <f>AF36*AF58</f>
+        <v>66618.207000000009</v>
       </c>
       <c r="AG38" s="21">
-        <f t="shared" si="62"/>
-        <v>80307.380400000009</v>
+        <f>AG36*AG58</f>
+        <v>89934.579450000034</v>
       </c>
       <c r="AH38" s="21">
-        <f t="shared" si="62"/>
-        <v>104399.59452000001</v>
+        <f>AH36*AH58</f>
+        <v>121411.68225750004</v>
       </c>
       <c r="AI38" s="21">
-        <f t="shared" si="62"/>
-        <v>135719.47287600001</v>
+        <f>AI36*AI58</f>
+        <v>163905.77104762508</v>
       </c>
       <c r="AJ38" s="21">
-        <f t="shared" si="62"/>
-        <v>176435.31473880005</v>
+        <f>AJ36*AJ58</f>
+        <v>213077.5023619126</v>
       </c>
       <c r="AK38" s="21">
-        <f t="shared" si="62"/>
-        <v>229365.90916044006</v>
+        <f>AK36*AK58</f>
+        <v>277000.75307048642</v>
       </c>
       <c r="AL38" s="21">
-        <f t="shared" si="62"/>
-        <v>298175.68190857209</v>
+        <f>AL36*AL58</f>
+        <v>360100.97899163235</v>
       </c>
       <c r="AM38" s="21">
-        <f t="shared" si="62"/>
-        <v>387628.38648114377</v>
+        <f>AM36*AM58</f>
+        <v>468131.27268912207</v>
       </c>
       <c r="AN38" s="21">
-        <f t="shared" si="62"/>
-        <v>503916.90242548689</v>
+        <f>AN36*AN58</f>
+        <v>608570.65449585859</v>
       </c>
       <c r="AO38" s="21">
-        <f t="shared" si="62"/>
-        <v>655091.97315313295</v>
+        <f>AO36*AO58</f>
+        <v>791141.8508446163</v>
       </c>
       <c r="AP38" s="21">
-        <f t="shared" si="62"/>
-        <v>851619.56509907276</v>
+        <f>AP36*AP58</f>
+        <v>1028484.4060980012</v>
       </c>
     </row>
-    <row r="39" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
@@ -27683,55 +27914,55 @@
         <v>8675</v>
       </c>
       <c r="AE39" s="3">
-        <f>AD39*1.25</f>
-        <v>10843.75</v>
+        <f>AE36*AE61</f>
+        <v>18093.834000000003</v>
       </c>
       <c r="AF39" s="3">
-        <f t="shared" ref="AF39:AP39" si="63">AE39*1.25</f>
-        <v>13554.6875</v>
+        <f>AF36*AF61</f>
+        <v>24426.675900000006</v>
       </c>
       <c r="AG39" s="3">
-        <f t="shared" si="63"/>
-        <v>16943.359375</v>
+        <f>AG36*AG61</f>
+        <v>32976.012465000014</v>
       </c>
       <c r="AH39" s="3">
-        <f t="shared" si="63"/>
-        <v>21179.19921875</v>
+        <f>AH36*AH61</f>
+        <v>44517.616827750018</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" si="63"/>
-        <v>26473.9990234375</v>
+        <f>AI36*AI61</f>
+        <v>60098.782717462534</v>
       </c>
       <c r="AJ39" s="3">
-        <f t="shared" si="63"/>
-        <v>33092.498779296875</v>
+        <f>AJ36*AJ61</f>
+        <v>60371.959002541909</v>
       </c>
       <c r="AK39" s="3">
-        <f t="shared" si="63"/>
-        <v>41365.623474121094</v>
+        <f>AK36*AK61</f>
+        <v>78483.546703304484</v>
       </c>
       <c r="AL39" s="3">
-        <f t="shared" si="63"/>
-        <v>51707.029342651367</v>
+        <f>AL36*AL61</f>
+        <v>102028.61071429584</v>
       </c>
       <c r="AM39" s="3">
-        <f t="shared" si="63"/>
-        <v>64633.786678314209</v>
+        <f>AM36*AM61</f>
+        <v>132637.1939285846</v>
       </c>
       <c r="AN39" s="3">
-        <f t="shared" si="63"/>
-        <v>80792.233347892761</v>
+        <f>AN36*AN61</f>
+        <v>172428.35210715997</v>
       </c>
       <c r="AO39" s="3">
-        <f t="shared" si="63"/>
-        <v>100990.29168486595</v>
+        <f>AO36*AO61</f>
+        <v>224156.85773930798</v>
       </c>
       <c r="AP39" s="3">
-        <f t="shared" si="63"/>
-        <v>126237.86460608244</v>
+        <f>AP36*AP61</f>
+        <v>291403.91506110039</v>
       </c>
     </row>
-    <row r="40" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
@@ -27763,55 +27994,55 @@
         <v>2654</v>
       </c>
       <c r="AE40" s="3">
-        <f>AD40*1.15</f>
-        <v>3052.1</v>
+        <f>AE36*AE62</f>
+        <v>7402.023000000001</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" ref="AF40:AP40" si="64">AE40*1.15</f>
-        <v>3509.9149999999995</v>
+        <f>AF36*AF62</f>
+        <v>9992.7310500000021</v>
       </c>
       <c r="AG40" s="3">
-        <f t="shared" si="64"/>
-        <v>4036.4022499999992</v>
+        <f>AG36*AG62</f>
+        <v>13490.186917500005</v>
       </c>
       <c r="AH40" s="3">
-        <f t="shared" si="64"/>
-        <v>4641.8625874999989</v>
+        <f>AH36*AH62</f>
+        <v>18211.752338625007</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="64"/>
-        <v>5338.1419756249979</v>
+        <f>AI36*AI62</f>
+        <v>24585.86565714376</v>
       </c>
       <c r="AJ40" s="3">
-        <f t="shared" si="64"/>
-        <v>6138.8632719687475</v>
+        <f>AJ36*AJ62</f>
+        <v>24859.041942223143</v>
       </c>
       <c r="AK40" s="3">
-        <f t="shared" si="64"/>
-        <v>7059.6927627640589</v>
+        <f>AK36*AK62</f>
+        <v>32316.754524890082</v>
       </c>
       <c r="AL40" s="3">
-        <f t="shared" si="64"/>
-        <v>8118.6466771786672</v>
+        <f>AL36*AL62</f>
+        <v>42011.78088235711</v>
       </c>
       <c r="AM40" s="3">
-        <f t="shared" si="64"/>
-        <v>9336.443678755466</v>
+        <f>AM36*AM62</f>
+        <v>54615.315147064248</v>
       </c>
       <c r="AN40" s="3">
-        <f t="shared" si="64"/>
-        <v>10736.910230568785</v>
+        <f>AN36*AN62</f>
+        <v>70999.909691183522</v>
       </c>
       <c r="AO40" s="3">
-        <f t="shared" si="64"/>
-        <v>12347.446765154102</v>
+        <f>AO36*AO62</f>
+        <v>92299.882598538577</v>
       </c>
       <c r="AP40" s="3">
-        <f t="shared" si="64"/>
-        <v>14199.563779927215</v>
+        <f>AP36*AP62</f>
+        <v>119989.84737810015</v>
       </c>
     </row>
-    <row r="41" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:94" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
         <v>53</v>
       </c>
@@ -27879,7 +28110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:42" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:94" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="30" t="s">
         <v>1708</v>
       </c>
@@ -27888,135 +28119,135 @@
         <v>0</v>
       </c>
       <c r="K42" s="30">
-        <f t="shared" ref="K42:AP42" si="65">SUM(K39:K41)</f>
+        <f t="shared" ref="K42:AP42" si="63">SUM(K39:K41)</f>
         <v>0</v>
       </c>
       <c r="L42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="M42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="N42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Q42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="R42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="S42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="U42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="V42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>2064</v>
       </c>
       <c r="W42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>2129</v>
       </c>
       <c r="X42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>2612</v>
       </c>
       <c r="Y42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>3367</v>
       </c>
       <c r="Z42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>3922</v>
       </c>
       <c r="AA42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>5864</v>
       </c>
       <c r="AB42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>7434</v>
       </c>
       <c r="AC42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>11132</v>
       </c>
       <c r="AD42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>11329</v>
       </c>
       <c r="AE42" s="30">
-        <f t="shared" si="65"/>
-        <v>13895.85</v>
+        <f t="shared" si="63"/>
+        <v>25495.857000000004</v>
       </c>
       <c r="AF42" s="30">
-        <f t="shared" si="65"/>
-        <v>17064.602500000001</v>
+        <f t="shared" si="63"/>
+        <v>34419.406950000004</v>
       </c>
       <c r="AG42" s="30">
-        <f t="shared" si="65"/>
-        <v>20979.761624999999</v>
+        <f t="shared" si="63"/>
+        <v>46466.199382500017</v>
       </c>
       <c r="AH42" s="30">
-        <f t="shared" si="65"/>
-        <v>25821.06180625</v>
+        <f t="shared" si="63"/>
+        <v>62729.369166375021</v>
       </c>
       <c r="AI42" s="30">
-        <f t="shared" si="65"/>
-        <v>31812.140999062496</v>
+        <f t="shared" si="63"/>
+        <v>84684.648374606302</v>
       </c>
       <c r="AJ42" s="30">
-        <f t="shared" si="65"/>
-        <v>39231.36205126562</v>
+        <f t="shared" si="63"/>
+        <v>85231.000944765052</v>
       </c>
       <c r="AK42" s="30">
-        <f t="shared" si="65"/>
-        <v>48425.316236885155</v>
+        <f t="shared" si="63"/>
+        <v>110800.30122819457</v>
       </c>
       <c r="AL42" s="30">
-        <f t="shared" si="65"/>
-        <v>59825.676019830033</v>
+        <f t="shared" si="63"/>
+        <v>144040.39159665295</v>
       </c>
       <c r="AM42" s="30">
-        <f t="shared" si="65"/>
-        <v>73970.230357069668</v>
+        <f t="shared" si="63"/>
+        <v>187252.50907564885</v>
       </c>
       <c r="AN42" s="30">
-        <f t="shared" si="65"/>
-        <v>91529.143578461546</v>
+        <f t="shared" si="63"/>
+        <v>243428.2617983435</v>
       </c>
       <c r="AO42" s="30">
-        <f t="shared" si="65"/>
-        <v>113337.73845002006</v>
+        <f t="shared" si="63"/>
+        <v>316456.74033784657</v>
       </c>
       <c r="AP42" s="30">
-        <f t="shared" si="65"/>
-        <v>140437.42838600965</v>
+        <f t="shared" si="63"/>
+        <v>411393.76243920054</v>
       </c>
     </row>
-    <row r="43" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3" t="s">
         <v>23</v>
       </c>
@@ -28025,135 +28256,135 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" ref="K43:AP43" si="66">K38-K42</f>
+        <f t="shared" ref="K43:AP43" si="64">K38-K42</f>
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>747</v>
       </c>
       <c r="W43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>1934</v>
       </c>
       <c r="X43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>3210</v>
       </c>
       <c r="Y43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>3804</v>
       </c>
       <c r="Z43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>2846</v>
       </c>
       <c r="AA43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>4532</v>
       </c>
       <c r="AB43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>10041</v>
       </c>
       <c r="AC43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>4224</v>
       </c>
       <c r="AD43" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>32972</v>
       </c>
       <c r="AE43" s="3">
-        <f t="shared" si="66"/>
-        <v>33623.310000000005</v>
+        <f t="shared" si="64"/>
+        <v>23850.963000000003</v>
       </c>
       <c r="AF43" s="3">
-        <f t="shared" si="66"/>
-        <v>44710.305500000002</v>
+        <f t="shared" si="64"/>
+        <v>32198.800050000005</v>
       </c>
       <c r="AG43" s="3">
-        <f t="shared" si="66"/>
-        <v>59327.61877500001</v>
+        <f t="shared" si="64"/>
+        <v>43468.380067500017</v>
       </c>
       <c r="AH43" s="3">
-        <f t="shared" si="66"/>
-        <v>78578.532713750013</v>
+        <f t="shared" si="64"/>
+        <v>58682.313091125019</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" si="66"/>
-        <v>103907.33187693752</v>
+        <f t="shared" si="64"/>
+        <v>79221.122673018777</v>
       </c>
       <c r="AJ43" s="3">
-        <f t="shared" si="66"/>
-        <v>137203.95268753445</v>
+        <f t="shared" si="64"/>
+        <v>127846.50141714755</v>
       </c>
       <c r="AK43" s="3">
-        <f t="shared" si="66"/>
-        <v>180940.59292355491</v>
+        <f t="shared" si="64"/>
+        <v>166200.45184229186</v>
       </c>
       <c r="AL43" s="3">
-        <f t="shared" si="66"/>
-        <v>238350.00588874205</v>
+        <f t="shared" si="64"/>
+        <v>216060.5873949794</v>
       </c>
       <c r="AM43" s="3">
-        <f t="shared" si="66"/>
-        <v>313658.15612407413</v>
+        <f t="shared" si="64"/>
+        <v>280878.76361347322</v>
       </c>
       <c r="AN43" s="3">
-        <f t="shared" si="66"/>
-        <v>412387.75884702534</v>
+        <f t="shared" si="64"/>
+        <v>365142.39269751508</v>
       </c>
       <c r="AO43" s="3">
-        <f t="shared" si="66"/>
-        <v>541754.23470311286</v>
+        <f t="shared" si="64"/>
+        <v>474685.11050676974</v>
       </c>
       <c r="AP43" s="3">
-        <f t="shared" si="66"/>
-        <v>711182.13671306311</v>
+        <f t="shared" si="64"/>
+        <v>617090.64365880063</v>
       </c>
     </row>
-    <row r="44" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
         <v>56</v>
       </c>
@@ -28221,7 +28452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
@@ -28289,7 +28520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:94" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="20" t="s">
         <v>1709</v>
       </c>
@@ -28357,7 +28588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
         <v>1710</v>
       </c>
@@ -28366,135 +28597,135 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" ref="K47:AP47" si="67">K43+SUM(K44:K46)</f>
+        <f t="shared" ref="K47:AP47" si="65">K43+SUM(K44:K46)</f>
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>743</v>
       </c>
       <c r="W47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>1905</v>
       </c>
       <c r="X47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>3196</v>
       </c>
       <c r="Y47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>3896</v>
       </c>
       <c r="Z47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>2970</v>
       </c>
       <c r="AA47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>4409</v>
       </c>
       <c r="AB47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>9941</v>
       </c>
       <c r="AC47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>4181</v>
       </c>
       <c r="AD47" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>33818</v>
       </c>
       <c r="AE47" s="3">
-        <f t="shared" si="67"/>
-        <v>33623.310000000005</v>
+        <f t="shared" si="65"/>
+        <v>23850.963000000003</v>
       </c>
       <c r="AF47" s="3">
-        <f t="shared" si="67"/>
-        <v>44710.305500000002</v>
+        <f t="shared" si="65"/>
+        <v>32198.800050000005</v>
       </c>
       <c r="AG47" s="3">
-        <f t="shared" si="67"/>
-        <v>59327.61877500001</v>
+        <f t="shared" si="65"/>
+        <v>43468.380067500017</v>
       </c>
       <c r="AH47" s="3">
-        <f t="shared" si="67"/>
-        <v>78578.532713750013</v>
+        <f t="shared" si="65"/>
+        <v>58682.313091125019</v>
       </c>
       <c r="AI47" s="3">
-        <f t="shared" si="67"/>
-        <v>103907.33187693752</v>
+        <f t="shared" si="65"/>
+        <v>79221.122673018777</v>
       </c>
       <c r="AJ47" s="3">
-        <f t="shared" si="67"/>
-        <v>137203.95268753445</v>
+        <f t="shared" si="65"/>
+        <v>127846.50141714755</v>
       </c>
       <c r="AK47" s="3">
-        <f t="shared" si="67"/>
-        <v>180940.59292355491</v>
+        <f t="shared" si="65"/>
+        <v>166200.45184229186</v>
       </c>
       <c r="AL47" s="3">
-        <f t="shared" si="67"/>
-        <v>238350.00588874205</v>
+        <f t="shared" si="65"/>
+        <v>216060.5873949794</v>
       </c>
       <c r="AM47" s="3">
-        <f t="shared" si="67"/>
-        <v>313658.15612407413</v>
+        <f t="shared" si="65"/>
+        <v>280878.76361347322</v>
       </c>
       <c r="AN47" s="3">
-        <f t="shared" si="67"/>
-        <v>412387.75884702534</v>
+        <f t="shared" si="65"/>
+        <v>365142.39269751508</v>
       </c>
       <c r="AO47" s="3">
-        <f t="shared" si="67"/>
-        <v>541754.23470311286</v>
+        <f t="shared" si="65"/>
+        <v>474685.11050676974</v>
       </c>
       <c r="AP47" s="3">
-        <f t="shared" si="67"/>
-        <v>711182.13671306311</v>
+        <f t="shared" si="65"/>
+        <v>617090.64365880063</v>
       </c>
     </row>
-    <row r="48" spans="2:42" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:94" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="20" t="s">
         <v>61</v>
       </c>
@@ -28526,52 +28757,52 @@
         <v>4058</v>
       </c>
       <c r="AE48" s="20">
-        <f>AE47*AE66</f>
-        <v>6724.6620000000012</v>
+        <f>AE47*AE59</f>
+        <v>4770.1926000000012</v>
       </c>
       <c r="AF48" s="20">
-        <f t="shared" ref="AF48:AP48" si="68">AF47*AF66</f>
-        <v>8942.0611000000008</v>
+        <f>AF47*AF59</f>
+        <v>6439.7600100000018</v>
       </c>
       <c r="AG48" s="20">
-        <f t="shared" si="68"/>
-        <v>11865.523755000002</v>
+        <f>AG47*AG59</f>
+        <v>8693.676013500004</v>
       </c>
       <c r="AH48" s="20">
-        <f t="shared" si="68"/>
-        <v>15715.706542750004</v>
+        <f>AH47*AH59</f>
+        <v>11736.462618225005</v>
       </c>
       <c r="AI48" s="20">
-        <f t="shared" si="68"/>
-        <v>20781.466375387507</v>
+        <f>AI47*AI59</f>
+        <v>15844.224534603756</v>
       </c>
       <c r="AJ48" s="20">
-        <f t="shared" si="68"/>
-        <v>27440.790537506891</v>
+        <f>AJ47*AJ59</f>
+        <v>25569.300283429511</v>
       </c>
       <c r="AK48" s="20">
-        <f t="shared" si="68"/>
-        <v>36188.118584710981</v>
+        <f>AK47*AK59</f>
+        <v>33240.090368458375</v>
       </c>
       <c r="AL48" s="20">
-        <f t="shared" si="68"/>
-        <v>47670.001177748411</v>
+        <f>AL47*AL59</f>
+        <v>43212.117478995882</v>
       </c>
       <c r="AM48" s="20">
-        <f t="shared" si="68"/>
-        <v>62731.631224814832</v>
+        <f>AM47*AM59</f>
+        <v>56175.752722694648</v>
       </c>
       <c r="AN48" s="20">
-        <f t="shared" si="68"/>
-        <v>82477.55176940508</v>
+        <f>AN47*AN59</f>
+        <v>73028.478539503019</v>
       </c>
       <c r="AO48" s="20">
-        <f t="shared" si="68"/>
-        <v>108350.84694062258</v>
+        <f>AO47*AO59</f>
+        <v>94937.022101353956</v>
       </c>
       <c r="AP48" s="20">
-        <f t="shared" si="68"/>
-        <v>142236.42734261262</v>
+        <f>AP47*AP59</f>
+        <v>123418.12873176014</v>
       </c>
     </row>
     <row r="49" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -28583,340 +28814,340 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" ref="K49:AP49" si="69">K47-K48</f>
+        <f t="shared" ref="K49:AP49" si="66">K47-K48</f>
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="V49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>614</v>
       </c>
       <c r="W49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>1666</v>
       </c>
       <c r="X49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>3047</v>
       </c>
       <c r="Y49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>4141</v>
       </c>
       <c r="Z49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>2796</v>
       </c>
       <c r="AA49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>4332</v>
       </c>
       <c r="AB49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>9752</v>
       </c>
       <c r="AC49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>4368</v>
       </c>
       <c r="AD49" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>29760</v>
       </c>
       <c r="AE49" s="3">
-        <f t="shared" si="69"/>
-        <v>26898.648000000005</v>
+        <f t="shared" si="66"/>
+        <v>19080.770400000001</v>
       </c>
       <c r="AF49" s="3">
-        <f t="shared" si="69"/>
-        <v>35768.244400000003</v>
+        <f t="shared" si="66"/>
+        <v>25759.040040000004</v>
       </c>
       <c r="AG49" s="3">
-        <f t="shared" si="69"/>
-        <v>47462.095020000008</v>
+        <f t="shared" si="66"/>
+        <v>34774.704054000016</v>
       </c>
       <c r="AH49" s="3">
-        <f t="shared" si="69"/>
-        <v>62862.826171000008</v>
+        <f t="shared" si="66"/>
+        <v>46945.850472900012</v>
       </c>
       <c r="AI49" s="3">
-        <f t="shared" si="69"/>
-        <v>83125.865501550012</v>
+        <f t="shared" si="66"/>
+        <v>63376.898138415025</v>
       </c>
       <c r="AJ49" s="3">
-        <f t="shared" si="69"/>
-        <v>109763.16215002755</v>
+        <f t="shared" si="66"/>
+        <v>102277.20113371804</v>
       </c>
       <c r="AK49" s="3">
-        <f t="shared" si="69"/>
-        <v>144752.47433884392</v>
+        <f t="shared" si="66"/>
+        <v>132960.3614738335</v>
       </c>
       <c r="AL49" s="3">
-        <f t="shared" si="69"/>
-        <v>190680.00471099364</v>
+        <f t="shared" si="66"/>
+        <v>172848.46991598353</v>
       </c>
       <c r="AM49" s="3">
-        <f t="shared" si="69"/>
-        <v>250926.5248992593</v>
+        <f t="shared" si="66"/>
+        <v>224703.01089077856</v>
       </c>
       <c r="AN49" s="3">
-        <f t="shared" si="69"/>
-        <v>329910.20707762026</v>
+        <f t="shared" si="66"/>
+        <v>292113.91415801208</v>
       </c>
       <c r="AO49" s="3">
-        <f t="shared" si="69"/>
-        <v>433403.38776249031</v>
+        <f t="shared" si="66"/>
+        <v>379748.08840541577</v>
       </c>
       <c r="AP49" s="3">
-        <f t="shared" si="69"/>
-        <v>568945.70937045047</v>
+        <f t="shared" si="66"/>
+        <v>493672.51492704049</v>
       </c>
       <c r="AQ49" s="3">
-        <f>AP49*(1+$AT$71)</f>
-        <v>574635.16646415496</v>
+        <f>AP49*(1+$AG$67)</f>
+        <v>498609.24007631093</v>
       </c>
       <c r="AR49" s="3">
-        <f t="shared" ref="AR49:CP49" si="70">AQ49*(1+$AT$71)</f>
-        <v>580381.51812879648</v>
+        <f t="shared" ref="AR49:CP49" si="67">AQ49*(1+$AG$67)</f>
+        <v>503595.33247707406</v>
       </c>
       <c r="AS49" s="3">
-        <f t="shared" si="70"/>
-        <v>586185.33331008442</v>
+        <f t="shared" si="67"/>
+        <v>508631.28580184479</v>
       </c>
       <c r="AT49" s="3">
-        <f t="shared" si="70"/>
-        <v>592047.18664318521</v>
+        <f t="shared" si="67"/>
+        <v>513717.59865986323</v>
       </c>
       <c r="AU49" s="3">
-        <f t="shared" si="70"/>
-        <v>597967.65850961709</v>
+        <f t="shared" si="67"/>
+        <v>518854.77464646188</v>
       </c>
       <c r="AV49" s="3">
-        <f t="shared" si="70"/>
-        <v>603947.33509471326</v>
+        <f t="shared" si="67"/>
+        <v>524043.32239292649</v>
       </c>
       <c r="AW49" s="3">
-        <f t="shared" si="70"/>
-        <v>609986.8084456604</v>
+        <f t="shared" si="67"/>
+        <v>529283.75561685581</v>
       </c>
       <c r="AX49" s="3">
-        <f t="shared" si="70"/>
-        <v>616086.67653011705</v>
+        <f t="shared" si="67"/>
+        <v>534576.59317302436</v>
       </c>
       <c r="AY49" s="3">
-        <f t="shared" si="70"/>
-        <v>622247.54329541826</v>
+        <f t="shared" si="67"/>
+        <v>539922.35910475464</v>
       </c>
       <c r="AZ49" s="3">
-        <f t="shared" si="70"/>
-        <v>628470.01872837241</v>
+        <f t="shared" si="67"/>
+        <v>545321.58269580221</v>
       </c>
       <c r="BA49" s="3">
-        <f t="shared" si="70"/>
-        <v>634754.71891565609</v>
+        <f t="shared" si="67"/>
+        <v>550774.79852276028</v>
       </c>
       <c r="BB49" s="3">
-        <f t="shared" si="70"/>
-        <v>641102.26610481262</v>
+        <f t="shared" si="67"/>
+        <v>556282.54650798789</v>
       </c>
       <c r="BC49" s="3">
-        <f t="shared" si="70"/>
-        <v>647513.28876586072</v>
+        <f t="shared" si="67"/>
+        <v>561845.37197306775</v>
       </c>
       <c r="BD49" s="3">
-        <f t="shared" si="70"/>
-        <v>653988.42165351938</v>
+        <f t="shared" si="67"/>
+        <v>567463.82569279848</v>
       </c>
       <c r="BE49" s="3">
-        <f t="shared" si="70"/>
-        <v>660528.30587005464</v>
+        <f t="shared" si="67"/>
+        <v>573138.46394972643</v>
       </c>
       <c r="BF49" s="3">
-        <f t="shared" si="70"/>
-        <v>667133.58892875514</v>
+        <f t="shared" si="67"/>
+        <v>578869.84858922369</v>
       </c>
       <c r="BG49" s="3">
-        <f t="shared" si="70"/>
-        <v>673804.92481804267</v>
+        <f t="shared" si="67"/>
+        <v>584658.54707511596</v>
       </c>
       <c r="BH49" s="3">
-        <f t="shared" si="70"/>
-        <v>680542.97406622313</v>
+        <f t="shared" si="67"/>
+        <v>590505.13254586712</v>
       </c>
       <c r="BI49" s="3">
-        <f t="shared" si="70"/>
-        <v>687348.40380688536</v>
+        <f t="shared" si="67"/>
+        <v>596410.1838713258</v>
       </c>
       <c r="BJ49" s="3">
-        <f t="shared" si="70"/>
-        <v>694221.88784495427</v>
+        <f t="shared" si="67"/>
+        <v>602374.28571003908</v>
       </c>
       <c r="BK49" s="3">
-        <f t="shared" si="70"/>
-        <v>701164.10672340379</v>
+        <f t="shared" si="67"/>
+        <v>608398.02856713952</v>
       </c>
       <c r="BL49" s="3">
-        <f t="shared" si="70"/>
-        <v>708175.74779063789</v>
+        <f t="shared" si="67"/>
+        <v>614482.00885281095</v>
       </c>
       <c r="BM49" s="3">
-        <f t="shared" si="70"/>
-        <v>715257.50526854431</v>
+        <f t="shared" si="67"/>
+        <v>620626.82894133904</v>
       </c>
       <c r="BN49" s="3">
-        <f t="shared" si="70"/>
-        <v>722410.08032122976</v>
+        <f t="shared" si="67"/>
+        <v>626833.09723075246</v>
       </c>
       <c r="BO49" s="3">
-        <f t="shared" si="70"/>
-        <v>729634.18112444202</v>
+        <f t="shared" si="67"/>
+        <v>633101.42820305994</v>
       </c>
       <c r="BP49" s="3">
-        <f t="shared" si="70"/>
-        <v>736930.5229356864</v>
+        <f t="shared" si="67"/>
+        <v>639432.44248509058</v>
       </c>
       <c r="BQ49" s="3">
-        <f t="shared" si="70"/>
-        <v>744299.82816504326</v>
+        <f t="shared" si="67"/>
+        <v>645826.76690994145</v>
       </c>
       <c r="BR49" s="3">
-        <f t="shared" si="70"/>
-        <v>751742.82644669374</v>
+        <f t="shared" si="67"/>
+        <v>652285.03457904083</v>
       </c>
       <c r="BS49" s="3">
-        <f t="shared" si="70"/>
-        <v>759260.25471116067</v>
+        <f t="shared" si="67"/>
+        <v>658807.88492483122</v>
       </c>
       <c r="BT49" s="3">
-        <f t="shared" si="70"/>
-        <v>766852.85725827224</v>
+        <f t="shared" si="67"/>
+        <v>665395.96377407957</v>
       </c>
       <c r="BU49" s="3">
-        <f t="shared" si="70"/>
-        <v>774521.385830855</v>
+        <f t="shared" si="67"/>
+        <v>672049.92341182043</v>
       </c>
       <c r="BV49" s="3">
-        <f t="shared" si="70"/>
-        <v>782266.5996891635</v>
+        <f t="shared" si="67"/>
+        <v>678770.4226459387</v>
       </c>
       <c r="BW49" s="3">
-        <f t="shared" si="70"/>
-        <v>790089.26568605518</v>
+        <f t="shared" si="67"/>
+        <v>685558.12687239808</v>
       </c>
       <c r="BX49" s="3">
-        <f t="shared" si="70"/>
-        <v>797990.1583429157</v>
+        <f t="shared" si="67"/>
+        <v>692413.70814112201</v>
       </c>
       <c r="BY49" s="3">
-        <f t="shared" si="70"/>
-        <v>805970.0599263449</v>
+        <f t="shared" si="67"/>
+        <v>699337.84522253321</v>
       </c>
       <c r="BZ49" s="3">
-        <f t="shared" si="70"/>
-        <v>814029.76052560832</v>
+        <f t="shared" si="67"/>
+        <v>706331.22367475857</v>
       </c>
       <c r="CA49" s="3">
-        <f t="shared" si="70"/>
-        <v>822170.0581308644</v>
+        <f t="shared" si="67"/>
+        <v>713394.53591150616</v>
       </c>
       <c r="CB49" s="3">
-        <f t="shared" si="70"/>
-        <v>830391.75871217309</v>
+        <f t="shared" si="67"/>
+        <v>720528.48127062118</v>
       </c>
       <c r="CC49" s="3">
-        <f t="shared" si="70"/>
-        <v>838695.67629929481</v>
+        <f t="shared" si="67"/>
+        <v>727733.76608332735</v>
       </c>
       <c r="CD49" s="3">
-        <f t="shared" si="70"/>
-        <v>847082.63306228782</v>
+        <f t="shared" si="67"/>
+        <v>735011.10374416062</v>
       </c>
       <c r="CE49" s="3">
-        <f t="shared" si="70"/>
-        <v>855553.45939291071</v>
+        <f t="shared" si="67"/>
+        <v>742361.21478160226</v>
       </c>
       <c r="CF49" s="3">
-        <f t="shared" si="70"/>
-        <v>864108.99398683978</v>
+        <f t="shared" si="67"/>
+        <v>749784.82692941825</v>
       </c>
       <c r="CG49" s="3">
-        <f t="shared" si="70"/>
-        <v>872750.0839267082</v>
+        <f t="shared" si="67"/>
+        <v>757282.67519871239</v>
       </c>
       <c r="CH49" s="3">
-        <f t="shared" si="70"/>
-        <v>881477.58476597525</v>
+        <f t="shared" si="67"/>
+        <v>764855.50195069949</v>
       </c>
       <c r="CI49" s="3">
-        <f t="shared" si="70"/>
-        <v>890292.36061363504</v>
+        <f t="shared" si="67"/>
+        <v>772504.05697020644</v>
       </c>
       <c r="CJ49" s="3">
-        <f t="shared" si="70"/>
-        <v>899195.28421977139</v>
+        <f t="shared" si="67"/>
+        <v>780229.09753990849</v>
       </c>
       <c r="CK49" s="3">
-        <f t="shared" si="70"/>
-        <v>908187.23706196912</v>
+        <f t="shared" si="67"/>
+        <v>788031.38851530757</v>
       </c>
       <c r="CL49" s="3">
-        <f t="shared" si="70"/>
-        <v>917269.1094325888</v>
+        <f t="shared" si="67"/>
+        <v>795911.70240046061</v>
       </c>
       <c r="CM49" s="3">
-        <f t="shared" si="70"/>
-        <v>926441.80052691465</v>
+        <f t="shared" si="67"/>
+        <v>803870.81942446518</v>
       </c>
       <c r="CN49" s="3">
-        <f t="shared" si="70"/>
-        <v>935706.21853218379</v>
+        <f t="shared" si="67"/>
+        <v>811909.52761870984</v>
       </c>
       <c r="CO49" s="3">
-        <f t="shared" si="70"/>
-        <v>945063.28071750561</v>
+        <f t="shared" si="67"/>
+        <v>820028.62289489689</v>
       </c>
       <c r="CP49" s="3">
-        <f t="shared" si="70"/>
-        <v>954513.91352468065</v>
+        <f t="shared" si="67"/>
+        <v>828228.90912384586</v>
       </c>
     </row>
     <row r="52" spans="2:94" s="53" customFormat="1" x14ac:dyDescent="0.35">
@@ -28928,132 +29159,132 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K52" s="53" t="e">
-        <f t="shared" ref="K52:AP52" si="71">K49/K53</f>
+        <f t="shared" ref="K52:AP52" si="68">K49/K53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L52" s="53" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M52" s="53" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N52" s="53" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="53" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P52" s="53" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q52" s="53" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R52" s="53" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S52" s="53" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T52" s="53" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U52" s="53" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V52" s="53">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>0.28268876611418048</v>
       </c>
       <c r="W52" s="53">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>0.76987060998151569</v>
       </c>
       <c r="X52" s="53">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>1.271702838063439</v>
       </c>
       <c r="Y52" s="53">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>1.7027138157894737</v>
       </c>
       <c r="Z52" s="53">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>1.1477832512315271</v>
       </c>
       <c r="AA52" s="53">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>1.7552674230145866</v>
       </c>
       <c r="AB52" s="53">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>3.9070512820512819</v>
       </c>
       <c r="AC52" s="53">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>1.7563329312424607</v>
       </c>
       <c r="AD52" s="53">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>12.053462940461726</v>
       </c>
       <c r="AE52" s="53">
-        <f t="shared" si="71"/>
-        <v>10.89455164034022</v>
+        <f t="shared" si="68"/>
+        <v>7.728137059538275</v>
       </c>
       <c r="AF52" s="53">
-        <f t="shared" si="71"/>
-        <v>14.486935763466992</v>
+        <f t="shared" si="68"/>
+        <v>10.432985030376672</v>
       </c>
       <c r="AG52" s="53">
-        <f t="shared" si="71"/>
-        <v>19.223205759416771</v>
+        <f t="shared" si="68"/>
+        <v>14.084529791008512</v>
       </c>
       <c r="AH52" s="53">
-        <f t="shared" si="71"/>
-        <v>25.460844945727018</v>
+        <f t="shared" si="68"/>
+        <v>19.014115217861487</v>
       </c>
       <c r="AI52" s="53">
-        <f t="shared" si="71"/>
-        <v>33.667827258626978</v>
+        <f t="shared" si="68"/>
+        <v>25.669055544113011</v>
       </c>
       <c r="AJ52" s="53">
-        <f t="shared" si="71"/>
-        <v>44.456525779679041</v>
+        <f t="shared" si="68"/>
+        <v>41.424544809120313</v>
       </c>
       <c r="AK52" s="53">
-        <f t="shared" si="71"/>
-        <v>58.627976645947314</v>
+        <f t="shared" si="68"/>
+        <v>53.851908251856422</v>
       </c>
       <c r="AL52" s="53">
-        <f t="shared" si="71"/>
-        <v>77.229649538677052</v>
+        <f t="shared" si="68"/>
+        <v>70.007480727413338</v>
       </c>
       <c r="AM52" s="53">
-        <f t="shared" si="71"/>
-        <v>101.63083227997541</v>
+        <f t="shared" si="68"/>
+        <v>91.009724945637331</v>
       </c>
       <c r="AN52" s="53">
-        <f t="shared" si="71"/>
-        <v>133.62098302050234</v>
+        <f t="shared" si="68"/>
+        <v>118.31264242932851</v>
       </c>
       <c r="AO52" s="53">
-        <f t="shared" si="71"/>
-        <v>175.53802663527352</v>
+        <f t="shared" si="68"/>
+        <v>153.80643515812707</v>
       </c>
       <c r="AP52" s="53">
-        <f t="shared" si="71"/>
-        <v>230.43568625777661</v>
+        <f t="shared" si="68"/>
+        <v>199.94836570556521</v>
       </c>
     </row>
     <row r="53" spans="2:94" x14ac:dyDescent="0.35">
@@ -29061,27 +29292,27 @@
         <v>1</v>
       </c>
       <c r="V53">
-        <f t="shared" ref="V53:AA53" si="72">V54*4</f>
+        <f t="shared" ref="V53:AA53" si="69">V54*4</f>
         <v>2172</v>
       </c>
       <c r="W53">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>2164</v>
       </c>
       <c r="X53">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>2396</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>2432</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>2436</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>2468</v>
       </c>
       <c r="AB53">
@@ -29098,47 +29329,47 @@
         <v>2469</v>
       </c>
       <c r="AF53">
-        <f t="shared" ref="AF53:AP53" si="73">AE53</f>
+        <f t="shared" ref="AF53:AP53" si="70">AE53</f>
         <v>2469</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>2469</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>2469</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>2469</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>2469</v>
       </c>
       <c r="AK53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>2469</v>
       </c>
       <c r="AL53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>2469</v>
       </c>
       <c r="AM53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>2469</v>
       </c>
       <c r="AN53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>2469</v>
       </c>
       <c r="AO53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>2469</v>
       </c>
       <c r="AP53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>2469</v>
       </c>
     </row>
@@ -29176,968 +29407,808 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K56" s="15" t="e">
-        <f t="shared" ref="K56:AP56" si="74">K36/J36-1</f>
+        <f t="shared" ref="K56:AD56" si="71">K36/J36-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L56" s="15" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M56" s="15" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N56" s="15" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O56" s="15" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P56" s="15" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" s="15" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R56" s="15" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S56" s="15" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T56" s="15" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U56" s="15" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V56" s="15" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W56" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>0.37924151696606789</v>
       </c>
       <c r="X56" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>0.40578871201157751</v>
       </c>
       <c r="Y56" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>0.20609429689108505</v>
       </c>
       <c r="Z56" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>-6.8111983612154314E-2</v>
       </c>
       <c r="AA56" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>0.52729437625938824</v>
       </c>
       <c r="AB56" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>0.61403298350824587</v>
       </c>
       <c r="AC56" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>2.2293230289069932E-3</v>
       </c>
       <c r="AD56" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="AE56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="AF56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="AG56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="AH56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="AI56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="AJ56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="AK56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="AL56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="AM56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="AN56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="AO56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="AP56" s="15">
-        <f t="shared" si="74"/>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>1677</v>
-      </c>
-      <c r="J57" s="15" t="e">
-        <f>J49/I49-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" s="15" t="e">
-        <f t="shared" ref="K57:AP57" si="75">K49/J49-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L57" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M57" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N57" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O57" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P57" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q57" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R57" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S57" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T57" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U57" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V57" s="15" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W57" s="15">
-        <f t="shared" si="75"/>
-        <v>1.7133550488599347</v>
-      </c>
-      <c r="X57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.82893157262905159</v>
-      </c>
-      <c r="Y57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.35904168034131922</v>
-      </c>
-      <c r="Z57" s="15">
-        <f t="shared" si="75"/>
-        <v>-0.3248007727602028</v>
-      </c>
-      <c r="AA57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.54935622317596566</v>
-      </c>
-      <c r="AB57" s="15">
-        <f t="shared" si="75"/>
-        <v>1.2511542012927053</v>
-      </c>
-      <c r="AC57" s="15">
-        <f t="shared" si="75"/>
-        <v>-0.55209187858900743</v>
-      </c>
-      <c r="AD57" s="15">
-        <f t="shared" si="75"/>
-        <v>5.813186813186813</v>
-      </c>
-      <c r="AE57" s="15">
-        <f t="shared" si="75"/>
-        <v>-9.6147580645161157E-2</v>
-      </c>
-      <c r="AF57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.32974134610780426</v>
-      </c>
-      <c r="AG57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.3269338715433292</v>
-      </c>
-      <c r="AH57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.32448485774827884</v>
-      </c>
-      <c r="AI57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.32233739023171348</v>
-      </c>
-      <c r="AJ57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.32044534499289923</v>
-      </c>
-      <c r="AK57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31877099295838374</v>
-      </c>
-      <c r="AL57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31728321454899788</v>
-      </c>
-      <c r="AM57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31595615009334099</v>
-      </c>
-      <c r="AN57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31476816653827622</v>
-      </c>
-      <c r="AO57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31370105702889184</v>
-      </c>
-      <c r="AP57" s="15">
-        <f t="shared" si="75"/>
-        <v>0.31273941421574403</v>
+    <row r="57" spans="2:94" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>51</v>
+        <v>1701</v>
+      </c>
+      <c r="J58" s="15" t="e">
+        <f t="shared" ref="J58:AD58" si="72">J38/J36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L58" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N58" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O58" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P58" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q58" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R58" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S58" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T58" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U58" s="15" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V58" s="15">
+        <f t="shared" si="72"/>
+        <v>0.56107784431137719</v>
       </c>
       <c r="W58" s="15">
-        <f>W39/V39-1</f>
-        <v>9.9173553719008156E-2</v>
+        <f t="shared" si="72"/>
+        <v>0.58798842257597683</v>
       </c>
       <c r="X58" s="15">
-        <f t="shared" ref="X58:AC58" si="76">X39/W39-1</f>
-        <v>0.228298017771702</v>
+        <f t="shared" si="72"/>
+        <v>0.59934115709285563</v>
       </c>
       <c r="Y58" s="15">
-        <f t="shared" si="76"/>
-        <v>0.32220367278798001</v>
+        <f t="shared" si="72"/>
+        <v>0.61206896551724133</v>
       </c>
       <c r="Z58" s="15">
-        <f t="shared" si="76"/>
-        <v>0.19065656565656575</v>
+        <f t="shared" si="72"/>
+        <v>0.61989375343469499</v>
       </c>
       <c r="AA58" s="15">
-        <f t="shared" si="76"/>
-        <v>0.38706256627783664</v>
+        <f t="shared" si="72"/>
+        <v>0.62344827586206897</v>
       </c>
       <c r="AB58" s="15">
-        <f t="shared" si="76"/>
-        <v>0.34250764525993893</v>
+        <f t="shared" si="72"/>
+        <v>0.64929033216913135</v>
       </c>
       <c r="AC58" s="15">
-        <f t="shared" si="76"/>
-        <v>0.39312832194381175</v>
+        <f t="shared" si="72"/>
+        <v>0.56928894490991322</v>
       </c>
       <c r="AD58" s="15">
-        <f>AD39/AC39-1</f>
-        <v>0.18204115002043886</v>
+        <f t="shared" si="72"/>
+        <v>0.72717573290436954</v>
       </c>
       <c r="AE58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AF58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AG58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AH58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AI58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AJ58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AK58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AL58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AM58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AN58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AO58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AP58" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="59" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
+        <v>1716</v>
+      </c>
+      <c r="J59" s="15" t="e">
+        <f>J48/J47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="15" t="e">
+        <f>K48/K47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L59" s="15" t="e">
+        <f>L48/L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="15" t="e">
+        <f>M48/M47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N59" s="15" t="e">
+        <f>N48/N47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="15" t="e">
+        <f>O48/O47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P59" s="15" t="e">
+        <f>P48/P47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q59" s="15" t="e">
+        <f>Q48/Q47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R59" s="15" t="e">
+        <f>R48/R47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S59" s="15" t="e">
+        <f>S48/S47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T59" s="15" t="e">
+        <f>T48/T47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U59" s="15" t="e">
+        <f>U48/U47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V59" s="15">
+        <f>V48/V47</f>
+        <v>0.17362045760430686</v>
+      </c>
+      <c r="W59" s="15">
+        <f>W48/W47</f>
+        <v>0.12545931758530185</v>
+      </c>
+      <c r="X59" s="15">
+        <f>X48/X47</f>
+        <v>4.6620775969962454E-2</v>
+      </c>
+      <c r="Y59" s="15">
+        <f>Y48/Y47</f>
+        <v>-6.2885010266940447E-2</v>
+      </c>
+      <c r="Z59" s="15">
+        <f>Z48/Z47</f>
+        <v>5.8585858585858588E-2</v>
+      </c>
+      <c r="AA59" s="15">
+        <f>AA48/AA47</f>
+        <v>1.7464277613971423E-2</v>
+      </c>
+      <c r="AB59" s="15">
+        <f>AB48/AB47</f>
+        <v>1.9012171813700834E-2</v>
+      </c>
+      <c r="AC59" s="15">
+        <f>AC48/AC47</f>
+        <v>-4.4726142071274816E-2</v>
+      </c>
+      <c r="AD59" s="15">
+        <f>AD48/AD47</f>
+        <v>0.1199952687917677</v>
+      </c>
+      <c r="AE59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AF59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AG59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AH59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AI59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AJ59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AK59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AL59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AM59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AN59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AO59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="AP59" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:94" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="9" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="61" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J61" s="15" t="e">
+        <f>J39/J36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K61" s="15" t="e">
+        <f>K39/K36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L61" s="15" t="e">
+        <f>L39/L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" s="15" t="e">
+        <f>M39/M36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N61" s="15" t="e">
+        <f>N39/N36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O61" s="15" t="e">
+        <f>O39/O36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P61" s="15" t="e">
+        <f>P39/P36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q61" s="15" t="e">
+        <f>Q39/Q36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R61" s="15" t="e">
+        <f>R39/R36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S61" s="15" t="e">
+        <f>S39/S36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T61" s="15" t="e">
+        <f>T39/T36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U61" s="15" t="e">
+        <f>U39/U36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V61" s="15">
+        <f>V39/V36</f>
+        <v>0.26566866267465072</v>
+      </c>
+      <c r="W61" s="15">
+        <f>W39/W36</f>
+        <v>0.21172214182344429</v>
+      </c>
+      <c r="X61" s="15">
+        <f>X39/X36</f>
+        <v>0.18499073502161828</v>
+      </c>
+      <c r="Y61" s="15">
+        <f>Y39/Y36</f>
+        <v>0.20279959030385797</v>
+      </c>
+      <c r="Z61" s="15">
+        <f>Z39/Z36</f>
+        <v>0.25911339073090311</v>
+      </c>
+      <c r="AA61" s="15">
+        <f>AA39/AA36</f>
+        <v>0.2353223388305847</v>
+      </c>
+      <c r="AB61" s="15">
+        <f>AB39/AB36</f>
+        <v>0.19573456193802483</v>
+      </c>
+      <c r="AC61" s="15">
+        <f>AC39/AC36</f>
+        <v>0.27207681471046191</v>
+      </c>
+      <c r="AD61" s="15">
+        <f>AD39/AD36</f>
+        <v>0.14239519385443683</v>
+      </c>
+      <c r="AE61" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="AF61" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="AG61" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="AH61" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="AI61" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="AJ61" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="AK61" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="AL61" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="AM61" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="AN61" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="AO61" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="AP61" s="15">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W59" s="15">
-        <f>W40/V40-1</f>
-        <v>0.1013289036544851</v>
-      </c>
-      <c r="X59" s="15">
-        <f t="shared" ref="X59:AC59" si="77">X40/W40-1</f>
-        <v>0.22926093514328816</v>
-      </c>
-      <c r="Y59" s="15">
-        <f t="shared" si="77"/>
-        <v>0.21595092024539886</v>
-      </c>
-      <c r="Z59" s="15">
-        <f t="shared" si="77"/>
-        <v>0.10292633703329979</v>
-      </c>
-      <c r="AA59" s="15">
-        <f t="shared" si="77"/>
-        <v>0.77493138151875574</v>
-      </c>
-      <c r="AB59" s="15">
-        <f t="shared" si="77"/>
-        <v>0.11649484536082477</v>
-      </c>
-      <c r="AC59" s="15">
-        <f t="shared" si="77"/>
-        <v>0.12650046168051698</v>
-      </c>
-      <c r="AD59" s="15">
-        <f>AD40/AC40-1</f>
-        <v>8.7704918032786905E-2</v>
+      <c r="J62" s="15" t="e">
+        <f>J40/J36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K62" s="15" t="e">
+        <f>K40/K36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L62" s="15" t="e">
+        <f>L40/L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" s="15" t="e">
+        <f>M40/M36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N62" s="15" t="e">
+        <f>N40/N36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O62" s="15" t="e">
+        <f>O40/O36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P62" s="15" t="e">
+        <f>P40/P36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q62" s="15" t="e">
+        <f>Q40/Q36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R62" s="15" t="e">
+        <f>R40/R36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S62" s="15" t="e">
+        <f>S40/S36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T62" s="15" t="e">
+        <f>T40/T36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U62" s="15" t="e">
+        <f>U40/U36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V62" s="15">
+        <f>V40/V36</f>
+        <v>0.12015968063872255</v>
+      </c>
+      <c r="W62" s="15">
+        <f>W40/W36</f>
+        <v>9.5947901591895798E-2</v>
+      </c>
+      <c r="X62" s="15">
+        <f>X40/X36</f>
+        <v>8.3899526456660489E-2</v>
+      </c>
+      <c r="Y62" s="15">
+        <f>Y40/Y36</f>
+        <v>8.4585182656196647E-2</v>
+      </c>
+      <c r="Z62" s="15">
+        <f>Z40/Z36</f>
+        <v>0.10010991023997069</v>
+      </c>
+      <c r="AA62" s="15">
+        <f>AA40/AA36</f>
+        <v>0.11634182908545727</v>
+      </c>
+      <c r="AB62" s="15">
+        <f>AB40/AB36</f>
+        <v>8.0478561343538674E-2</v>
+      </c>
+      <c r="AC62" s="15">
+        <f>AC40/AC36</f>
+        <v>9.0457477570994288E-2</v>
+      </c>
+      <c r="AD62" s="15">
+        <f>AD40/AD36</f>
+        <v>4.3563901382095135E-2</v>
+      </c>
+      <c r="AE62" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="AF62" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="AG62" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="AH62" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="AI62" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="AJ62" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK62" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL62" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AM62" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN62" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO62" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP62" s="15">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:94" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="9" t="s">
-        <v>73</v>
+    <row r="65" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF65" t="s">
+        <v>1677</v>
       </c>
     </row>
-    <row r="63" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>1701</v>
-      </c>
-      <c r="J63" s="15" t="e">
-        <f t="shared" ref="J63:AD63" si="78">J38/J36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" s="15" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L63" s="15" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" s="15" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N63" s="15" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="15" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P63" s="15" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q63" s="15" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R63" s="15" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S63" s="15" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T63" s="15" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U63" s="15" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V63" s="15">
-        <f t="shared" si="78"/>
-        <v>0.56107784431137719</v>
-      </c>
-      <c r="W63" s="15">
-        <f t="shared" si="78"/>
-        <v>0.58798842257597683</v>
-      </c>
-      <c r="X63" s="15">
-        <f t="shared" si="78"/>
-        <v>0.59934115709285563</v>
-      </c>
-      <c r="Y63" s="15">
-        <f t="shared" si="78"/>
-        <v>0.61206896551724133</v>
-      </c>
-      <c r="Z63" s="15">
-        <f t="shared" si="78"/>
-        <v>0.61989375343469499</v>
-      </c>
-      <c r="AA63" s="15">
-        <f t="shared" si="78"/>
-        <v>0.62344827586206897</v>
-      </c>
-      <c r="AB63" s="15">
-        <f t="shared" si="78"/>
-        <v>0.64929033216913135</v>
-      </c>
-      <c r="AC63" s="15">
-        <f t="shared" si="78"/>
-        <v>0.56928894490991322</v>
-      </c>
-      <c r="AD63" s="15">
-        <f t="shared" si="78"/>
-        <v>0.72717573290436954</v>
-      </c>
-      <c r="AE63" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AF63" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AG63" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AH63" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AI63" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AJ63" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AK63" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AL63" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AM63" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AN63" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AO63" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AP63" s="15">
-        <v>0.6</v>
-      </c>
+    <row r="66" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF66" s="9" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG66" s="9"/>
+      <c r="AH66" s="52"/>
+      <c r="AI66" s="52"/>
+      <c r="AJ66" s="52"/>
+      <c r="AS66" s="9" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT66" s="9"/>
+      <c r="AU66" s="9"/>
+      <c r="AV66" s="9"/>
     </row>
-    <row r="64" spans="2:94" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J64" s="15" t="e">
-        <f>J43/J36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K64" s="15" t="e">
-        <f t="shared" ref="K64:AP64" si="79">K43/K36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L64" s="15" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M64" s="15" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N64" s="15" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O64" s="15" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P64" s="15" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q64" s="15" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R64" s="15" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S64" s="15" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T64" s="15" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U64" s="15" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.14910179640718563</v>
-      </c>
-      <c r="W64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.27988422575976846</v>
-      </c>
-      <c r="X64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.33045089561457691</v>
-      </c>
-      <c r="Y64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.32468419255718678</v>
-      </c>
-      <c r="Z64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.2606704524638212</v>
-      </c>
-      <c r="AA64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.27178410794602698</v>
-      </c>
-      <c r="AB64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.37307720888756779</v>
-      </c>
-      <c r="AC64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.1565952398606065</v>
-      </c>
-      <c r="AD64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.54121663766783756</v>
-      </c>
-      <c r="AE64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.42454424699426507</v>
-      </c>
-      <c r="AF64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.43425695267729092</v>
-      </c>
-      <c r="AG64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.44325404573898913</v>
-      </c>
-      <c r="AH64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.45160251670534934</v>
-      </c>
-      <c r="AI64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.45936222566325036</v>
-      </c>
-      <c r="AJ64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.46658670195585894</v>
-      </c>
-      <c r="AK64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.47332385249192732</v>
-      </c>
-      <c r="AL64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.47961658917944744</v>
-      </c>
-      <c r="AM64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.4855033847826809</v>
-      </c>
-      <c r="AN64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.49101876542988659</v>
-      </c>
-      <c r="AO64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.49619374705097191</v>
-      </c>
-      <c r="AP64" s="15">
-        <f t="shared" si="79"/>
-        <v>0.50105622218554458</v>
+    <row r="67" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF67" s="52" t="s">
+        <v>1717</v>
+      </c>
+      <c r="AG67" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="AS67" s="52" t="s">
+        <v>1717</v>
+      </c>
+      <c r="AT67" s="15">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J65" s="15" t="e">
-        <f>J49/J36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K65" s="15" t="e">
-        <f t="shared" ref="K65:AP65" si="80">K49/K36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L65" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M65" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N65" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O65" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P65" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q65" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R65" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S65" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T65" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U65" s="15" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.12255489021956088</v>
-      </c>
-      <c r="W65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.24109985528219971</v>
-      </c>
-      <c r="X65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.3136709903232448</v>
-      </c>
-      <c r="Y65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.35344827586206895</v>
-      </c>
-      <c r="Z65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.25609085913170909</v>
-      </c>
-      <c r="AA65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.25979010494752625</v>
-      </c>
-      <c r="AB65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.36233930296499961</v>
-      </c>
-      <c r="AC65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.16193371394676356</v>
-      </c>
-      <c r="AD65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.4884934834706674</v>
-      </c>
-      <c r="AE65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.33963539759541206</v>
-      </c>
-      <c r="AF65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.34740556214183271</v>
-      </c>
-      <c r="AG65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.35460323659119131</v>
-      </c>
-      <c r="AH65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.36128201336427945</v>
-      </c>
-      <c r="AI65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.36748978053060027</v>
-      </c>
-      <c r="AJ65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.3732693615646871</v>
-      </c>
-      <c r="AK65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.37865908199354187</v>
-      </c>
-      <c r="AL65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.38369327134355796</v>
-      </c>
-      <c r="AM65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.38840270782614467</v>
-      </c>
-      <c r="AN65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.39281501234390925</v>
-      </c>
-      <c r="AO65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.39695499764077752</v>
-      </c>
-      <c r="AP65" s="15">
-        <f t="shared" si="80"/>
-        <v>0.40084497774843564</v>
+    <row r="68" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF68" s="52" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AG68" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AS68" s="52" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AT68" s="15">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
+    <row r="69" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF69" s="52" t="s">
+        <v>1719</v>
+      </c>
+      <c r="AG69" s="54">
+        <f>NPV(AG68,AE49:CP49)</f>
+        <v>2585490.7674803506</v>
+      </c>
+      <c r="AS69" s="52" t="s">
+        <v>1719</v>
+      </c>
+      <c r="AT69" s="54">
+        <f>NPV(AT68,AE49:CP49)</f>
+        <v>2585490.7674803506</v>
+      </c>
+    </row>
+    <row r="70" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF70" s="52" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AG70" s="55">
+        <f>AG69/$AD$53/10</f>
+        <v>104.71813558041113</v>
+      </c>
+      <c r="AS70" s="52" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AT70" s="55">
+        <f>AT69/AP53/10</f>
+        <v>104.71813558041113</v>
+      </c>
+    </row>
+    <row r="71" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF71" s="52" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AG71" s="56" cm="1">
+        <f t="array" ref="AG71">_FV(AF66,"Price")</f>
+        <v>109.21</v>
+      </c>
+      <c r="AS71" s="52" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AT71" s="56" cm="1">
+        <f t="array" ref="AT71">_FV(AS66,"Price")</f>
+        <v>109.21</v>
+      </c>
+    </row>
+    <row r="72" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF72" s="52" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AG72" s="15">
+        <f>AG70/AG71-1</f>
+        <v>-4.1130523025261989E-2</v>
+      </c>
+      <c r="AS72" s="52" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AT72" s="15">
+        <f>AT70/AT71-1</f>
+        <v>-4.1130523025261989E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF75" s="9" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG75" s="9"/>
+      <c r="AH75" s="52"/>
+      <c r="AI75" s="52"/>
+      <c r="AJ75" s="52"/>
+    </row>
+    <row r="76" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF76" s="52" t="s">
         <v>1717</v>
       </c>
-      <c r="J66" s="15" t="e">
-        <f>J48/J47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K66" s="15" t="e">
-        <f t="shared" ref="K66:AD66" si="81">K48/K47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L66" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M66" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N66" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O66" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P66" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q66" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R66" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S66" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T66" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U66" s="15" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V66" s="15">
-        <f t="shared" si="81"/>
-        <v>0.17362045760430686</v>
-      </c>
-      <c r="W66" s="15">
-        <f t="shared" si="81"/>
-        <v>0.12545931758530185</v>
-      </c>
-      <c r="X66" s="15">
-        <f t="shared" si="81"/>
-        <v>4.6620775969962454E-2</v>
-      </c>
-      <c r="Y66" s="15">
-        <f t="shared" si="81"/>
-        <v>-6.2885010266940447E-2</v>
-      </c>
-      <c r="Z66" s="15">
-        <f t="shared" si="81"/>
-        <v>5.8585858585858588E-2</v>
-      </c>
-      <c r="AA66" s="15">
-        <f t="shared" si="81"/>
-        <v>1.7464277613971423E-2</v>
-      </c>
-      <c r="AB66" s="15">
-        <f t="shared" si="81"/>
-        <v>1.9012171813700834E-2</v>
-      </c>
-      <c r="AC66" s="15">
-        <f t="shared" si="81"/>
-        <v>-4.4726142071274816E-2</v>
-      </c>
-      <c r="AD66" s="15">
-        <f t="shared" si="81"/>
-        <v>0.1199952687917677</v>
-      </c>
-      <c r="AE66" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="AF66" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="AG66" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="AH66" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="AI66" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="AJ66" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="AK66" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="AL66" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="AM66" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="AN66" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="AO66" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="AP66" s="15">
-        <v>0.2</v>
+      <c r="AG76" s="15">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="70" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="AS70" s="9" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT70" s="9"/>
-      <c r="AU70" s="9"/>
-      <c r="AV70" s="9"/>
+    <row r="77" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF77" s="52" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AG77" s="15">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="71" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="AS71" s="52" t="s">
-        <v>1718</v>
-      </c>
-      <c r="AT71" s="15">
-        <v>0.01</v>
+    <row r="78" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF78" s="52" t="s">
+        <v>1719</v>
+      </c>
+      <c r="AG78" s="54">
+        <f>NPV(AG77,AE36:CP36)</f>
+        <v>8512157.5439507701</v>
       </c>
     </row>
-    <row r="72" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="AS72" s="52" t="s">
-        <v>1719</v>
-      </c>
-      <c r="AT72" s="15">
-        <v>0.1</v>
+    <row r="79" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF79" s="52" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AG79" s="55">
+        <f>AG78/$AD$53/10</f>
+        <v>344.7613424038384</v>
       </c>
     </row>
-    <row r="73" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="AS73" s="52" t="s">
+    <row r="80" spans="32:48" x14ac:dyDescent="0.35">
+      <c r="AF80" s="52" t="s">
         <v>1720</v>
       </c>
-      <c r="AT73" s="54">
-        <f>NPV(AT72,AE49:CP49)</f>
-        <v>2986594.0807834635</v>
+      <c r="AG80" s="56" cm="1">
+        <f t="array" ref="AG80">_FV(AF75,"Price")</f>
+        <v>109.21</v>
       </c>
     </row>
-    <row r="74" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="AS74" s="52" t="s">
+    <row r="81" spans="32:33" x14ac:dyDescent="0.35">
+      <c r="AF81" s="52" t="s">
         <v>1721</v>
       </c>
-      <c r="AT74" s="55">
-        <f>AT73/AP53/10</f>
-        <v>120.96371327596046</v>
-      </c>
-    </row>
-    <row r="75" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="AS75" s="52" t="s">
-        <v>1722</v>
-      </c>
-      <c r="AT75" s="56" cm="1">
-        <f t="array" ref="AT75">_FV(AS70,"Price")</f>
-        <v>113.06</v>
-      </c>
-    </row>
-    <row r="76" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="AS76" s="52" t="s">
-        <v>1723</v>
-      </c>
-      <c r="AT76" s="15">
-        <f>AT74/AT75-1</f>
-        <v>6.9907246382101995E-2</v>
+      <c r="AG81" s="15">
+        <f>AG79/AG80-1</f>
+        <v>2.1568660599197731</v>
       </c>
     </row>
   </sheetData>
